--- a/X_implementation.xlsx
+++ b/X_implementation.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +468,7 @@
         <v>52.84999847412109</v>
       </c>
       <c r="F2">
-        <v>52.30582427978516</v>
+        <v>52.30582046508789</v>
       </c>
       <c r="G2">
         <v>86413600</v>
@@ -544,7 +544,7 @@
         <v>55.93999862670898</v>
       </c>
       <c r="F4">
-        <v>55.3640022277832</v>
+        <v>55.36400604248047</v>
       </c>
       <c r="G4">
         <v>51177500</v>
@@ -658,7 +658,7 @@
         <v>53.5099983215332</v>
       </c>
       <c r="F7">
-        <v>52.95902252197266</v>
+        <v>52.95902633666992</v>
       </c>
       <c r="G7">
         <v>62414900</v>
@@ -810,7 +810,7 @@
         <v>58.45000076293945</v>
       </c>
       <c r="F11">
-        <v>57.84815979003906</v>
+        <v>57.84816360473633</v>
       </c>
       <c r="G11">
         <v>39013600</v>
@@ -848,7 +848,7 @@
         <v>58.77000045776367</v>
       </c>
       <c r="F12">
-        <v>58.16486740112305</v>
+        <v>58.16486358642578</v>
       </c>
       <c r="G12">
         <v>40719600</v>
@@ -962,7 +962,7 @@
         <v>60.66999816894531</v>
       </c>
       <c r="F15">
-        <v>60.0452995300293</v>
+        <v>60.04530334472656</v>
       </c>
       <c r="G15">
         <v>46476400</v>
@@ -1000,7 +1000,7 @@
         <v>63.47000122070312</v>
       </c>
       <c r="F16">
-        <v>62.81647491455078</v>
+        <v>62.81647109985352</v>
       </c>
       <c r="G16">
         <v>65240700</v>
@@ -1076,7 +1076,7 @@
         <v>62.93999862670898</v>
       </c>
       <c r="F18">
-        <v>62.29192733764648</v>
+        <v>62.29193115234375</v>
       </c>
       <c r="G18">
         <v>35049800</v>
@@ -1190,7 +1190,7 @@
         <v>64.52999877929688</v>
       </c>
       <c r="F21">
-        <v>63.86555862426758</v>
+        <v>63.86555099487305</v>
       </c>
       <c r="G21">
         <v>40019700</v>
@@ -1418,7 +1418,7 @@
         <v>62.52999877929688</v>
       </c>
       <c r="F27">
-        <v>61.88615417480469</v>
+        <v>61.88615036010742</v>
       </c>
       <c r="G27">
         <v>71873200</v>
@@ -1494,7 +1494,7 @@
         <v>63.61000061035156</v>
       </c>
       <c r="F29">
-        <v>62.95503234863281</v>
+        <v>62.95503616333008</v>
       </c>
       <c r="G29">
         <v>44245900</v>
@@ -1532,7 +1532,7 @@
         <v>67.44999694824219</v>
       </c>
       <c r="F30">
-        <v>66.75548553466797</v>
+        <v>66.7554931640625</v>
       </c>
       <c r="G30">
         <v>52435700</v>
@@ -1646,7 +1646,7 @@
         <v>67.83000183105469</v>
       </c>
       <c r="F33">
-        <v>67.13158416748047</v>
+        <v>67.13157653808594</v>
       </c>
       <c r="G33">
         <v>36226800</v>
@@ -1874,7 +1874,7 @@
         <v>76.90000152587891</v>
       </c>
       <c r="F39">
-        <v>76.10818481445312</v>
+        <v>76.10819244384766</v>
       </c>
       <c r="G39">
         <v>33216600</v>
@@ -1950,7 +1950,7 @@
         <v>74.40000152587891</v>
       </c>
       <c r="F41">
-        <v>73.63393402099609</v>
+        <v>73.63392639160156</v>
       </c>
       <c r="G41">
         <v>38856500</v>
@@ -1988,7 +1988,7 @@
         <v>71.87999725341797</v>
       </c>
       <c r="F42">
-        <v>71.13986968994141</v>
+        <v>71.13987731933594</v>
       </c>
       <c r="G42">
         <v>46877300</v>
@@ -7524,37 +7524,75 @@
         <v>45680</v>
       </c>
       <c r="B188">
-        <v>87</v>
+        <v>86.54000091552734</v>
       </c>
       <c r="C188">
-        <v>87</v>
+        <v>88.37999725341797</v>
       </c>
       <c r="D188">
-        <v>87</v>
+        <v>86.26999664306641</v>
       </c>
       <c r="E188">
-        <v>87</v>
+        <v>88.33999633789062</v>
       </c>
       <c r="F188">
-        <v>87</v>
+        <v>88.33999633789062</v>
       </c>
       <c r="G188">
+        <v>30240500</v>
+      </c>
+      <c r="H188">
+        <v>83.36525020599365</v>
+      </c>
+      <c r="I188">
+        <v>76.51909992218017</v>
+      </c>
+      <c r="J188">
+        <v>55.61904685014895</v>
+      </c>
+      <c r="K188">
+        <v>0.09223540229728933</v>
+      </c>
+      <c r="L188">
+        <v>4.107682368461616</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B189">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="C189">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="D189">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="E189">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="F189">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="G189">
         <v>10000</v>
       </c>
-      <c r="H188">
-        <v>83.33175029754639</v>
-      </c>
-      <c r="I188">
-        <v>76.50569995880127</v>
-      </c>
-      <c r="J188">
-        <v>54.1780695429589</v>
-      </c>
-      <c r="K188">
-        <v>0.0756676923146582</v>
-      </c>
-      <c r="L188">
-        <v>4.01460019076204</v>
+      <c r="H189">
+        <v>83.56775020599365</v>
+      </c>
+      <c r="I189">
+        <v>76.71909993743897</v>
+      </c>
+      <c r="J189">
+        <v>51.36623906488055</v>
+      </c>
+      <c r="K189">
+        <v>0.08986490396814184</v>
+      </c>
+      <c r="L189">
+        <v>4.162346959147352</v>
       </c>
     </row>
   </sheetData>

--- a/X_implementation.xlsx
+++ b/X_implementation.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,19 +481,19 @@
         <v>86413600</v>
       </c>
       <c r="I2">
-        <v>58.28602342605591</v>
+        <v>58.2860237121582</v>
       </c>
       <c r="J2">
-        <v>54.30612838745117</v>
+        <v>54.30612815856934</v>
       </c>
       <c r="K2">
-        <v>34.87366121585383</v>
+        <v>34.87366509236557</v>
       </c>
       <c r="L2">
-        <v>0.001895699413271279</v>
+        <v>0.001895772620688518</v>
       </c>
       <c r="M2">
-        <v>3.905655921095687</v>
+        <v>3.905657096674647</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -519,19 +519,19 @@
         <v>67997300</v>
       </c>
       <c r="I3">
-        <v>58.16570062637329</v>
+        <v>58.16570091247559</v>
       </c>
       <c r="J3">
-        <v>54.41887264251709</v>
+        <v>54.41887241363526</v>
       </c>
       <c r="K3">
-        <v>40.22415680200179</v>
+        <v>40.22415432131505</v>
       </c>
       <c r="L3">
         <v>0.1172190881763644</v>
       </c>
       <c r="M3">
-        <v>3.772968609869167</v>
+        <v>3.772969586819209</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -557,19 +557,19 @@
         <v>51177500</v>
       </c>
       <c r="I4">
-        <v>57.99341726303101</v>
+        <v>57.99341745376587</v>
       </c>
       <c r="J4">
-        <v>54.55052009582519</v>
+        <v>54.55051986694336</v>
       </c>
       <c r="K4">
-        <v>40.7407345723124</v>
+        <v>40.7407460279619</v>
       </c>
       <c r="L4">
-        <v>0.09858594360881479</v>
+        <v>0.09858602676617223</v>
       </c>
       <c r="M4">
-        <v>3.57074895908242</v>
+        <v>3.570750300235209</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -580,34 +580,34 @@
         <v>45412</v>
       </c>
       <c r="C5">
-        <v>52.19695663452148</v>
+        <v>52.19696044921875</v>
       </c>
       <c r="D5">
-        <v>55.27493089902642</v>
+        <v>55.27493493867052</v>
       </c>
       <c r="E5">
-        <v>52.18705748673121</v>
+        <v>52.18706130070502</v>
       </c>
       <c r="F5">
-        <v>54.73059480854066</v>
+        <v>54.73059880840317</v>
       </c>
       <c r="G5">
         <v>62624300</v>
       </c>
       <c r="I5">
-        <v>57.76044778823852</v>
+        <v>57.76044816970825</v>
       </c>
       <c r="J5">
-        <v>54.64745338439941</v>
+        <v>54.64745319366455</v>
       </c>
       <c r="K5">
-        <v>38.89216018395668</v>
+        <v>38.89217216948027</v>
       </c>
       <c r="L5">
-        <v>-0.008460225238369978</v>
+        <v>-0.008460152773913987</v>
       </c>
       <c r="M5">
-        <v>3.5369514446285</v>
+        <v>3.536952635927416</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -618,34 +618,34 @@
         <v>45413</v>
       </c>
       <c r="C6">
-        <v>51.06869125366211</v>
+        <v>51.06869506835938</v>
       </c>
       <c r="D6">
-        <v>54.23574272278179</v>
+        <v>54.23574677404949</v>
       </c>
       <c r="E6">
-        <v>50.74209111199486</v>
+        <v>50.74209490229595</v>
       </c>
       <c r="F6">
-        <v>51.61303111547196</v>
+        <v>51.61303497082999</v>
       </c>
       <c r="G6">
         <v>104038400</v>
       </c>
       <c r="I6">
-        <v>57.58161487579346</v>
+        <v>57.58161525726318</v>
       </c>
       <c r="J6">
-        <v>54.74066410064697</v>
+        <v>54.74066398620605</v>
       </c>
       <c r="K6">
-        <v>36.90886620120611</v>
+        <v>36.90887903311403</v>
       </c>
       <c r="L6">
-        <v>-0.0392850837975196</v>
+        <v>-0.03928501203463564</v>
       </c>
       <c r="M6">
-        <v>3.489719303396526</v>
+        <v>3.48972033712232</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -671,19 +671,19 @@
         <v>62414900</v>
       </c>
       <c r="I7">
-        <v>57.42316789627075</v>
+        <v>57.42316827774048</v>
       </c>
       <c r="J7">
-        <v>54.83530155181884</v>
+        <v>54.83530139923096</v>
       </c>
       <c r="K7">
-        <v>43.61101982066646</v>
+        <v>43.61102772449224</v>
       </c>
       <c r="L7">
         <v>0.01248813236152779</v>
       </c>
       <c r="M7">
-        <v>3.476050962166036</v>
+        <v>3.476052178509416</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -709,19 +709,19 @@
         <v>75439000</v>
       </c>
       <c r="I8">
-        <v>57.27757816314697</v>
+        <v>57.27757844924927</v>
       </c>
       <c r="J8">
-        <v>54.95630680084228</v>
+        <v>54.95630668640137</v>
       </c>
       <c r="K8">
-        <v>45.47018481051461</v>
+        <v>45.47017978586943</v>
       </c>
       <c r="L8">
         <v>0.0256874355089618</v>
       </c>
       <c r="M8">
-        <v>3.331706293443139</v>
+        <v>3.331707321355486</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -747,19 +747,19 @@
         <v>41265400</v>
       </c>
       <c r="I9">
-        <v>57.24580698013305</v>
+        <v>57.24580726623535</v>
       </c>
       <c r="J9">
-        <v>55.08452758789063</v>
+        <v>55.08452754974365</v>
       </c>
       <c r="K9">
-        <v>48.1743862914084</v>
+        <v>48.17438123193519</v>
       </c>
       <c r="L9">
         <v>0.04683593895878713</v>
       </c>
       <c r="M9">
-        <v>3.246039053013844</v>
+        <v>3.246039827628197</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -785,19 +785,19 @@
         <v>46660200</v>
       </c>
       <c r="I10">
-        <v>57.2312933921814</v>
+        <v>57.23129367828369</v>
       </c>
       <c r="J10">
-        <v>55.20185001373291</v>
+        <v>55.20184997558594</v>
       </c>
       <c r="K10">
-        <v>47.28381708118942</v>
+        <v>47.28381202991294</v>
       </c>
       <c r="L10">
-        <v>0.1103526907863623</v>
+        <v>0.1103526096387373</v>
       </c>
       <c r="M10">
-        <v>3.103744735022992</v>
+        <v>3.103745205580605</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -823,7 +823,7 @@
         <v>39013600</v>
       </c>
       <c r="I11">
-        <v>57.15193090438843</v>
+        <v>57.15193128585815</v>
       </c>
       <c r="J11">
         <v>55.30178531646729</v>
@@ -832,10 +832,10 @@
         <v>49.30635545809926</v>
       </c>
       <c r="L11">
-        <v>0.1327520283885886</v>
+        <v>0.13275194377499</v>
       </c>
       <c r="M11">
-        <v>3.074248538702337</v>
+        <v>3.074249015326027</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -846,34 +846,34 @@
         <v>45421</v>
       </c>
       <c r="C12">
-        <v>58.16487121582031</v>
+        <v>58.16486740112305</v>
       </c>
       <c r="D12">
-        <v>58.39250255238101</v>
+        <v>58.39249872275472</v>
       </c>
       <c r="E12">
-        <v>57.155373261017</v>
+        <v>57.15536951252687</v>
       </c>
       <c r="F12">
-        <v>57.89765083583541</v>
+        <v>57.89764703866358</v>
       </c>
       <c r="G12">
         <v>40719600</v>
       </c>
       <c r="I12">
-        <v>57.11598739624024</v>
+        <v>57.11598768234253</v>
       </c>
       <c r="J12">
-        <v>55.40567321777344</v>
+        <v>55.40567310333252</v>
       </c>
       <c r="K12">
-        <v>45.44324223878003</v>
+        <v>45.44322915742534</v>
       </c>
       <c r="L12">
-        <v>0.09829948243489062</v>
+        <v>0.09829941040378398</v>
       </c>
       <c r="M12">
-        <v>2.80110036570708</v>
+        <v>2.801100135120875</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -884,34 +884,34 @@
         <v>45422</v>
       </c>
       <c r="C13">
-        <v>58.56074905395508</v>
+        <v>58.56074523925781</v>
       </c>
       <c r="D13">
-        <v>59.45148363458978</v>
+        <v>59.4514797618693</v>
       </c>
       <c r="E13">
-        <v>57.93723862292969</v>
+        <v>57.93723484884843</v>
       </c>
       <c r="F13">
-        <v>58.7487951184329</v>
+        <v>58.74879129148616</v>
       </c>
       <c r="G13">
         <v>46334800</v>
       </c>
       <c r="I13">
-        <v>57.10202112197876</v>
+        <v>57.10202121734619</v>
       </c>
       <c r="J13">
-        <v>55.50782520294189</v>
+        <v>55.507825050354</v>
       </c>
       <c r="K13">
-        <v>50.76090535419281</v>
+        <v>50.76089913434681</v>
       </c>
       <c r="L13">
-        <v>0.04356256314783136</v>
+        <v>0.04356249516927369</v>
       </c>
       <c r="M13">
-        <v>2.834724663007842</v>
+        <v>2.834724135456293</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -937,19 +937,19 @@
         <v>33861000</v>
       </c>
       <c r="I14">
-        <v>57.15169591903687</v>
+        <v>57.15169601440429</v>
       </c>
       <c r="J14">
-        <v>55.60372413635254</v>
+        <v>55.60372398376465</v>
       </c>
       <c r="K14">
-        <v>57.01592156177774</v>
+        <v>57.0159235641522</v>
       </c>
       <c r="L14">
         <v>0.01707651532065113</v>
       </c>
       <c r="M14">
-        <v>3.01497440525547</v>
+        <v>3.014973934222061</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -960,34 +960,34 @@
         <v>45426</v>
       </c>
       <c r="C15">
-        <v>60.0452995300293</v>
+        <v>60.04530334472656</v>
       </c>
       <c r="D15">
-        <v>60.27293461947717</v>
+        <v>60.27293844863616</v>
       </c>
       <c r="E15">
-        <v>58.66961249826802</v>
+        <v>58.66961622556745</v>
       </c>
       <c r="F15">
-        <v>58.74879057727922</v>
+        <v>58.74879430960885</v>
       </c>
       <c r="G15">
         <v>46476400</v>
       </c>
       <c r="I15">
-        <v>57.18864946365356</v>
+        <v>57.18864965438843</v>
       </c>
       <c r="J15">
-        <v>55.703244972229</v>
+        <v>55.70324485778809</v>
       </c>
       <c r="K15">
-        <v>58.6979664861829</v>
+        <v>58.69797453472793</v>
       </c>
       <c r="L15">
-        <v>0.03603131897873557</v>
+        <v>0.03603138479813972</v>
       </c>
       <c r="M15">
-        <v>3.25936185768162</v>
+        <v>3.25936177879302</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1013,19 +1013,19 @@
         <v>65240700</v>
       </c>
       <c r="I16">
-        <v>57.28477430343628</v>
+        <v>57.28477458953857</v>
       </c>
       <c r="J16">
-        <v>55.85273487091064</v>
+        <v>55.85273475646973</v>
       </c>
       <c r="K16">
-        <v>66.92094823203502</v>
+        <v>66.92095275490999</v>
       </c>
       <c r="L16">
         <v>0.08588537647904992</v>
       </c>
       <c r="M16">
-        <v>3.699007234318653</v>
+        <v>3.699007191021142</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1051,19 +1051,19 @@
         <v>43857600</v>
       </c>
       <c r="I17">
-        <v>57.31891918182373</v>
+        <v>57.3189193725586</v>
       </c>
       <c r="J17">
-        <v>55.98248798370361</v>
+        <v>55.9824878692627</v>
       </c>
       <c r="K17">
-        <v>68.27025136665665</v>
+        <v>68.27026565675489</v>
       </c>
       <c r="L17">
-        <v>0.07333672534879643</v>
+        <v>0.07333679574274488</v>
       </c>
       <c r="M17">
-        <v>3.958112675431062</v>
+        <v>3.958112482152177</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1074,34 +1074,34 @@
         <v>45429</v>
       </c>
       <c r="C18">
-        <v>62.29192733764648</v>
+        <v>62.29193496704102</v>
       </c>
       <c r="D18">
-        <v>62.70760470684854</v>
+        <v>62.70761238715442</v>
       </c>
       <c r="E18">
-        <v>61.3814020700722</v>
+        <v>61.38140958794736</v>
       </c>
       <c r="F18">
-        <v>62.44038434995122</v>
+        <v>62.44039199752847</v>
       </c>
       <c r="G18">
         <v>35049800</v>
       </c>
       <c r="I18">
-        <v>57.32980585098267</v>
+        <v>57.32980623245239</v>
       </c>
       <c r="J18">
-        <v>56.10888320922852</v>
+        <v>56.10888313293457</v>
       </c>
       <c r="K18">
-        <v>76.7700726905436</v>
+        <v>76.7701044394429</v>
       </c>
       <c r="L18">
-        <v>0.06371466116756253</v>
+        <v>0.0637148607405682</v>
       </c>
       <c r="M18">
-        <v>3.880744578006275</v>
+        <v>3.880744990856916</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1127,19 +1127,19 @@
         <v>37269500</v>
       </c>
       <c r="I19">
-        <v>57.36964130401611</v>
+        <v>57.36964159011841</v>
       </c>
       <c r="J19">
-        <v>56.23907199859619</v>
+        <v>56.23907196044922</v>
       </c>
       <c r="K19">
-        <v>76.63998251034786</v>
+        <v>76.64001075528097</v>
       </c>
       <c r="L19">
         <v>0.07857611434966683</v>
       </c>
       <c r="M19">
-        <v>3.92709338383653</v>
+        <v>3.927093383912333</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1165,19 +1165,19 @@
         <v>31157000</v>
       </c>
       <c r="I20">
-        <v>57.43347711563111</v>
+        <v>57.43347749710083</v>
       </c>
       <c r="J20">
         <v>56.36986423492431</v>
       </c>
       <c r="K20">
-        <v>74.67475095273116</v>
+        <v>74.67477569844456</v>
       </c>
       <c r="L20">
-        <v>0.0642822677656989</v>
+        <v>0.0642822001515071</v>
       </c>
       <c r="M20">
-        <v>4.065962949323811</v>
+        <v>4.065962865974821</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1203,19 +1203,19 @@
         <v>40019700</v>
       </c>
       <c r="I21">
-        <v>57.51067380905151</v>
+        <v>57.51067419052124</v>
       </c>
       <c r="J21">
-        <v>56.5015425491333</v>
+        <v>56.50154258728028</v>
       </c>
       <c r="K21">
-        <v>73.95923163638128</v>
+        <v>73.95925617529568</v>
       </c>
       <c r="L21">
         <v>0.01670071261474937</v>
       </c>
       <c r="M21">
-        <v>4.151626613167581</v>
+        <v>4.151626453857959</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1241,19 +1241,19 @@
         <v>65438900</v>
       </c>
       <c r="I22">
-        <v>57.55075674057007</v>
+        <v>57.5507571220398</v>
       </c>
       <c r="J22">
-        <v>56.6307213973999</v>
+        <v>56.63072147369385</v>
       </c>
       <c r="K22">
-        <v>73.6331389827559</v>
+        <v>73.63316308096623</v>
       </c>
       <c r="L22">
         <v>0.007767855107905453</v>
       </c>
       <c r="M22">
-        <v>4.041338748423301</v>
+        <v>4.04133850570331</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1264,34 +1264,34 @@
         <v>45436</v>
       </c>
       <c r="C23">
-        <v>64.67710876464844</v>
+        <v>64.67711639404297</v>
       </c>
       <c r="D23">
-        <v>65.21154944960733</v>
+        <v>65.21155714204517</v>
       </c>
       <c r="E23">
-        <v>63.28162727086808</v>
+        <v>63.28163473564983</v>
       </c>
       <c r="F23">
-        <v>63.58843665121525</v>
+        <v>63.58844415218862</v>
       </c>
       <c r="G23">
         <v>41160500</v>
       </c>
       <c r="I23">
-        <v>57.64453096389771</v>
+        <v>57.64453144073487</v>
       </c>
       <c r="J23">
-        <v>56.80286083221436</v>
+        <v>56.80286098480224</v>
       </c>
       <c r="K23">
-        <v>72.85517055076387</v>
+        <v>72.85520404187372</v>
       </c>
       <c r="L23">
-        <v>0.03829037772540489</v>
+        <v>0.03829037303567406</v>
       </c>
       <c r="M23">
-        <v>4.138786986734082</v>
+        <v>4.138787210223761</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1317,19 +1317,19 @@
         <v>41593200</v>
       </c>
       <c r="I24">
-        <v>57.74647026062011</v>
+        <v>57.74647083282471</v>
       </c>
       <c r="J24">
-        <v>56.99721382141113</v>
+        <v>56.99721397399902</v>
       </c>
       <c r="K24">
-        <v>72.91664339140975</v>
+        <v>72.91666739401921</v>
       </c>
       <c r="L24">
         <v>0.02833122724171555</v>
       </c>
       <c r="M24">
-        <v>4.25661063982092</v>
+        <v>4.256610739019481</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1340,34 +1340,34 @@
         <v>45441</v>
       </c>
       <c r="C25">
-        <v>64.01401519775391</v>
+        <v>64.01400756835938</v>
       </c>
       <c r="D25">
-        <v>64.76619188404699</v>
+        <v>64.76618416500564</v>
       </c>
       <c r="E25">
-        <v>63.53895425092733</v>
+        <v>63.53894667815208</v>
       </c>
       <c r="F25">
-        <v>63.57854329239935</v>
+        <v>63.57853571490574</v>
       </c>
       <c r="G25">
         <v>39641100</v>
       </c>
       <c r="I25">
-        <v>57.85533771514893</v>
+        <v>57.85533809661865</v>
       </c>
       <c r="J25">
-        <v>57.18560089111328</v>
+        <v>57.18560096740723</v>
       </c>
       <c r="K25">
-        <v>79.46692316897287</v>
+        <v>79.46691144996052</v>
       </c>
       <c r="L25">
-        <v>0.001703581783834451</v>
+        <v>0.001703462397606215</v>
       </c>
       <c r="M25">
-        <v>3.973369022267712</v>
+        <v>3.973369009565189</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1393,19 +1393,19 @@
         <v>42782400</v>
       </c>
       <c r="I26">
-        <v>57.9028434753418</v>
+        <v>57.90284385681152</v>
       </c>
       <c r="J26">
-        <v>57.35172569274902</v>
+        <v>57.35172576904297</v>
       </c>
       <c r="K26">
-        <v>75.94340600302169</v>
+        <v>75.94342049643424</v>
       </c>
       <c r="L26">
         <v>-0.02990848389902934</v>
       </c>
       <c r="M26">
-        <v>3.341202965145035</v>
+        <v>3.341203470533446</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1431,19 +1431,19 @@
         <v>71873200</v>
       </c>
       <c r="I27">
-        <v>58.01938095092773</v>
+        <v>58.01938142776489</v>
       </c>
       <c r="J27">
-        <v>57.48984142303467</v>
+        <v>57.48984149932861</v>
       </c>
       <c r="K27">
-        <v>73.29545047315749</v>
+        <v>73.29546902474453</v>
       </c>
       <c r="L27">
         <v>-0.01635994287483356</v>
       </c>
       <c r="M27">
-        <v>2.786051396179151</v>
+        <v>2.786051970105645</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1454,34 +1454,34 @@
         <v>45446</v>
       </c>
       <c r="C28">
-        <v>62.48987579345703</v>
+        <v>62.48987197875977</v>
       </c>
       <c r="D28">
-        <v>63.48947840122195</v>
+        <v>63.48947452550391</v>
       </c>
       <c r="E28">
-        <v>60.3323219509325</v>
+        <v>60.3323182679432</v>
       </c>
       <c r="F28">
-        <v>63.07380098524889</v>
+        <v>63.07379713490588</v>
       </c>
       <c r="G28">
         <v>55717500</v>
       </c>
       <c r="I28">
-        <v>58.10053672790527</v>
+        <v>58.10053701400757</v>
       </c>
       <c r="J28">
-        <v>57.63083881378174</v>
+        <v>57.63083885192871</v>
       </c>
       <c r="K28">
-        <v>69.18951139144846</v>
+        <v>69.18952194566187</v>
       </c>
       <c r="L28">
-        <v>-0.03381772953318707</v>
+        <v>-0.03381790248590388</v>
       </c>
       <c r="M28">
-        <v>2.517628783308673</v>
+        <v>2.517629320793983</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1492,34 +1492,34 @@
         <v>45447</v>
       </c>
       <c r="C29">
-        <v>62.95503234863281</v>
+        <v>62.95503616333008</v>
       </c>
       <c r="D29">
-        <v>63.46967478176146</v>
+        <v>63.46967862764297</v>
       </c>
       <c r="E29">
-        <v>61.62882967383493</v>
+        <v>61.62883340817226</v>
       </c>
       <c r="F29">
-        <v>62.35131268523261</v>
+        <v>62.35131646334808</v>
       </c>
       <c r="G29">
         <v>44245900</v>
       </c>
       <c r="I29">
-        <v>58.19233169555664</v>
+        <v>58.19233198165894</v>
       </c>
       <c r="J29">
-        <v>57.76692207336426</v>
+        <v>57.7669221496582</v>
       </c>
       <c r="K29">
-        <v>66.40675245989337</v>
+        <v>66.40677730935749</v>
       </c>
       <c r="L29">
-        <v>-0.03708739674525618</v>
+        <v>-0.0370873383985294</v>
       </c>
       <c r="M29">
-        <v>2.383093353697588</v>
+        <v>2.383094015956079</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1545,19 +1545,19 @@
         <v>52435700</v>
       </c>
       <c r="I30">
-        <v>58.36379766464233</v>
+        <v>58.3637978553772</v>
       </c>
       <c r="J30">
-        <v>57.93864315032959</v>
+        <v>57.9386432647705</v>
       </c>
       <c r="K30">
-        <v>73.11490879557566</v>
+        <v>73.11492732783631</v>
       </c>
       <c r="L30">
-        <v>0.04282609563616702</v>
+        <v>0.04282621992352253</v>
       </c>
       <c r="M30">
-        <v>2.441091802135447</v>
+        <v>2.441092412476691</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1583,19 +1583,19 @@
         <v>36515600</v>
       </c>
       <c r="I31">
-        <v>58.57262516021729</v>
+        <v>58.57262535095215</v>
       </c>
       <c r="J31">
-        <v>58.10898094177246</v>
+        <v>58.10898101806641</v>
       </c>
       <c r="K31">
-        <v>73.22920462084963</v>
+        <v>73.22922327385993</v>
       </c>
       <c r="L31">
         <v>0.07619816091685094</v>
       </c>
       <c r="M31">
-        <v>2.396414249211777</v>
+        <v>2.39641483395041</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1621,19 +1621,19 @@
         <v>44971700</v>
       </c>
       <c r="I32">
-        <v>58.70673007965088</v>
+        <v>58.70673017501831</v>
       </c>
       <c r="J32">
-        <v>58.27714027404785</v>
+        <v>58.27714031219482</v>
       </c>
       <c r="K32">
-        <v>71.82438093042879</v>
+        <v>71.82440419643007</v>
       </c>
       <c r="L32">
         <v>0.0734048515932515</v>
       </c>
       <c r="M32">
-        <v>2.280110958904535</v>
+        <v>2.280111099996592</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1644,34 +1644,34 @@
         <v>45453</v>
       </c>
       <c r="C33">
-        <v>67.13158416748047</v>
+        <v>67.13157653808594</v>
       </c>
       <c r="D33">
-        <v>67.35921172349774</v>
+        <v>67.35920406823371</v>
       </c>
       <c r="E33">
-        <v>65.79548607305378</v>
+        <v>65.79547859550462</v>
       </c>
       <c r="F33">
-        <v>65.90434650147218</v>
+        <v>65.9043390115512</v>
       </c>
       <c r="G33">
         <v>36226800</v>
       </c>
       <c r="I33">
-        <v>58.93213510513306</v>
+        <v>58.93213500976562</v>
       </c>
       <c r="J33">
-        <v>58.46090602874756</v>
+        <v>58.46090595245361</v>
       </c>
       <c r="K33">
-        <v>72.27369005847605</v>
+        <v>72.27370222606956</v>
       </c>
       <c r="L33">
-        <v>0.07427936629871557</v>
+        <v>0.07427930978805475</v>
       </c>
       <c r="M33">
-        <v>2.179603364636404</v>
+        <v>2.179602314537582</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1682,34 +1682,34 @@
         <v>45454</v>
       </c>
       <c r="C34">
-        <v>68.51716613769531</v>
+        <v>68.51717376708984</v>
       </c>
       <c r="D34">
-        <v>68.60623581465667</v>
+        <v>68.60624345396913</v>
       </c>
       <c r="E34">
-        <v>65.97362883413311</v>
+        <v>65.97363618030445</v>
       </c>
       <c r="F34">
-        <v>66.62682911769504</v>
+        <v>66.62683653660032</v>
       </c>
       <c r="G34">
         <v>35693400</v>
       </c>
       <c r="I34">
-        <v>59.26517028808594</v>
+        <v>59.26517038345337</v>
       </c>
       <c r="J34">
-        <v>58.6376212310791</v>
+        <v>58.63762126922607</v>
       </c>
       <c r="K34">
-        <v>73.64305274329718</v>
+        <v>73.6430805035925</v>
       </c>
       <c r="L34">
-        <v>0.08835090034201687</v>
+        <v>0.08835095558247952</v>
       </c>
       <c r="M34">
-        <v>2.16462842401611</v>
+        <v>2.164628153583122</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1735,19 +1735,19 @@
         <v>62201300</v>
       </c>
       <c r="I35">
-        <v>59.66550531387329</v>
+        <v>59.66550540924072</v>
       </c>
       <c r="J35">
-        <v>58.81196823120117</v>
+        <v>58.81196826934814</v>
       </c>
       <c r="K35">
-        <v>75.57773453211112</v>
+        <v>75.57774813489074</v>
       </c>
       <c r="L35">
         <v>0.06686446222902864</v>
       </c>
       <c r="M35">
-        <v>2.496939284194024</v>
+        <v>2.496939280772938</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1758,34 +1758,34 @@
         <v>45456</v>
       </c>
       <c r="C36">
-        <v>72.35721588134766</v>
+        <v>72.35722351074219</v>
       </c>
       <c r="D36">
-        <v>73.12918332204796</v>
+        <v>73.12919103283929</v>
       </c>
       <c r="E36">
-        <v>71.32792344346801</v>
+        <v>71.32793096433323</v>
       </c>
       <c r="F36">
-        <v>72.8124785373802</v>
+        <v>72.81248621477795</v>
       </c>
       <c r="G36">
         <v>43642500</v>
       </c>
       <c r="I36">
-        <v>60.14551153182983</v>
+        <v>60.14551181793213</v>
       </c>
       <c r="J36">
-        <v>58.99552734375</v>
+        <v>58.99552745819092</v>
       </c>
       <c r="K36">
-        <v>73.60433216594329</v>
+        <v>73.60435995240339</v>
       </c>
       <c r="L36">
-        <v>0.08520105329897398</v>
+        <v>0.08520116772331821</v>
       </c>
       <c r="M36">
-        <v>3.000061240148283</v>
+        <v>3.000062148616024</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1796,34 +1796,34 @@
         <v>45457</v>
       </c>
       <c r="C37">
-        <v>73.40630340576172</v>
+        <v>73.40629577636719</v>
       </c>
       <c r="D37">
-        <v>73.44589245004106</v>
+        <v>73.44588481653187</v>
       </c>
       <c r="E37">
-        <v>71.98113556589634</v>
+        <v>71.98112808462488</v>
       </c>
       <c r="F37">
-        <v>72.19886398317549</v>
+        <v>72.1988564792747</v>
       </c>
       <c r="G37">
         <v>35777500</v>
       </c>
       <c r="I37">
-        <v>60.67549772262574</v>
+        <v>60.67549791336059</v>
       </c>
       <c r="J37">
-        <v>59.18316734313965</v>
+        <v>59.18316741943359</v>
       </c>
       <c r="K37">
-        <v>76.29210150361305</v>
+        <v>76.29211205843323</v>
       </c>
       <c r="L37">
-        <v>0.1050357598649725</v>
+        <v>0.1050356450144299</v>
       </c>
       <c r="M37">
-        <v>3.460128674698641</v>
+        <v>3.460128431437369</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1849,19 +1849,19 @@
         <v>46677300</v>
       </c>
       <c r="I38">
-        <v>61.35294971466065</v>
+        <v>61.3529499053955</v>
       </c>
       <c r="J38">
-        <v>59.38845642089844</v>
+        <v>59.38845653533936</v>
       </c>
       <c r="K38">
-        <v>79.44166479572313</v>
+        <v>79.44165809184567</v>
       </c>
       <c r="L38">
-        <v>0.1331268948733337</v>
+        <v>0.1331270236513631</v>
       </c>
       <c r="M38">
-        <v>4.078676149523623</v>
+        <v>4.078676270833257</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1872,34 +1872,34 @@
         <v>45461</v>
       </c>
       <c r="C39">
-        <v>76.10818481445312</v>
+        <v>76.10819244384766</v>
       </c>
       <c r="D39">
-        <v>76.43478871365546</v>
+        <v>76.4347963757901</v>
       </c>
       <c r="E39">
-        <v>75.27683012110506</v>
+        <v>75.27683766716122</v>
       </c>
       <c r="F39">
-        <v>76.03890588591052</v>
+        <v>76.03891350836025</v>
       </c>
       <c r="G39">
         <v>33216600</v>
       </c>
       <c r="I39">
-        <v>61.99576187133789</v>
+        <v>61.99576234817505</v>
       </c>
       <c r="J39">
-        <v>59.59256351470948</v>
+        <v>59.59256366729736</v>
       </c>
       <c r="K39">
-        <v>78.28421799724337</v>
+        <v>78.28422547723027</v>
       </c>
       <c r="L39">
-        <v>0.1107900268598754</v>
+        <v>0.1107900145233942</v>
       </c>
       <c r="M39">
-        <v>4.569878367205121</v>
+        <v>4.569879281452841</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1910,34 +1910,34 @@
         <v>45463</v>
       </c>
       <c r="C40">
-        <v>74.31682586669922</v>
+        <v>74.31681823730469</v>
       </c>
       <c r="D40">
-        <v>76.86037089406433</v>
+        <v>76.86036300354847</v>
       </c>
       <c r="E40">
-        <v>73.45578872750474</v>
+        <v>73.45578118650461</v>
       </c>
       <c r="F40">
-        <v>76.66242568040516</v>
+        <v>76.66241781021043</v>
       </c>
       <c r="G40">
         <v>52727500</v>
       </c>
       <c r="I40">
-        <v>62.53762445449829</v>
+        <v>62.53762474060058</v>
       </c>
       <c r="J40">
-        <v>59.78901290893555</v>
+        <v>59.78901302337646</v>
       </c>
       <c r="K40">
-        <v>72.04529700535173</v>
+        <v>72.04525948375448</v>
       </c>
       <c r="L40">
-        <v>0.04349637443619714</v>
+        <v>0.04349626731044953</v>
       </c>
       <c r="M40">
-        <v>4.794021975980147</v>
+        <v>4.794022229233205</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1963,19 +1963,19 @@
         <v>38856500</v>
       </c>
       <c r="I41">
-        <v>63.04954862594604</v>
+        <v>63.04954891204834</v>
       </c>
       <c r="J41">
-        <v>59.96255924224854</v>
+        <v>59.96255935668945</v>
       </c>
       <c r="K41">
-        <v>70.13469141277375</v>
+        <v>70.13467874742254</v>
       </c>
       <c r="L41">
-        <v>0.0176446553961116</v>
+        <v>0.01764454809497162</v>
       </c>
       <c r="M41">
-        <v>4.905264829171175</v>
+        <v>4.905265076680896</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2001,19 +2001,19 @@
         <v>46877300</v>
       </c>
       <c r="I42">
-        <v>63.52040014266968</v>
+        <v>63.52040042877197</v>
       </c>
       <c r="J42">
-        <v>60.12240707397461</v>
+        <v>60.12240718841553</v>
       </c>
       <c r="K42">
-        <v>65.93790039022939</v>
+        <v>65.93789096470314</v>
       </c>
       <c r="L42">
-        <v>-0.03087498418907386</v>
+        <v>-0.03087488346423795</v>
       </c>
       <c r="M42">
-        <v>4.805182726496715</v>
+        <v>4.805182979161557</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2039,19 +2039,19 @@
         <v>39304300</v>
       </c>
       <c r="I43">
-        <v>63.99050922393799</v>
+        <v>63.99050951004028</v>
       </c>
       <c r="J43">
-        <v>60.33845199584961</v>
+        <v>60.33845211029053</v>
       </c>
       <c r="K43">
-        <v>66.72915430127792</v>
+        <v>66.72913502812881</v>
       </c>
       <c r="L43">
         <v>-0.03356754510121096</v>
       </c>
       <c r="M43">
-        <v>4.855196910754644</v>
+        <v>4.855197501612063</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2077,19 +2077,19 @@
         <v>36274800</v>
       </c>
       <c r="I44">
-        <v>64.45578804016114</v>
+        <v>64.45578832626343</v>
       </c>
       <c r="J44">
-        <v>60.54075450897217</v>
+        <v>60.54075462341309</v>
       </c>
       <c r="K44">
-        <v>66.42063166781034</v>
+        <v>66.42062209442655</v>
       </c>
       <c r="L44">
-        <v>-0.0280262382849763</v>
+        <v>-0.02802633571957647</v>
       </c>
       <c r="M44">
-        <v>4.916754501342035</v>
+        <v>4.916755119900716</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2115,19 +2115,19 @@
         <v>37057700</v>
       </c>
       <c r="I45">
-        <v>65.0136549949646</v>
+        <v>65.01365518569946</v>
       </c>
       <c r="J45">
-        <v>60.7214013671875</v>
+        <v>60.72140144348145</v>
       </c>
       <c r="K45">
-        <v>70.71097530687659</v>
+        <v>70.71098412415527</v>
       </c>
       <c r="L45">
-        <v>0.002621330468423944</v>
+        <v>0.002621433397934192</v>
       </c>
       <c r="M45">
-        <v>4.891164807696024</v>
+        <v>4.891165001481034</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2153,19 +2153,19 @@
         <v>53901500</v>
       </c>
       <c r="I46">
-        <v>65.57042064666749</v>
+        <v>65.57042074203491</v>
       </c>
       <c r="J46">
-        <v>60.89318489074707</v>
+        <v>60.89318500518799</v>
       </c>
       <c r="K46">
-        <v>73.27339051328912</v>
+        <v>73.27337599288748</v>
       </c>
       <c r="L46">
         <v>-0.004001099535639985</v>
       </c>
       <c r="M46">
-        <v>4.589118183810249</v>
+        <v>4.589118390349804</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2191,19 +2191,19 @@
         <v>43278700</v>
       </c>
       <c r="I47">
-        <v>66.10998106002808</v>
+        <v>66.1099811553955</v>
       </c>
       <c r="J47">
-        <v>61.08024394989014</v>
+        <v>61.08024406433105</v>
       </c>
       <c r="K47">
-        <v>74.72730717634819</v>
+        <v>74.72729243180689</v>
       </c>
       <c r="L47">
         <v>0.04781506077518594</v>
       </c>
       <c r="M47">
-        <v>4.222638281458453</v>
+        <v>4.222638505923435</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2229,19 +2229,19 @@
         <v>37475100</v>
       </c>
       <c r="I48">
-        <v>66.62773818969727</v>
+        <v>66.62773828506469</v>
       </c>
       <c r="J48">
-        <v>61.27348739624023</v>
+        <v>61.27348751068115</v>
       </c>
       <c r="K48">
-        <v>76.28540878553608</v>
+        <v>76.28539739544495</v>
       </c>
       <c r="L48">
         <v>0.04504243558902332</v>
       </c>
       <c r="M48">
-        <v>3.91582649580748</v>
+        <v>3.915826267112529</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2267,19 +2267,19 @@
         <v>28075200</v>
       </c>
       <c r="I49">
-        <v>67.14666481018067</v>
+        <v>67.14666490554809</v>
       </c>
       <c r="J49">
-        <v>61.48324039459229</v>
+        <v>61.4832405090332</v>
       </c>
       <c r="K49">
-        <v>77.46105200015316</v>
+        <v>77.461034400286</v>
       </c>
       <c r="L49">
         <v>0.06406119921551734</v>
       </c>
       <c r="M49">
-        <v>3.645863893792117</v>
+        <v>3.645864128151537</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2305,19 +2305,19 @@
         <v>39812300</v>
       </c>
       <c r="I50">
-        <v>67.72520065307617</v>
+        <v>67.7252007484436</v>
       </c>
       <c r="J50">
-        <v>61.69987537384034</v>
+        <v>61.69987552642822</v>
       </c>
       <c r="K50">
-        <v>76.29096051439556</v>
+        <v>76.29094580742063</v>
       </c>
       <c r="L50">
         <v>0.0884000217480585</v>
       </c>
       <c r="M50">
-        <v>3.868730459150879</v>
+        <v>3.86873068000952</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2343,19 +2343,19 @@
         <v>36682800</v>
       </c>
       <c r="I51">
-        <v>68.31987028121948</v>
+        <v>68.31987037658692</v>
       </c>
       <c r="J51">
-        <v>61.92887680053711</v>
+        <v>61.928876953125</v>
       </c>
       <c r="K51">
-        <v>76.96732957476044</v>
+        <v>76.96731473817323</v>
       </c>
       <c r="L51">
         <v>0.1131130164778356</v>
       </c>
       <c r="M51">
-        <v>3.990026075501465</v>
+        <v>3.990026289646069</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2381,19 +2381,19 @@
         <v>36016800</v>
       </c>
       <c r="I52">
-        <v>68.91109285354614</v>
+        <v>68.911093044281</v>
       </c>
       <c r="J52">
-        <v>62.18747581481934</v>
+        <v>62.18747592926025</v>
       </c>
       <c r="K52">
-        <v>77.80455472908261</v>
+        <v>77.80453939394775</v>
       </c>
       <c r="L52">
         <v>0.09756091320058258</v>
       </c>
       <c r="M52">
-        <v>3.951790755691565</v>
+        <v>3.951790971908113</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2419,19 +2419,19 @@
         <v>38777400</v>
       </c>
       <c r="I53">
-        <v>69.55649852752686</v>
+        <v>69.55649881362915</v>
       </c>
       <c r="J53">
-        <v>62.45395618438721</v>
+        <v>62.4539563369751</v>
       </c>
       <c r="K53">
-        <v>79.2031190812467</v>
+        <v>79.20310936336033</v>
       </c>
       <c r="L53">
         <v>0.09828001532106057</v>
       </c>
       <c r="M53">
-        <v>4.093863425217902</v>
+        <v>4.093862807647014</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2457,19 +2457,19 @@
         <v>74664500</v>
       </c>
       <c r="I54">
-        <v>70.05366296768189</v>
+        <v>70.05366325378418</v>
       </c>
       <c r="J54">
-        <v>62.66016784667968</v>
+        <v>62.66016803741455</v>
       </c>
       <c r="K54">
-        <v>65.31280449328467</v>
+        <v>65.31278970030959</v>
       </c>
       <c r="L54">
         <v>0.001514556158280778</v>
       </c>
       <c r="M54">
-        <v>3.799685839289566</v>
+        <v>3.799685917733711</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2495,19 +2495,19 @@
         <v>50509900</v>
       </c>
       <c r="I55">
-        <v>70.55540332794189</v>
+        <v>70.55540351867675</v>
       </c>
       <c r="J55">
-        <v>62.89517108917236</v>
+        <v>62.89517124176025</v>
       </c>
       <c r="K55">
-        <v>63.78586518393875</v>
+        <v>63.78585866420239</v>
       </c>
       <c r="L55">
         <v>-0.01212786241768138</v>
       </c>
       <c r="M55">
-        <v>3.721630313900762</v>
+        <v>3.721630393990152</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2533,19 +2533,19 @@
         <v>54950200</v>
       </c>
       <c r="I56">
-        <v>71.00276641845703</v>
+        <v>71.00276660919189</v>
       </c>
       <c r="J56">
-        <v>63.14925086975098</v>
+        <v>63.14925102233887</v>
       </c>
       <c r="K56">
-        <v>63.16703267578358</v>
+        <v>63.16701748377552</v>
       </c>
       <c r="L56">
         <v>-0.01131807160635423</v>
       </c>
       <c r="M56">
-        <v>3.698988599679058</v>
+        <v>3.69898917709741</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2571,19 +2571,19 @@
         <v>41818800</v>
       </c>
       <c r="I57">
-        <v>71.46126947402954</v>
+        <v>71.4612696647644</v>
       </c>
       <c r="J57">
-        <v>63.41082984924316</v>
+        <v>63.41083000183105</v>
       </c>
       <c r="K57">
-        <v>61.98116338759139</v>
+        <v>61.98116687709863</v>
       </c>
       <c r="L57">
         <v>-0.01275041392754883</v>
       </c>
       <c r="M57">
-        <v>3.695878411732115</v>
+        <v>3.695878606359199</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2612,16 +2612,16 @@
         <v>71.7456506729126</v>
       </c>
       <c r="J58">
-        <v>63.55413806915283</v>
+        <v>63.55413825988769</v>
       </c>
       <c r="K58">
-        <v>46.58636001603357</v>
+        <v>46.58636149689936</v>
       </c>
       <c r="L58">
         <v>-0.1269279989192962</v>
       </c>
       <c r="M58">
-        <v>3.776201813970103</v>
+        <v>3.776202004457285</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2650,16 +2650,16 @@
         <v>71.9702971458435</v>
       </c>
       <c r="J59">
-        <v>63.69184234619141</v>
+        <v>63.69184253692627</v>
       </c>
       <c r="K59">
-        <v>45.11029472914298</v>
+        <v>45.11028523160699</v>
       </c>
       <c r="L59">
         <v>-0.07952111907278159</v>
       </c>
       <c r="M59">
-        <v>3.910018865859705</v>
+        <v>3.910019141924896</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2688,16 +2688,16 @@
         <v>72.13760089874268</v>
       </c>
       <c r="J60">
-        <v>63.81066452026367</v>
+        <v>63.81066474914551</v>
       </c>
       <c r="K60">
-        <v>44.89257483890731</v>
+        <v>44.89258424499085</v>
       </c>
       <c r="L60">
         <v>-0.1187995568346936</v>
       </c>
       <c r="M60">
-        <v>4.127042686635328</v>
+        <v>4.127042686635339</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2726,7 +2726,7 @@
         <v>72.3828899383545</v>
       </c>
       <c r="J61">
-        <v>63.95663612365723</v>
+        <v>63.95663639068604</v>
       </c>
       <c r="K61">
         <v>50.05563322801682</v>
@@ -2735,7 +2735,7 @@
         <v>-0.0871489916959638</v>
       </c>
       <c r="M61">
-        <v>4.125299603496445</v>
+        <v>4.125299603496456</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2764,7 +2764,7 @@
         <v>72.63206176757812</v>
       </c>
       <c r="J62">
-        <v>64.10422538757324</v>
+        <v>64.10422561645508</v>
       </c>
       <c r="K62">
         <v>52.34761821353062</v>
@@ -2773,7 +2773,7 @@
         <v>-0.09766296903133587</v>
       </c>
       <c r="M62">
-        <v>4.015952686123884</v>
+        <v>4.015952686123895</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2799,10 +2799,10 @@
         <v>79787600</v>
       </c>
       <c r="I63">
-        <v>72.64072952270507</v>
+        <v>72.64072933197022</v>
       </c>
       <c r="J63">
-        <v>64.1592264175415</v>
+        <v>64.15922664642333</v>
       </c>
       <c r="K63">
         <v>40.03218780338393</v>
@@ -2811,7 +2811,7 @@
         <v>-0.1173298187268376</v>
       </c>
       <c r="M63">
-        <v>4.771360228438095</v>
+        <v>4.771360228438105</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2837,10 +2837,10 @@
         <v>94064000</v>
       </c>
       <c r="I64">
-        <v>72.57768507003784</v>
+        <v>72.57768487930298</v>
       </c>
       <c r="J64">
-        <v>64.16525321960449</v>
+        <v>64.16525341033936</v>
       </c>
       <c r="K64">
         <v>37.45234066257598</v>
@@ -2849,7 +2849,7 @@
         <v>-0.133762271503973</v>
       </c>
       <c r="M64">
-        <v>5.646325225342928</v>
+        <v>5.646325225342939</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2878,7 +2878,7 @@
         <v>72.59374055862426</v>
       </c>
       <c r="J65">
-        <v>64.19665821075439</v>
+        <v>64.19665843963622</v>
       </c>
       <c r="K65">
         <v>39.18448172098901</v>
@@ -2887,7 +2887,7 @@
         <v>-0.08415425410681932</v>
       </c>
       <c r="M65">
-        <v>6.18115169937853</v>
+        <v>6.18115169937854</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2916,7 +2916,7 @@
         <v>72.67069873809814</v>
       </c>
       <c r="J66">
-        <v>64.26477573394776</v>
+        <v>64.26477592468262</v>
       </c>
       <c r="K66">
         <v>40.72348762630062</v>
@@ -2925,7 +2925,7 @@
         <v>-0.1173139876568382</v>
       </c>
       <c r="M66">
-        <v>6.594544405630411</v>
+        <v>6.594544405630421</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2954,7 +2954,7 @@
         <v>72.68307361602783</v>
       </c>
       <c r="J67">
-        <v>64.29561813354492</v>
+        <v>64.29561832427979</v>
       </c>
       <c r="K67">
         <v>36.84436942961889</v>
@@ -2963,7 +2963,7 @@
         <v>-0.1440839370025493</v>
       </c>
       <c r="M67">
-        <v>7.175930560763584</v>
+        <v>7.175930560763595</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2989,10 +2989,10 @@
         <v>86704200</v>
       </c>
       <c r="I68">
-        <v>72.81671142578125</v>
+        <v>72.81671152114868</v>
       </c>
       <c r="J68">
-        <v>64.35457427978515</v>
+        <v>64.35457443237304</v>
       </c>
       <c r="K68">
         <v>40.89719072335757</v>
@@ -3001,7 +3001,7 @@
         <v>0.04323906621320073</v>
       </c>
       <c r="M68">
-        <v>7.297303270602558</v>
+        <v>7.297303270602568</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3030,7 +3030,7 @@
         <v>72.81652145385742</v>
       </c>
       <c r="J69">
-        <v>64.39176982879638</v>
+        <v>64.39176998138427</v>
       </c>
       <c r="K69">
         <v>34.95163418491732</v>
@@ -3039,7 +3039,7 @@
         <v>0.001422454733635448</v>
       </c>
       <c r="M69">
-        <v>7.602210442096301</v>
+        <v>7.602210442096314</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3068,7 +3068,7 @@
         <v>72.60657224655151</v>
       </c>
       <c r="J70">
-        <v>64.38996925354004</v>
+        <v>64.38996940612793</v>
       </c>
       <c r="K70">
         <v>29.17197114864911</v>
@@ -3077,7 +3077,7 @@
         <v>-0.09741856332943233</v>
       </c>
       <c r="M70">
-        <v>8.042478193932512</v>
+        <v>8.042478193932526</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3106,7 +3106,7 @@
         <v>72.27143545150757</v>
       </c>
       <c r="J71">
-        <v>64.31245113372803</v>
+        <v>64.31245132446288</v>
       </c>
       <c r="K71">
         <v>26.02048760388895</v>
@@ -3115,7 +3115,7 @@
         <v>-0.180873886466673</v>
       </c>
       <c r="M71">
-        <v>8.732158444529391</v>
+        <v>8.732158444529407</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3144,7 +3144,7 @@
         <v>71.97576627731323</v>
       </c>
       <c r="J72">
-        <v>64.2624462890625</v>
+        <v>64.26244647979736</v>
       </c>
       <c r="K72">
         <v>27.43450208092889</v>
@@ -3153,7 +3153,7 @@
         <v>-0.1247014357075402</v>
       </c>
       <c r="M72">
-        <v>9.011501208066674</v>
+        <v>9.01150120806669</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3179,10 +3179,10 @@
         <v>91375800</v>
       </c>
       <c r="I73">
-        <v>71.61856803894042</v>
+        <v>71.61856822967529</v>
       </c>
       <c r="J73">
-        <v>64.19968883514404</v>
+        <v>64.19968898773193</v>
       </c>
       <c r="K73">
         <v>23.49699104845813</v>
@@ -3191,7 +3191,7 @@
         <v>-0.2210016622953622</v>
       </c>
       <c r="M73">
-        <v>8.985573762648151</v>
+        <v>8.985573762648171</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3220,7 +3220,7 @@
         <v>71.34768743515015</v>
       </c>
       <c r="J74">
-        <v>64.20691082000732</v>
+        <v>64.20691097259521</v>
       </c>
       <c r="K74">
         <v>32.00945979628759</v>
@@ -3229,7 +3229,7 @@
         <v>-0.08364902578537492</v>
       </c>
       <c r="M74">
-        <v>8.847614486236665</v>
+        <v>8.847614486236687</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3258,7 +3258,7 @@
         <v>71.02888097763062</v>
       </c>
       <c r="J75">
-        <v>64.20590721130371</v>
+        <v>64.2059073638916</v>
       </c>
       <c r="K75">
         <v>31.4300256324707</v>
@@ -3267,7 +3267,7 @@
         <v>0.001872588789450846</v>
       </c>
       <c r="M75">
-        <v>8.424342637646324</v>
+        <v>8.424342637646349</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3293,10 +3293,10 @@
         <v>54486300</v>
       </c>
       <c r="I76">
-        <v>70.69155540466309</v>
+        <v>70.69155521392823</v>
       </c>
       <c r="J76">
-        <v>64.20483432769775</v>
+        <v>64.20483451843262</v>
       </c>
       <c r="K76">
         <v>31.19548892078825</v>
@@ -3305,7 +3305,7 @@
         <v>0.1049981689459245</v>
       </c>
       <c r="M76">
-        <v>7.742660322620985</v>
+        <v>7.742660322621013</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3334,7 +3334,7 @@
         <v>70.43505105972289</v>
       </c>
       <c r="J77">
-        <v>64.22564865112305</v>
+        <v>64.22564880371094</v>
       </c>
       <c r="K77">
         <v>35.85777902611567</v>
@@ -3343,7 +3343,7 @@
         <v>0.156477466916126</v>
       </c>
       <c r="M77">
-        <v>6.723100050719606</v>
+        <v>6.723100050719641</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3372,7 +3372,7 @@
         <v>70.11472129821777</v>
       </c>
       <c r="J78">
-        <v>64.23963817596436</v>
+        <v>64.23963832855225</v>
       </c>
       <c r="K78">
         <v>40.58907672938384</v>
@@ -3381,7 +3381,7 @@
         <v>0.1970294919086584</v>
       </c>
       <c r="M78">
-        <v>6.28901611158059</v>
+        <v>6.289016111580628</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3407,10 +3407,10 @@
         <v>53212400</v>
       </c>
       <c r="I79">
-        <v>69.9123722076416</v>
+        <v>69.91237201690674</v>
       </c>
       <c r="J79">
-        <v>64.29992916107177</v>
+        <v>64.2999292755127</v>
       </c>
       <c r="K79">
         <v>46.14218146206162</v>
@@ -3419,7 +3419,7 @@
         <v>0.1791250233533221</v>
       </c>
       <c r="M79">
-        <v>6.002378741054566</v>
+        <v>6.002378741054606</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3448,7 +3448,7 @@
         <v>69.75927772521973</v>
       </c>
       <c r="J80">
-        <v>64.36834247589111</v>
+        <v>64.368342628479</v>
       </c>
       <c r="K80">
         <v>47.89783756040556</v>
@@ -3457,7 +3457,7 @@
         <v>0.1663550975029231</v>
       </c>
       <c r="M80">
-        <v>5.860822640762094</v>
+        <v>5.860822640762135</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3486,7 +3486,7 @@
         <v>69.68932266235352</v>
       </c>
       <c r="J81">
-        <v>64.46892292022704</v>
+        <v>64.46892307281495</v>
       </c>
       <c r="K81">
         <v>47.49649136652317</v>
@@ -3495,7 +3495,7 @@
         <v>0.2033755657076275</v>
       </c>
       <c r="M81">
-        <v>5.609777398516123</v>
+        <v>5.609777398516167</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3524,7 +3524,7 @@
         <v>69.67079029083251</v>
       </c>
       <c r="J82">
-        <v>64.55978755950927</v>
+        <v>64.55978771209716</v>
       </c>
       <c r="K82">
         <v>47.7977397992911</v>
@@ -3533,7 +3533,7 @@
         <v>0.1148520190349052</v>
       </c>
       <c r="M82">
-        <v>5.392464498598674</v>
+        <v>5.392464498598719</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3562,7 +3562,7 @@
         <v>69.61696815490723</v>
       </c>
       <c r="J83">
-        <v>64.66414897918702</v>
+        <v>64.66414909362793</v>
       </c>
       <c r="K83">
         <v>56.40305813376708</v>
@@ -3571,7 +3571,7 @@
         <v>0.1281608695969436</v>
       </c>
       <c r="M83">
-        <v>5.728515496082784</v>
+        <v>5.728515496082825</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3600,7 +3600,7 @@
         <v>69.46595764160156</v>
       </c>
       <c r="J84">
-        <v>64.73047409057617</v>
+        <v>64.73047424316407</v>
       </c>
       <c r="K84">
         <v>55.00096913127133</v>
@@ -3609,7 +3609,7 @@
         <v>-0.001168623720661066</v>
       </c>
       <c r="M84">
-        <v>5.844839472502697</v>
+        <v>5.844839472502737</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3638,7 +3638,7 @@
         <v>69.35493545532226</v>
       </c>
       <c r="J85">
-        <v>64.83458839416504</v>
+        <v>64.83458854675293</v>
       </c>
       <c r="K85">
         <v>55.29846243344735</v>
@@ -3647,7 +3647,7 @@
         <v>0.02753507725661519</v>
       </c>
       <c r="M85">
-        <v>6.047284578606496</v>
+        <v>6.047284578606535</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3676,7 +3676,7 @@
         <v>69.22180805206298</v>
       </c>
       <c r="J86">
-        <v>64.91417858123779</v>
+        <v>64.91417873382568</v>
       </c>
       <c r="K86">
         <v>52.82378981933615</v>
@@ -3685,7 +3685,7 @@
         <v>-0.03983173823352937</v>
       </c>
       <c r="M86">
-        <v>6.129082814888183</v>
+        <v>6.129082814888221</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3714,7 +3714,7 @@
         <v>69.07303333282471</v>
       </c>
       <c r="J87">
-        <v>65.02783660888672</v>
+        <v>65.02783679962158</v>
       </c>
       <c r="K87">
         <v>56.12385028236408</v>
@@ -3723,7 +3723,7 @@
         <v>-0.02568426418868219</v>
       </c>
       <c r="M87">
-        <v>6.229922581482332</v>
+        <v>6.229922581482368</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3752,7 +3752,7 @@
         <v>68.80901355743408</v>
       </c>
       <c r="J88">
-        <v>65.09805694580078</v>
+        <v>65.09805709838867</v>
       </c>
       <c r="K88">
         <v>48.35004579085049</v>
@@ -3761,7 +3761,7 @@
         <v>-0.07141872800378291</v>
       </c>
       <c r="M88">
-        <v>6.185264505480593</v>
+        <v>6.18526450548063</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3790,7 +3790,7 @@
         <v>68.48911018371582</v>
       </c>
       <c r="J89">
-        <v>65.16440422058105</v>
+        <v>65.16440433502197</v>
       </c>
       <c r="K89">
         <v>53.4518505358018</v>
@@ -3799,7 +3799,7 @@
         <v>-0.02968697743190907</v>
       </c>
       <c r="M89">
-        <v>6.20299969841255</v>
+        <v>6.202999698412587</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3828,7 +3828,7 @@
         <v>68.16572971343994</v>
       </c>
       <c r="J90">
-        <v>65.2470682144165</v>
+        <v>65.24706829071044</v>
       </c>
       <c r="K90">
         <v>62.05126099012715</v>
@@ -3837,7 +3837,7 @@
         <v>-0.02722250428529605</v>
       </c>
       <c r="M90">
-        <v>6.136997220393042</v>
+        <v>6.136997220393075</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3866,7 +3866,7 @@
         <v>67.6734561920166</v>
       </c>
       <c r="J91">
-        <v>65.28327606201172</v>
+        <v>65.28327613830567</v>
       </c>
       <c r="K91">
         <v>60.37062309965233</v>
@@ -3875,7 +3875,7 @@
         <v>-0.08924917776810593</v>
       </c>
       <c r="M91">
-        <v>5.599967119373376</v>
+        <v>5.59996711937341</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3904,7 +3904,7 @@
         <v>67.16354837417603</v>
       </c>
       <c r="J92">
-        <v>65.28680370330811</v>
+        <v>65.28680374145507</v>
       </c>
       <c r="K92">
         <v>58.30910192724206</v>
@@ -3913,7 +3913,7 @@
         <v>-0.1045771281186988</v>
       </c>
       <c r="M92">
-        <v>5.13980030212583</v>
+        <v>5.139800302125865</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3942,7 +3942,7 @@
         <v>66.5945279121399</v>
       </c>
       <c r="J93">
-        <v>65.32181144714356</v>
+        <v>65.32181148529052</v>
       </c>
       <c r="K93">
         <v>61.11809076202027</v>
@@ -3951,7 +3951,7 @@
         <v>-0.07016484228159914</v>
       </c>
       <c r="M93">
-        <v>4.356170182165645</v>
+        <v>4.356170182165681</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3980,7 +3980,7 @@
         <v>66.03916788101196</v>
       </c>
       <c r="J94">
-        <v>65.33604297637939</v>
+        <v>65.33604301452637</v>
       </c>
       <c r="K94">
         <v>48.65814383570153</v>
@@ -3989,7 +3989,7 @@
         <v>-0.141070039475699</v>
       </c>
       <c r="M94">
-        <v>4.46188310902227</v>
+        <v>4.461883109022305</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4018,7 +4018,7 @@
         <v>65.50442276000976</v>
       </c>
       <c r="J95">
-        <v>65.37123752593995</v>
+        <v>65.37123756408691</v>
       </c>
       <c r="K95">
         <v>50.31553992298803</v>
@@ -4027,7 +4027,7 @@
         <v>-0.138463726228813</v>
       </c>
       <c r="M95">
-        <v>4.44091614328229</v>
+        <v>4.440916143282325</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4056,7 +4056,7 @@
         <v>64.99426660537719</v>
       </c>
       <c r="J96">
-        <v>65.44271537780762</v>
+        <v>65.44271541595459</v>
       </c>
       <c r="K96">
         <v>51.71030820819677</v>
@@ -4065,7 +4065,7 @@
         <v>-0.02646350438009026</v>
       </c>
       <c r="M96">
-        <v>4.338686263110294</v>
+        <v>4.338686263110332</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4094,7 +4094,7 @@
         <v>64.57874002456666</v>
       </c>
       <c r="J97">
-        <v>65.56214233398437</v>
+        <v>65.56214241027833</v>
       </c>
       <c r="K97">
         <v>51.20381073479863</v>
@@ -4103,7 +4103,7 @@
         <v>0.04448392906953624</v>
       </c>
       <c r="M97">
-        <v>4.315292746060572</v>
+        <v>4.315292746060608</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4132,7 +4132,7 @@
         <v>64.38823862075806</v>
       </c>
       <c r="J98">
-        <v>65.73290828704835</v>
+        <v>65.73290836334229</v>
       </c>
       <c r="K98">
         <v>53.21142851124723</v>
@@ -4141,7 +4141,7 @@
         <v>0.07191233251772222</v>
       </c>
       <c r="M98">
-        <v>4.280828826370792</v>
+        <v>4.280828826370828</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4170,7 +4170,7 @@
         <v>64.246914768219</v>
       </c>
       <c r="J99">
-        <v>65.89806575775147</v>
+        <v>65.89806587219238</v>
       </c>
       <c r="K99">
         <v>48.60657539317589</v>
@@ -4179,7 +4179,7 @@
         <v>0.1817861480842466</v>
       </c>
       <c r="M99">
-        <v>4.256882904733793</v>
+        <v>4.256882904733829</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4208,7 +4208,7 @@
         <v>64.13241510391235</v>
       </c>
       <c r="J100">
-        <v>66.03181564331055</v>
+        <v>66.03181575775146</v>
       </c>
       <c r="K100">
         <v>47.29963845316055</v>
@@ -4217,7 +4217,7 @@
         <v>0.1241751970760863</v>
       </c>
       <c r="M100">
-        <v>4.216732513427296</v>
+        <v>4.216732513427334</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4246,7 +4246,7 @@
         <v>63.9419135093689</v>
       </c>
       <c r="J101">
-        <v>66.16081649780273</v>
+        <v>66.16081661224365</v>
       </c>
       <c r="K101">
         <v>43.65938045762122</v>
@@ -4255,7 +4255,7 @@
         <v>0.09538717992040868</v>
       </c>
       <c r="M101">
-        <v>4.033792538432767</v>
+        <v>4.033792538432809</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4284,7 +4284,7 @@
         <v>63.7496735572815</v>
       </c>
       <c r="J102">
-        <v>66.28968544006348</v>
+        <v>66.28968555450439</v>
       </c>
       <c r="K102">
         <v>43.16998542797297</v>
@@ -4293,7 +4293,7 @@
         <v>0.01626148728445176</v>
       </c>
       <c r="M102">
-        <v>3.853182147062923</v>
+        <v>3.853182147062968</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4322,7 +4322,7 @@
         <v>63.87708864212036</v>
       </c>
       <c r="J103">
-        <v>66.44378162384034</v>
+        <v>66.44378173828125</v>
       </c>
       <c r="K103">
         <v>48.52420541390937</v>
@@ -4331,7 +4331,7 @@
         <v>0.06167268573794304</v>
       </c>
       <c r="M103">
-        <v>3.755138695150106</v>
+        <v>3.755138695150154</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4360,7 +4360,7 @@
         <v>64.0474718093872</v>
       </c>
       <c r="J104">
-        <v>66.58687503814697</v>
+        <v>66.58687515258789</v>
       </c>
       <c r="K104">
         <v>52.22363840532448</v>
@@ -4369,7 +4369,7 @@
         <v>0.04127697182407242</v>
       </c>
       <c r="M104">
-        <v>3.84559125218422</v>
+        <v>3.845591252184266</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4398,7 +4398,7 @@
         <v>64.18581504821778</v>
       </c>
       <c r="J105">
-        <v>66.76680511474609</v>
+        <v>66.76680519104004</v>
       </c>
       <c r="K105">
         <v>50.15906446559286</v>
@@ -4407,7 +4407,7 @@
         <v>0.06320544004226969</v>
       </c>
       <c r="M105">
-        <v>3.853800171783298</v>
+        <v>3.853800171783344</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4436,7 +4436,7 @@
         <v>64.33955745697021</v>
       </c>
       <c r="J106">
-        <v>66.96795276641846</v>
+        <v>66.96795280456543</v>
       </c>
       <c r="K106">
         <v>54.35198577855557</v>
@@ -4445,7 +4445,7 @@
         <v>0.07760570001027922</v>
       </c>
       <c r="M106">
-        <v>4.040696225432233</v>
+        <v>4.040696225432274</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4474,7 +4474,7 @@
         <v>64.56584444046021</v>
       </c>
       <c r="J107">
-        <v>67.15268875122071</v>
+        <v>67.15268878936767</v>
       </c>
       <c r="K107">
         <v>53.93823676295161</v>
@@ -4483,7 +4483,7 @@
         <v>0.09571477388957672</v>
       </c>
       <c r="M107">
-        <v>4.210572216738788</v>
+        <v>4.210572216738827</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4512,7 +4512,7 @@
         <v>64.69364957809448</v>
       </c>
       <c r="J108">
-        <v>67.32100284576416</v>
+        <v>67.32100288391113</v>
       </c>
       <c r="K108">
         <v>59.47131166244439</v>
@@ -4521,7 +4521,7 @@
         <v>0.04031880057761961</v>
       </c>
       <c r="M108">
-        <v>4.535638799967225</v>
+        <v>4.535638799967261</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4550,7 +4550,7 @@
         <v>64.91225786209107</v>
       </c>
       <c r="J109">
-        <v>67.45835018157959</v>
+        <v>67.45835021972657</v>
       </c>
       <c r="K109">
         <v>57.97869996312093</v>
@@ -4559,7 +4559,7 @@
         <v>0.02896971986564068</v>
       </c>
       <c r="M109">
-        <v>4.727809061072026</v>
+        <v>4.727809061072058</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4588,7 +4588,7 @@
         <v>65.25956764221192</v>
       </c>
       <c r="J110">
-        <v>67.60127895355225</v>
+        <v>67.60127899169922</v>
       </c>
       <c r="K110">
         <v>55.92347707231626</v>
@@ -4597,7 +4597,7 @@
         <v>0.02934812937346654</v>
       </c>
       <c r="M110">
-        <v>4.910102177104806</v>
+        <v>4.910102177104835</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4626,7 +4626,7 @@
         <v>65.65754833221436</v>
       </c>
       <c r="J111">
-        <v>67.7146981048584</v>
+        <v>67.71469814300536</v>
       </c>
       <c r="K111">
         <v>61.56187306441247</v>
@@ -4635,7 +4635,7 @@
         <v>-0.02800338429424243</v>
       </c>
       <c r="M111">
-        <v>4.844526148196213</v>
+        <v>4.844526148196241</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4664,7 +4664,7 @@
         <v>66.02872562408447</v>
       </c>
       <c r="J112">
-        <v>67.82754158020019</v>
+        <v>67.82754165649413</v>
       </c>
       <c r="K112">
         <v>62.92582161053998</v>
@@ -4673,7 +4673,7 @@
         <v>-0.02776610928099954</v>
       </c>
       <c r="M112">
-        <v>4.724875704064853</v>
+        <v>4.724875704064878</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4702,7 +4702,7 @@
         <v>66.43987779617309</v>
       </c>
       <c r="J113">
-        <v>67.93483150482177</v>
+        <v>67.9348316192627</v>
       </c>
       <c r="K113">
         <v>62.36500790491482</v>
@@ -4711,7 +4711,7 @@
         <v>-0.05014356180750767</v>
       </c>
       <c r="M113">
-        <v>4.574846310440565</v>
+        <v>4.574846310440589</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4740,7 +4740,7 @@
         <v>66.79112014770507</v>
       </c>
       <c r="J114">
-        <v>68.06268051147461</v>
+        <v>68.06268062591553</v>
       </c>
       <c r="K114">
         <v>76.53768399222433</v>
@@ -4749,7 +4749,7 @@
         <v>0.0005561477795112957</v>
       </c>
       <c r="M114">
-        <v>3.904179886892009</v>
+        <v>3.904179886892032</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4778,7 +4778,7 @@
         <v>67.06368713378906</v>
       </c>
       <c r="J115">
-        <v>68.15592227935791</v>
+        <v>68.15592235565185</v>
       </c>
       <c r="K115">
         <v>68.5248006050395</v>
@@ -4787,7 +4787,7 @@
         <v>-0.03986762323731718</v>
       </c>
       <c r="M115">
-        <v>3.220633204025462</v>
+        <v>3.220633204025485</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4816,7 +4816,7 @@
         <v>67.40156927108765</v>
       </c>
       <c r="J116">
-        <v>68.2515523147583</v>
+        <v>68.25155239105224</v>
       </c>
       <c r="K116">
         <v>70.01751372848902</v>
@@ -4825,7 +4825,7 @@
         <v>0.04609620017109051</v>
       </c>
       <c r="M116">
-        <v>2.653820259346825</v>
+        <v>2.653820259346846</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4854,7 +4854,7 @@
         <v>67.6760082244873</v>
       </c>
       <c r="J117">
-        <v>68.36848426818848</v>
+        <v>68.36848434448243</v>
       </c>
       <c r="K117">
         <v>67.77299056841812</v>
@@ -4863,7 +4863,7 @@
         <v>0.06730772610945501</v>
       </c>
       <c r="M117">
-        <v>2.578283412426223</v>
+        <v>2.578283412426239</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4901,7 +4901,7 @@
         <v>0.06602429325436354</v>
       </c>
       <c r="M118">
-        <v>2.57796349388522</v>
+        <v>2.577963493885232</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4939,7 +4939,7 @@
         <v>0.03237457015835665</v>
       </c>
       <c r="M119">
-        <v>2.599866820201684</v>
+        <v>2.599866820201692</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4977,7 +4977,7 @@
         <v>0.09482758999937979</v>
       </c>
       <c r="M120">
-        <v>2.644476098614099</v>
+        <v>2.644476098614101</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5015,7 +5015,7 @@
         <v>0.007436025358274811</v>
       </c>
       <c r="M121">
-        <v>2.402502802951131</v>
+        <v>2.402502802951128</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5053,7 +5053,7 @@
         <v>-0.01680791803646531</v>
       </c>
       <c r="M122">
-        <v>1.934973285588959</v>
+        <v>1.934973285588954</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5082,7 +5082,7 @@
         <v>68.44349336624146</v>
       </c>
       <c r="J123">
-        <v>68.98373394012451</v>
+        <v>68.98373386383057</v>
       </c>
       <c r="K123">
         <v>56.14931035830602</v>
@@ -5091,7 +5091,7 @@
         <v>-0.01039004608134997</v>
       </c>
       <c r="M123">
-        <v>1.918723242064044</v>
+        <v>1.918723242064037</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5120,7 +5120,7 @@
         <v>68.60494451522827</v>
       </c>
       <c r="J124">
-        <v>69.07386379241943</v>
+        <v>69.07386371612549</v>
       </c>
       <c r="K124">
         <v>59.41932061193774</v>
@@ -5129,7 +5129,7 @@
         <v>0.004575952245916115</v>
       </c>
       <c r="M124">
-        <v>1.922867399005124</v>
+        <v>1.922867399005112</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5167,7 +5167,7 @@
         <v>-0.01509170729609988</v>
       </c>
       <c r="M125">
-        <v>1.955584728720397</v>
+        <v>1.95558472872038</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5205,7 +5205,7 @@
         <v>0.02884079758362779</v>
       </c>
       <c r="M126">
-        <v>2.02225432438077</v>
+        <v>2.022254324380749</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5243,7 +5243,7 @@
         <v>-0.01818923766797365</v>
       </c>
       <c r="M127">
-        <v>2.018976898911824</v>
+        <v>2.018976898911803</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5272,7 +5272,7 @@
         <v>69.14719018936157</v>
       </c>
       <c r="J128">
-        <v>69.5167183303833</v>
+        <v>69.51671836853028</v>
       </c>
       <c r="K128">
         <v>50.56016306517378</v>
@@ -5281,7 +5281,7 @@
         <v>0.002181613533978055</v>
       </c>
       <c r="M128">
-        <v>2.023377260021251</v>
+        <v>2.02337726002123</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5319,7 +5319,7 @@
         <v>0.001339785993185627</v>
       </c>
       <c r="M129">
-        <v>2.056559931491424</v>
+        <v>2.0565599314914</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5357,7 +5357,7 @@
         <v>-0.003197960420522561</v>
       </c>
       <c r="M130">
-        <v>2.094401887966348</v>
+        <v>2.094401887966321</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5395,7 +5395,7 @@
         <v>0.02138966571420475</v>
       </c>
       <c r="M131">
-        <v>2.076259079751986</v>
+        <v>2.076259079751948</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5433,7 +5433,7 @@
         <v>0.04708165298181144</v>
       </c>
       <c r="M132">
-        <v>1.911310530289843</v>
+        <v>1.911310530289793</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5462,7 +5462,7 @@
         <v>70.41624565124512</v>
       </c>
       <c r="J133">
-        <v>69.91545566558838</v>
+        <v>69.91545574188233</v>
       </c>
       <c r="K133">
         <v>49.89449047344977</v>
@@ -5471,7 +5471,7 @@
         <v>-0.05510199873274868</v>
       </c>
       <c r="M133">
-        <v>1.919375942071444</v>
+        <v>1.919375942071395</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5509,7 +5509,7 @@
         <v>-0.05097668702231439</v>
       </c>
       <c r="M134">
-        <v>1.981502854936233</v>
+        <v>1.981502854936188</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5547,7 +5547,7 @@
         <v>-0.06068707523365346</v>
       </c>
       <c r="M135">
-        <v>1.914348536974182</v>
+        <v>1.914348536974134</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5576,7 +5576,7 @@
         <v>71.360795211792</v>
       </c>
       <c r="J136">
-        <v>69.92882884979248</v>
+        <v>69.92882877349854</v>
       </c>
       <c r="K136">
         <v>50.53085496042842</v>
@@ -5585,7 +5585,7 @@
         <v>-0.051248675752531</v>
       </c>
       <c r="M136">
-        <v>1.906343784299059</v>
+        <v>1.90634378429901</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5623,7 +5623,7 @@
         <v>0.04908885892524562</v>
       </c>
       <c r="M137">
-        <v>2.224661252398921</v>
+        <v>2.22466125239887</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5661,7 +5661,7 @@
         <v>0.1886249902317929</v>
       </c>
       <c r="M138">
-        <v>2.940951623535014</v>
+        <v>2.940951623534961</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5690,7 +5690,7 @@
         <v>72.51687583923339</v>
       </c>
       <c r="J139">
-        <v>70.10651134490966</v>
+        <v>70.10651126861572</v>
       </c>
       <c r="K139">
         <v>61.19206111798744</v>
@@ -5699,7 +5699,7 @@
         <v>0.166643194122259</v>
       </c>
       <c r="M139">
-        <v>3.486095112686515</v>
+        <v>3.486095112686456</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5737,7 +5737,7 @@
         <v>0.1754660496099967</v>
       </c>
       <c r="M140">
-        <v>3.891483496334709</v>
+        <v>3.891483496334647</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5775,7 +5775,7 @@
         <v>0.1262681783201471</v>
       </c>
       <c r="M141">
-        <v>4.164453666132082</v>
+        <v>4.16445366613201</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5813,7 +5813,7 @@
         <v>0.03715444922707056</v>
       </c>
       <c r="M142">
-        <v>4.345325187086027</v>
+        <v>4.345325187085944</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5851,7 +5851,7 @@
         <v>-0.03016359738052798</v>
       </c>
       <c r="M143">
-        <v>4.390210912949764</v>
+        <v>4.390210912949671</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5889,7 +5889,7 @@
         <v>-0.1024774092449922</v>
       </c>
       <c r="M144">
-        <v>4.398336471099179</v>
+        <v>4.398336471099086</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -5927,7 +5927,7 @@
         <v>-0.08268767638470542</v>
       </c>
       <c r="M145">
-        <v>4.390631275039777</v>
+        <v>4.390631275039683</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -5965,7 +5965,7 @@
         <v>-0.05916006314630906</v>
       </c>
       <c r="M146">
-        <v>4.38827330533038</v>
+        <v>4.388273305330283</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6003,7 +6003,7 @@
         <v>-0.05611943164883659</v>
       </c>
       <c r="M147">
-        <v>4.252838614165181</v>
+        <v>4.252838614165072</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6041,7 +6041,7 @@
         <v>-0.02623036965086756</v>
       </c>
       <c r="M148">
-        <v>4.193175825121146</v>
+        <v>4.193175825121028</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6079,7 +6079,7 @@
         <v>0.05358828546324523</v>
       </c>
       <c r="M149">
-        <v>4.170586753147483</v>
+        <v>4.17058675314736</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6117,7 +6117,7 @@
         <v>0.03748189612253738</v>
       </c>
       <c r="M150">
-        <v>4.147537874609394</v>
+        <v>4.147537874609264</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6155,7 +6155,7 @@
         <v>0.03286322019149845</v>
       </c>
       <c r="M151">
-        <v>4.184329676900999</v>
+        <v>4.184329676900866</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6193,7 +6193,7 @@
         <v>0.00906740580594767</v>
       </c>
       <c r="M152">
-        <v>4.151169629195669</v>
+        <v>4.151169629195532</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6231,7 +6231,7 @@
         <v>0.02475627493426558</v>
       </c>
       <c r="M153">
-        <v>3.712111459853392</v>
+        <v>3.712111459853226</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6269,7 +6269,7 @@
         <v>0.05405758365881086</v>
       </c>
       <c r="M154">
-        <v>3.428421733591185</v>
+        <v>3.428421733590993</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6307,7 +6307,7 @@
         <v>0.05851670255955432</v>
       </c>
       <c r="M155">
-        <v>2.950172319838475</v>
+        <v>2.95017231983824</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6345,7 +6345,7 @@
         <v>0.08042087591484437</v>
       </c>
       <c r="M156">
-        <v>2.936992007056765</v>
+        <v>2.936992007056516</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6383,7 +6383,7 @@
         <v>0.0980745116462709</v>
       </c>
       <c r="M157">
-        <v>3.171358833760863</v>
+        <v>3.171358833760626</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6421,7 +6421,7 @@
         <v>0.09826017135750331</v>
       </c>
       <c r="M158">
-        <v>3.550633671712963</v>
+        <v>3.550633671712748</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6459,7 +6459,7 @@
         <v>0.03891846812621025</v>
       </c>
       <c r="M159">
-        <v>3.701939984561679</v>
+        <v>3.701939984561471</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6497,7 +6497,7 @@
         <v>0.01862759510294865</v>
       </c>
       <c r="M160">
-        <v>3.789435290631605</v>
+        <v>3.789435290631401</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -6535,7 +6535,7 @@
         <v>0.03524645225740497</v>
       </c>
       <c r="M161">
-        <v>4.227999143128772</v>
+        <v>4.227999143128583</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -6573,7 +6573,7 @@
         <v>0.02314697445539116</v>
       </c>
       <c r="M162">
-        <v>4.457226011390407</v>
+        <v>4.457226011390224</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -6611,7 +6611,7 @@
         <v>0.01891954471440305</v>
       </c>
       <c r="M163">
-        <v>4.776750425570229</v>
+        <v>4.776750425570052</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -6649,7 +6649,7 @@
         <v>0.08869180551634925</v>
       </c>
       <c r="M164">
-        <v>5.052343614696383</v>
+        <v>5.052343614696206</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -6687,7 +6687,7 @@
         <v>0.08588958938999269</v>
       </c>
       <c r="M165">
-        <v>5.153158366236227</v>
+        <v>5.153158366236044</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -6725,7 +6725,7 @@
         <v>-0.08063623302425438</v>
       </c>
       <c r="M166">
-        <v>4.947584494179156</v>
+        <v>4.947584494178963</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -6763,7 +6763,7 @@
         <v>-0.0752970216191523</v>
       </c>
       <c r="M167">
-        <v>4.747427437991789</v>
+        <v>4.747427437991584</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -6801,7 +6801,7 @@
         <v>-0.07125285351254007</v>
       </c>
       <c r="M168">
-        <v>4.532317346369973</v>
+        <v>4.532317346369756</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -6839,7 +6839,7 @@
         <v>-0.08518965131308176</v>
       </c>
       <c r="M169">
-        <v>4.299883534376808</v>
+        <v>4.299883534376575</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -6877,7 +6877,7 @@
         <v>-0.03592034239109054</v>
       </c>
       <c r="M170">
-        <v>4.133844057436368</v>
+        <v>4.133844057436121</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -6915,7 +6915,7 @@
         <v>0.07861208946646436</v>
       </c>
       <c r="M171">
-        <v>3.990403171557239</v>
+        <v>3.990403171556978</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -6953,7 +6953,7 @@
         <v>0.04956545854140404</v>
       </c>
       <c r="M172">
-        <v>3.557390188008273</v>
+        <v>3.557390188007976</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -6991,7 +6991,7 @@
         <v>-0.01806531528977551</v>
       </c>
       <c r="M173">
-        <v>3.425594243192008</v>
+        <v>3.425594243191698</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7029,7 +7029,7 @@
         <v>-0.06971550053350151</v>
       </c>
       <c r="M174">
-        <v>3.658176688113182</v>
+        <v>3.658176688112895</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7067,7 +7067,7 @@
         <v>-0.1109227150291822</v>
       </c>
       <c r="M175">
-        <v>3.943600605965934</v>
+        <v>3.943600605965672</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7105,7 +7105,7 @@
         <v>-0.0662889345509472</v>
       </c>
       <c r="M176">
-        <v>3.999901747369044</v>
+        <v>3.999901747368788</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7143,7 +7143,7 @@
         <v>0.006496520181576981</v>
       </c>
       <c r="M177">
-        <v>3.999932799626288</v>
+        <v>3.999932799626032</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7181,7 +7181,7 @@
         <v>-0.007875946010627688</v>
       </c>
       <c r="M178">
-        <v>4.095595679698609</v>
+        <v>4.095595679698365</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7219,7 +7219,7 @@
         <v>0.01958805896067251</v>
       </c>
       <c r="M179">
-        <v>4.202313995266872</v>
+        <v>4.202313995266637</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7257,7 +7257,7 @@
         <v>-0.02289196852649056</v>
       </c>
       <c r="M180">
-        <v>4.557051137373758</v>
+        <v>4.557051137373546</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7295,7 +7295,7 @@
         <v>-0.07730585714347882</v>
       </c>
       <c r="M181">
-        <v>4.774402803519599</v>
+        <v>4.774402803519405</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7333,7 +7333,7 @@
         <v>-0.1109024416122099</v>
       </c>
       <c r="M182">
-        <v>5.007976369283931</v>
+        <v>5.007976369283752</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7371,7 +7371,7 @@
         <v>0.003224937955573992</v>
       </c>
       <c r="M183">
-        <v>4.823348298646799</v>
+        <v>4.823348298646618</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7409,7 +7409,7 @@
         <v>-0.01797219810061368</v>
       </c>
       <c r="M184">
-        <v>4.221679955891315</v>
+        <v>4.221679955891117</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7447,7 +7447,7 @@
         <v>0.0821293428115375</v>
       </c>
       <c r="M185">
-        <v>3.565153217132714</v>
+        <v>3.565153217132485</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -7485,7 +7485,7 @@
         <v>0.1116664211506126</v>
       </c>
       <c r="M186">
-        <v>3.625638001148971</v>
+        <v>3.625638001148745</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -7523,7 +7523,7 @@
         <v>0.1589229220701076</v>
       </c>
       <c r="M187">
-        <v>3.861004688022803</v>
+        <v>3.861004688022587</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -7561,7 +7561,7 @@
         <v>0.09223540229728933</v>
       </c>
       <c r="M188">
-        <v>4.107682368461529</v>
+        <v>4.107682368461324</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -7599,7 +7599,7 @@
         <v>0.09491349645901925</v>
       </c>
       <c r="M189">
-        <v>4.18319389280115</v>
+        <v>4.183193892800948</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -7637,7 +7637,7 @@
         <v>-0.04811161930917729</v>
       </c>
       <c r="M190">
-        <v>3.992264812935796</v>
+        <v>3.99226481293559</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -7675,7 +7675,7 @@
         <v>-0.02212488395006229</v>
       </c>
       <c r="M191">
-        <v>3.714856323231734</v>
+        <v>3.714856323231513</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -7713,7 +7713,7 @@
         <v>-0.0644647319519206</v>
       </c>
       <c r="M192">
-        <v>3.650751689194399</v>
+        <v>3.650751689194176</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -7751,7 +7751,7 @@
         <v>-0.05852386668854559</v>
       </c>
       <c r="M193">
-        <v>3.667516880190941</v>
+        <v>3.667516880190718</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -7789,7 +7789,7 @@
         <v>-0.04645531734059793</v>
       </c>
       <c r="M194">
-        <v>3.625168273640844</v>
+        <v>3.625168273640615</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -7827,7 +7827,7 @@
         <v>0.01996464295223821</v>
       </c>
       <c r="M195">
-        <v>3.557500373388078</v>
+        <v>3.557500373387843</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -7865,7 +7865,7 @@
         <v>0.01209921332774422</v>
       </c>
       <c r="M196">
-        <v>3.576998871603126</v>
+        <v>3.576998871602891</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -7903,7 +7903,7 @@
         <v>0.03165325655515838</v>
       </c>
       <c r="M197">
-        <v>3.556276933230052</v>
+        <v>3.556276933229816</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -7941,7 +7941,7 @@
         <v>0.03414697643152742</v>
       </c>
       <c r="M198">
-        <v>3.651115444205734</v>
+        <v>3.651115444205499</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -7979,7 +7979,7 @@
         <v>0.000120915571601321</v>
       </c>
       <c r="M199">
-        <v>3.633601331030428</v>
+        <v>3.63360133103019</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8017,7 +8017,7 @@
         <v>0.06095141346062594</v>
       </c>
       <c r="M200">
-        <v>3.459350968400976</v>
+        <v>3.459350968400718</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8055,7 +8055,7 @@
         <v>0.01649727708601456</v>
       </c>
       <c r="M201">
-        <v>3.100772819065862</v>
+        <v>3.100772819065567</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8093,7 +8093,7 @@
         <v>0.005428358461988303</v>
       </c>
       <c r="M202">
-        <v>2.576762067411092</v>
+        <v>2.576762067410725</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8131,7 +8131,7 @@
         <v>0.03232180804848328</v>
       </c>
       <c r="M203">
-        <v>2.722454780081992</v>
+        <v>2.722454780081639</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8169,7 +8169,7 @@
         <v>0.08582132462256253</v>
       </c>
       <c r="M204">
-        <v>2.754946701460661</v>
+        <v>2.754946701460302</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -8207,7 +8207,7 @@
         <v>0.05546473649991812</v>
       </c>
       <c r="M205">
-        <v>3.012731860861506</v>
+        <v>3.01273186086117</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -8245,7 +8245,7 @@
         <v>0.06315421408531785</v>
       </c>
       <c r="M206">
-        <v>3.241823098092093</v>
+        <v>3.241823098091776</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -8268,7 +8268,7 @@
         <v>90.05000305175781</v>
       </c>
       <c r="G207">
-        <v>39911000</v>
+        <v>40133000</v>
       </c>
       <c r="I207">
         <v>83.71562519073487</v>
@@ -8283,45 +8283,349 @@
         <v>0.04812213908888197</v>
       </c>
       <c r="M207">
-        <v>3.319324848498448</v>
+        <v>3.319324848498137</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>45709</v>
       </c>
+      <c r="B208" s="3">
+        <v>45709</v>
+      </c>
       <c r="C208">
-        <v>84</v>
+        <v>83.70999908447266</v>
       </c>
       <c r="D208">
-        <v>84</v>
+        <v>89.79000091552734</v>
       </c>
       <c r="E208">
-        <v>84</v>
+        <v>83.47000122070312</v>
       </c>
       <c r="F208">
-        <v>84</v>
+        <v>89.76999664306641</v>
       </c>
       <c r="G208">
+        <v>59313600</v>
+      </c>
+      <c r="I208">
+        <v>83.73950023651123</v>
+      </c>
+      <c r="J208">
+        <v>80.16332107543946</v>
+      </c>
+      <c r="K208">
+        <v>44.33292848670347</v>
+      </c>
+      <c r="L208">
+        <v>-0.05721367021820034</v>
+      </c>
+      <c r="M208">
+        <v>3.262026609855912</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B209" s="3">
+        <v>45712</v>
+      </c>
+      <c r="C209">
+        <v>80.69999694824219</v>
+      </c>
+      <c r="D209">
+        <v>85.05000305175781</v>
+      </c>
+      <c r="E209">
+        <v>80.5</v>
+      </c>
+      <c r="F209">
+        <v>84.5</v>
+      </c>
+      <c r="G209">
+        <v>53233700</v>
+      </c>
+      <c r="I209">
+        <v>83.63050022125245</v>
+      </c>
+      <c r="J209">
+        <v>80.25340339660644</v>
+      </c>
+      <c r="K209">
+        <v>42.84362143334415</v>
+      </c>
+      <c r="L209">
+        <v>-0.1016364766415513</v>
+      </c>
+      <c r="M209">
+        <v>3.382715265274361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B210" s="3">
+        <v>45713</v>
+      </c>
+      <c r="C210">
+        <v>77.62000274658203</v>
+      </c>
+      <c r="D210">
+        <v>80.37999725341797</v>
+      </c>
+      <c r="E210">
+        <v>75.77999877929688</v>
+      </c>
+      <c r="F210">
+        <v>80.33000183105469</v>
+      </c>
+      <c r="G210">
+        <v>75597200</v>
+      </c>
+      <c r="I210">
+        <v>83.36000022888183</v>
+      </c>
+      <c r="J210">
+        <v>80.3071043395996</v>
+      </c>
+      <c r="K210">
+        <v>47.98622584909364</v>
+      </c>
+      <c r="L210">
+        <v>-0.1412766537149556</v>
+      </c>
+      <c r="M210">
+        <v>3.53116980205329</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" s="2">
+        <v>45714</v>
+      </c>
+      <c r="B211" s="3">
+        <v>45714</v>
+      </c>
+      <c r="C211">
+        <v>78.12000274658203</v>
+      </c>
+      <c r="D211">
+        <v>80.44999694824219</v>
+      </c>
+      <c r="E211">
+        <v>76.69000244140625</v>
+      </c>
+      <c r="F211">
+        <v>78.58000183105469</v>
+      </c>
+      <c r="G211">
+        <v>63175700</v>
+      </c>
+      <c r="I211">
+        <v>83.10675029754638</v>
+      </c>
+      <c r="J211">
+        <v>80.39640357971192</v>
+      </c>
+      <c r="K211">
+        <v>43.47826182468427</v>
+      </c>
+      <c r="L211">
+        <v>-0.1358406921683676</v>
+      </c>
+      <c r="M211">
+        <v>3.807874748826516</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B212" s="3">
+        <v>45715</v>
+      </c>
+      <c r="C212">
+        <v>71.63999938964844</v>
+      </c>
+      <c r="D212">
+        <v>80.16999816894531</v>
+      </c>
+      <c r="E212">
+        <v>71.48000335693359</v>
+      </c>
+      <c r="F212">
+        <v>79.72000122070312</v>
+      </c>
+      <c r="G212">
+        <v>103375500</v>
+      </c>
+      <c r="I212">
+        <v>82.78125019073487</v>
+      </c>
+      <c r="J212">
+        <v>80.4183113861084</v>
+      </c>
+      <c r="K212">
+        <v>37.10073613352754</v>
+      </c>
+      <c r="L212">
+        <v>-0.1977603925934216</v>
+      </c>
+      <c r="M212">
+        <v>4.759678855936758</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
+      <c r="A213" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B213" s="3">
+        <v>45716</v>
+      </c>
+      <c r="C213">
+        <v>74.91999816894531</v>
+      </c>
+      <c r="D213">
+        <v>75.16999816894531</v>
+      </c>
+      <c r="E213">
+        <v>70.08000183105469</v>
+      </c>
+      <c r="F213">
+        <v>71.45999908447266</v>
+      </c>
+      <c r="G213">
+        <v>93179000</v>
+      </c>
+      <c r="I213">
+        <v>82.62275009155273</v>
+      </c>
+      <c r="J213">
+        <v>80.47461395263672</v>
+      </c>
+      <c r="K213">
+        <v>40.3958083979123</v>
+      </c>
+      <c r="L213">
+        <v>-0.1050053877871538</v>
+      </c>
+      <c r="M213">
+        <v>5.175252220813013</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B214" s="3">
+        <v>45719</v>
+      </c>
+      <c r="C214">
+        <v>70.08000183105469</v>
+      </c>
+      <c r="D214">
+        <v>77.05000305175781</v>
+      </c>
+      <c r="E214">
+        <v>68.44000244140625</v>
+      </c>
+      <c r="F214">
+        <v>76.37000274658203</v>
+      </c>
+      <c r="G214">
+        <v>91945800</v>
+      </c>
+      <c r="I214">
+        <v>82.39650020599365</v>
+      </c>
+      <c r="J214">
+        <v>80.45809761047363</v>
+      </c>
+      <c r="K214">
+        <v>36.64976725026543</v>
+      </c>
+      <c r="L214">
+        <v>-0.1315984574819594</v>
+      </c>
+      <c r="M214">
+        <v>5.994436013431468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B215" s="3">
+        <v>45720</v>
+      </c>
+      <c r="C215">
+        <v>69.30999755859375</v>
+      </c>
+      <c r="D215">
+        <v>72.76999664306641</v>
+      </c>
+      <c r="E215">
+        <v>66.01000213623047</v>
+      </c>
+      <c r="F215">
+        <v>68.76000213623047</v>
+      </c>
+      <c r="G215">
+        <v>130105900</v>
+      </c>
+      <c r="I215">
+        <v>82.16350021362305</v>
+      </c>
+      <c r="J215">
+        <v>80.45750282287598</v>
+      </c>
+      <c r="K215">
+        <v>37.62740890145655</v>
+      </c>
+      <c r="L215">
+        <v>-0.1070600991231504</v>
+      </c>
+      <c r="M215">
+        <v>6.718201483594774</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" s="2">
+        <v>45721</v>
+      </c>
+      <c r="C216">
+        <v>72.2</v>
+      </c>
+      <c r="D216">
+        <v>72.2</v>
+      </c>
+      <c r="E216">
+        <v>72.2</v>
+      </c>
+      <c r="F216">
+        <v>72.2</v>
+      </c>
+      <c r="G216">
         <v>10000</v>
       </c>
-      <c r="H208">
-        <v>84</v>
-      </c>
-      <c r="I208">
-        <v>83.74675025939942</v>
-      </c>
-      <c r="J208">
-        <v>80.16622108459472</v>
-      </c>
-      <c r="K208">
-        <v>44.64990557306989</v>
-      </c>
-      <c r="L208">
-        <v>-0.05394752636712363</v>
-      </c>
-      <c r="M208">
-        <v>3.255995576045823</v>
+      <c r="H216">
+        <v>72.2</v>
+      </c>
+      <c r="I216">
+        <v>81.90850017547606</v>
+      </c>
+      <c r="J216">
+        <v>80.45570803833007</v>
+      </c>
+      <c r="K216">
+        <v>37.57325717033044</v>
+      </c>
+      <c r="L216">
+        <v>-0.0757808824685563</v>
+      </c>
+      <c r="M216">
+        <v>7.083172117434205</v>
       </c>
     </row>
   </sheetData>

--- a/X_implementation.xlsx
+++ b/X_implementation.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M294"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,19 +481,19 @@
         <v>86413600</v>
       </c>
       <c r="I2">
-        <v>57.95235509872437</v>
+        <v>57.95235433578491</v>
       </c>
       <c r="J2">
-        <v>53.99524272918701</v>
+        <v>53.99524280548096</v>
       </c>
       <c r="K2">
-        <v>34.87364704684568</v>
+        <v>34.87366713654703</v>
       </c>
       <c r="L2">
         <v>0.001895737801442365</v>
       </c>
       <c r="M2">
-        <v>3.883297967563029</v>
+        <v>3.88329813990666</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -519,19 +519,19 @@
         <v>67997300</v>
       </c>
       <c r="I3">
-        <v>57.83272104263305</v>
+        <v>57.8327202796936</v>
       </c>
       <c r="J3">
-        <v>54.10734157562256</v>
+        <v>54.10734161376953</v>
       </c>
       <c r="K3">
-        <v>40.2241489263609</v>
+        <v>40.2241583651755</v>
       </c>
       <c r="L3">
-        <v>0.1172189468671696</v>
+        <v>0.1172191219271883</v>
       </c>
       <c r="M3">
-        <v>3.75137024873888</v>
+        <v>3.751370344458248</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -542,34 +542,34 @@
         <v>45411</v>
       </c>
       <c r="C4">
-        <v>55.04706192016602</v>
+        <v>55.04706954956055</v>
       </c>
       <c r="D4">
-        <v>55.43083973685746</v>
+        <v>55.43084741944271</v>
       </c>
       <c r="E4">
-        <v>54.00398446797467</v>
+        <v>54.00399195280109</v>
       </c>
       <c r="F4">
-        <v>55.18483033718132</v>
+        <v>55.18483798567022</v>
       </c>
       <c r="G4">
         <v>51177500</v>
       </c>
       <c r="I4">
-        <v>57.66142387390137</v>
+        <v>57.66142330169678</v>
       </c>
       <c r="J4">
-        <v>54.23823532104493</v>
+        <v>54.23823547363281</v>
       </c>
       <c r="K4">
-        <v>40.74072611714932</v>
+        <v>40.74074916037421</v>
       </c>
       <c r="L4">
-        <v>0.09858594028412448</v>
+        <v>0.09858609254557615</v>
       </c>
       <c r="M4">
-        <v>3.550308442284427</v>
+        <v>3.550308409924211</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -595,19 +595,19 @@
         <v>62624300</v>
       </c>
       <c r="I5">
-        <v>57.42978801727295</v>
+        <v>57.42978763580322</v>
       </c>
       <c r="J5">
-        <v>54.33461372375488</v>
+        <v>54.3346138381958</v>
       </c>
       <c r="K5">
-        <v>38.89214983157888</v>
+        <v>38.89216949844823</v>
       </c>
       <c r="L5">
-        <v>-0.008460178433304821</v>
+        <v>-0.008460250698388627</v>
       </c>
       <c r="M5">
-        <v>3.516704092250411</v>
+        <v>3.516704235789768</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -618,34 +618,34 @@
         <v>45413</v>
       </c>
       <c r="C6">
-        <v>50.77634048461914</v>
+        <v>50.77633666992188</v>
       </c>
       <c r="D6">
-        <v>53.92526166862935</v>
+        <v>53.92525761736165</v>
       </c>
       <c r="E6">
-        <v>50.45161001691928</v>
+        <v>50.45160622661819</v>
       </c>
       <c r="F6">
-        <v>51.31756418712837</v>
+        <v>51.31756033177034</v>
       </c>
       <c r="G6">
         <v>104038400</v>
       </c>
       <c r="I6">
-        <v>57.25197896957398</v>
+        <v>57.25197830200195</v>
       </c>
       <c r="J6">
-        <v>54.4272908782959</v>
+        <v>54.42729091644287</v>
       </c>
       <c r="K6">
-        <v>36.90885350558409</v>
+        <v>36.90887811813942</v>
       </c>
       <c r="L6">
-        <v>-0.03928500360916454</v>
+        <v>-0.03928507578523777</v>
       </c>
       <c r="M6">
-        <v>3.469741945242481</v>
+        <v>3.469742847663021</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -671,19 +671,19 @@
         <v>62414900</v>
       </c>
       <c r="I7">
-        <v>57.0944390296936</v>
+        <v>57.09443817138672</v>
       </c>
       <c r="J7">
         <v>54.52138656616211</v>
       </c>
       <c r="K7">
-        <v>43.61101326117276</v>
+        <v>43.61103002190558</v>
       </c>
       <c r="L7">
         <v>0.01248815113558011</v>
       </c>
       <c r="M7">
-        <v>3.456151776065793</v>
+        <v>3.456152811312066</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -694,34 +694,34 @@
         <v>45415</v>
       </c>
       <c r="C8">
-        <v>55.7949333190918</v>
+        <v>55.79494094848633</v>
       </c>
       <c r="D8">
-        <v>56.19838858962768</v>
+        <v>56.19839627419065</v>
       </c>
       <c r="E8">
-        <v>54.84041563478264</v>
+        <v>54.8404231336565</v>
       </c>
       <c r="F8">
-        <v>55.43084045392663</v>
+        <v>55.43084803353513</v>
       </c>
       <c r="G8">
         <v>75439000</v>
       </c>
       <c r="I8">
-        <v>56.94968252182007</v>
+        <v>56.94968194961548</v>
       </c>
       <c r="J8">
-        <v>54.64169910430908</v>
+        <v>54.64169914245605</v>
       </c>
       <c r="K8">
-        <v>45.47017383154365</v>
+        <v>45.4701930007163</v>
       </c>
       <c r="L8">
-        <v>0.02568736827231133</v>
+        <v>0.02568750852471657</v>
       </c>
       <c r="M8">
-        <v>3.312633246192671</v>
+        <v>3.312634507003001</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -747,19 +747,19 @@
         <v>41265400</v>
       </c>
       <c r="I9">
-        <v>56.91809329986572</v>
+        <v>56.91809282302857</v>
       </c>
       <c r="J9">
-        <v>54.76918598175049</v>
+        <v>54.76918590545655</v>
       </c>
       <c r="K9">
-        <v>48.17438401978387</v>
+        <v>48.17439219378309</v>
       </c>
       <c r="L9">
-        <v>0.0468360334815936</v>
+        <v>0.04683588839257835</v>
       </c>
       <c r="M9">
-        <v>3.22745630478552</v>
+        <v>3.22745789980323</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -785,19 +785,19 @@
         <v>46660200</v>
       </c>
       <c r="I10">
-        <v>56.90366287231446</v>
+        <v>56.9036623954773</v>
       </c>
       <c r="J10">
-        <v>54.88583679199219</v>
+        <v>54.88583671569824</v>
       </c>
       <c r="K10">
-        <v>47.28382076920672</v>
+        <v>47.28381919089185</v>
       </c>
       <c r="L10">
         <v>0.1103526934782078</v>
       </c>
       <c r="M10">
-        <v>3.085976815850721</v>
+        <v>3.085978150698008</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -808,34 +808,34 @@
         <v>45420</v>
       </c>
       <c r="C11">
-        <v>57.51700210571289</v>
+        <v>57.51699829101562</v>
       </c>
       <c r="D11">
-        <v>58.0779032728562</v>
+        <v>58.07789942095832</v>
       </c>
       <c r="E11">
-        <v>56.53296444352381</v>
+        <v>56.53296069409082</v>
       </c>
       <c r="F11">
-        <v>56.58216557587211</v>
+        <v>56.58216182317596</v>
       </c>
       <c r="G11">
         <v>39013600</v>
       </c>
       <c r="I11">
-        <v>56.82475471496582</v>
+        <v>56.82475423812866</v>
       </c>
       <c r="J11">
-        <v>54.98520004272461</v>
+        <v>54.98519992828369</v>
       </c>
       <c r="K11">
-        <v>49.3063556290786</v>
+        <v>49.30635103739795</v>
       </c>
       <c r="L11">
-        <v>0.1327520171158374</v>
+        <v>0.1327520270891596</v>
       </c>
       <c r="M11">
-        <v>3.056649490302154</v>
+        <v>3.056650617807658</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -846,34 +846,34 @@
         <v>45421</v>
       </c>
       <c r="C12">
-        <v>57.8318977355957</v>
+        <v>57.83189392089844</v>
       </c>
       <c r="D12">
-        <v>58.05822596262038</v>
+        <v>58.0582221329941</v>
       </c>
       <c r="E12">
-        <v>56.82817880239537</v>
+        <v>56.82817505390523</v>
       </c>
       <c r="F12">
-        <v>57.56620709853038</v>
+        <v>57.56620330135855</v>
       </c>
       <c r="G12">
         <v>40719600</v>
       </c>
       <c r="I12">
-        <v>56.7890170097351</v>
+        <v>56.78901653289795</v>
       </c>
       <c r="J12">
-        <v>55.0884931564331</v>
+        <v>55.08849304199219</v>
       </c>
       <c r="K12">
-        <v>45.44324182759391</v>
+        <v>45.44323636314528</v>
       </c>
       <c r="L12">
-        <v>0.09829950788993091</v>
+        <v>0.09829943544409581</v>
       </c>
       <c r="M12">
-        <v>2.785065029935125</v>
+        <v>2.785065513701173</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -899,19 +899,19 @@
         <v>46334800</v>
       </c>
       <c r="I13">
-        <v>56.77513065338135</v>
+        <v>56.77513017654419</v>
       </c>
       <c r="J13">
-        <v>55.19006031036377</v>
+        <v>55.1900602722168</v>
       </c>
       <c r="K13">
-        <v>50.76090158457308</v>
+        <v>50.76090704220181</v>
       </c>
       <c r="L13">
-        <v>0.04356260264467315</v>
+        <v>0.04356245994802932</v>
       </c>
       <c r="M13">
-        <v>2.818496650993401</v>
+        <v>2.818497400332346</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -937,19 +937,19 @@
         <v>33861000</v>
       </c>
       <c r="I14">
-        <v>56.82452116012573</v>
+        <v>56.82452068328858</v>
       </c>
       <c r="J14">
-        <v>55.28541023254395</v>
+        <v>55.28541027069092</v>
       </c>
       <c r="K14">
-        <v>57.01592669835004</v>
+        <v>57.01591461493693</v>
       </c>
       <c r="L14">
         <v>0.01707646434261423</v>
       </c>
       <c r="M14">
-        <v>2.997714493528611</v>
+        <v>2.99771519806847</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -960,34 +960,34 @@
         <v>45426</v>
       </c>
       <c r="C15">
-        <v>59.70156478881836</v>
+        <v>59.70156097412109</v>
       </c>
       <c r="D15">
-        <v>59.9278967606338</v>
+        <v>59.92789293147481</v>
       </c>
       <c r="E15">
-        <v>58.33375300173986</v>
+        <v>58.33374927444044</v>
       </c>
       <c r="F15">
-        <v>58.41247781868539</v>
+        <v>58.41247408635576</v>
       </c>
       <c r="G15">
         <v>46476400</v>
       </c>
       <c r="I15">
-        <v>56.86126337051392</v>
+        <v>56.86126279830933</v>
       </c>
       <c r="J15">
-        <v>55.38436138153076</v>
+        <v>55.38436141967773</v>
       </c>
       <c r="K15">
-        <v>58.69797681444189</v>
+        <v>58.69795672442085</v>
       </c>
       <c r="L15">
-        <v>0.0360313735240827</v>
+        <v>0.03603130732571636</v>
       </c>
       <c r="M15">
-        <v>3.240703373480616</v>
+        <v>3.24070369817901</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1013,19 +1013,19 @@
         <v>65240700</v>
       </c>
       <c r="I16">
-        <v>56.95683794021606</v>
+        <v>56.95683736801148</v>
       </c>
       <c r="J16">
         <v>55.5329955291748</v>
       </c>
       <c r="K16">
-        <v>66.92096978485384</v>
+        <v>66.92094249134928</v>
       </c>
       <c r="L16">
-        <v>0.08588536860670803</v>
+        <v>0.08588544062583403</v>
       </c>
       <c r="M16">
-        <v>3.677831825158622</v>
+        <v>3.677832137479811</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1036,34 +1036,34 @@
         <v>45428</v>
       </c>
       <c r="C17">
-        <v>62.07310104370117</v>
+        <v>62.07309722900391</v>
       </c>
       <c r="D17">
-        <v>63.17521848281967</v>
+        <v>63.17521460039186</v>
       </c>
       <c r="E17">
-        <v>61.98453749894258</v>
+        <v>61.98453368968798</v>
       </c>
       <c r="F17">
-        <v>62.3486304034808</v>
+        <v>62.34862657185089</v>
       </c>
       <c r="G17">
         <v>43857600</v>
       </c>
       <c r="I17">
-        <v>56.99078741073608</v>
+        <v>56.99078664779663</v>
       </c>
       <c r="J17">
-        <v>55.66200592041016</v>
+        <v>55.66200588226318</v>
       </c>
       <c r="K17">
-        <v>68.27028005446684</v>
+        <v>68.27024062865486</v>
       </c>
       <c r="L17">
-        <v>0.07333674795691514</v>
+        <v>0.07333675279434071</v>
       </c>
       <c r="M17">
-        <v>3.935454100901787</v>
+        <v>3.935454078862896</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1074,34 +1074,34 @@
         <v>45429</v>
       </c>
       <c r="C18">
-        <v>61.93532943725586</v>
+        <v>61.93533325195312</v>
       </c>
       <c r="D18">
-        <v>62.34862720955936</v>
+        <v>62.3486310497123</v>
       </c>
       <c r="E18">
-        <v>61.03001658503855</v>
+        <v>61.03002034397612</v>
       </c>
       <c r="F18">
-        <v>62.08293658889407</v>
+        <v>62.0829404126827</v>
       </c>
       <c r="G18">
         <v>35049800</v>
       </c>
       <c r="I18">
-        <v>57.00161180496216</v>
+        <v>57.00161113739014</v>
       </c>
       <c r="J18">
         <v>55.78767761230469</v>
       </c>
       <c r="K18">
-        <v>76.77008835638618</v>
+        <v>76.77007433491094</v>
       </c>
       <c r="L18">
-        <v>0.06371475104574875</v>
+        <v>0.06371481656166322</v>
       </c>
       <c r="M18">
-        <v>3.85852972496583</v>
+        <v>3.858529307993477</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1112,34 +1112,34 @@
         <v>45432</v>
       </c>
       <c r="C19">
-        <v>63.21457290649414</v>
+        <v>63.21457672119141</v>
       </c>
       <c r="D19">
-        <v>63.49994470953233</v>
+        <v>63.49994854145042</v>
       </c>
       <c r="E19">
-        <v>61.94516726372745</v>
+        <v>61.94517100182215</v>
       </c>
       <c r="F19">
-        <v>62.01404959497039</v>
+        <v>62.01405333722181</v>
       </c>
       <c r="G19">
         <v>37269500</v>
       </c>
       <c r="I19">
-        <v>57.04121913909912</v>
+        <v>57.04121866226196</v>
       </c>
       <c r="J19">
-        <v>55.91712112426758</v>
+        <v>55.91712116241455</v>
       </c>
       <c r="K19">
-        <v>76.64000200961826</v>
+        <v>76.63998084662209</v>
       </c>
       <c r="L19">
-        <v>0.07857610925020397</v>
+        <v>0.07857617433711583</v>
       </c>
       <c r="M19">
-        <v>3.904612808164249</v>
+        <v>3.904612695885513</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1150,34 +1150,34 @@
         <v>45433</v>
       </c>
       <c r="C20">
-        <v>63.53931045532227</v>
+        <v>63.53930282592773</v>
       </c>
       <c r="D20">
-        <v>63.63771271832782</v>
+        <v>63.63770507711777</v>
       </c>
       <c r="E20">
-        <v>62.33878332686479</v>
+        <v>62.33877584162187</v>
       </c>
       <c r="F20">
-        <v>62.42734686509207</v>
+        <v>62.42733936921502</v>
       </c>
       <c r="G20">
         <v>31157000</v>
       </c>
       <c r="I20">
-        <v>57.10468950271606</v>
+        <v>57.10468883514405</v>
       </c>
       <c r="J20">
-        <v>56.04716468811035</v>
+        <v>56.04716464996338</v>
       </c>
       <c r="K20">
-        <v>74.67476926294258</v>
+        <v>74.67473160261434</v>
       </c>
       <c r="L20">
-        <v>0.06428216211885096</v>
+        <v>0.06428210233012477</v>
       </c>
       <c r="M20">
-        <v>4.042687216962602</v>
+        <v>4.042686677846504</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1188,34 +1188,34 @@
         <v>45434</v>
       </c>
       <c r="C21">
-        <v>63.49994659423828</v>
+        <v>63.49995422363281</v>
       </c>
       <c r="D21">
-        <v>63.9624454781442</v>
+        <v>63.96245316310707</v>
       </c>
       <c r="E21">
-        <v>62.40766423238723</v>
+        <v>62.40767173054617</v>
       </c>
       <c r="F21">
-        <v>63.6573962175302</v>
+        <v>63.65740386584199</v>
       </c>
       <c r="G21">
         <v>40019700</v>
       </c>
       <c r="I21">
-        <v>57.18144426345825</v>
+        <v>57.1814437866211</v>
       </c>
       <c r="J21">
-        <v>56.17808925628662</v>
+        <v>56.17808929443359</v>
       </c>
       <c r="K21">
-        <v>73.95926023657418</v>
+        <v>73.95927740476077</v>
       </c>
       <c r="L21">
-        <v>0.01670073355063018</v>
+        <v>0.01670085570523705</v>
       </c>
       <c r="M21">
-        <v>4.12786033184027</v>
+        <v>4.127860382120073</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1241,19 +1241,19 @@
         <v>65438900</v>
       </c>
       <c r="I22">
-        <v>57.22129764556885</v>
+        <v>57.22129726409912</v>
       </c>
       <c r="J22">
-        <v>56.30652854919433</v>
+        <v>56.30652866363526</v>
       </c>
       <c r="K22">
-        <v>73.63314807357426</v>
+        <v>73.63313999459194</v>
       </c>
       <c r="L22">
-        <v>0.007767778584817364</v>
+        <v>0.007767840517106217</v>
       </c>
       <c r="M22">
-        <v>4.018203624325353</v>
+        <v>4.018203649623029</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1264,34 +1264,34 @@
         <v>45436</v>
       </c>
       <c r="C23">
-        <v>64.30685424804688</v>
+        <v>64.30686187744141</v>
       </c>
       <c r="D23">
-        <v>64.83823544130551</v>
+        <v>64.83824313374336</v>
       </c>
       <c r="E23">
-        <v>62.91936141263074</v>
+        <v>62.91936887741248</v>
       </c>
       <c r="F23">
-        <v>63.22441441331006</v>
+        <v>63.22442191428343</v>
       </c>
       <c r="G23">
         <v>41160500</v>
       </c>
       <c r="I23">
-        <v>57.31453504562378</v>
+        <v>57.31453485488892</v>
       </c>
       <c r="J23">
-        <v>56.47768257141113</v>
+        <v>56.47768268585205</v>
       </c>
       <c r="K23">
-        <v>72.85518232140252</v>
+        <v>72.85518383107922</v>
       </c>
       <c r="L23">
-        <v>0.03829033981636454</v>
+        <v>0.03829039904961662</v>
       </c>
       <c r="M23">
-        <v>4.115094003529641</v>
+        <v>4.115094537073292</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1302,34 +1302,34 @@
         <v>45440</v>
       </c>
       <c r="C24">
-        <v>65.00553131103516</v>
+        <v>65.00552368164062</v>
       </c>
       <c r="D24">
-        <v>65.04489372191742</v>
+        <v>65.04488608790311</v>
       </c>
       <c r="E24">
-        <v>63.7656491524988</v>
+        <v>63.76564166862342</v>
       </c>
       <c r="F24">
-        <v>64.80872676423604</v>
+        <v>64.80871915793955</v>
       </c>
       <c r="G24">
         <v>41593200</v>
       </c>
       <c r="I24">
-        <v>57.41589107513428</v>
+        <v>57.41589069366455</v>
       </c>
       <c r="J24">
         <v>56.67092308044434</v>
       </c>
       <c r="K24">
-        <v>72.91667069013376</v>
+        <v>72.91664362316527</v>
       </c>
       <c r="L24">
-        <v>0.02833141666859262</v>
+        <v>0.02833123392328019</v>
       </c>
       <c r="M24">
-        <v>4.232243673498986</v>
+        <v>4.232243991635693</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1340,34 +1340,34 @@
         <v>45441</v>
       </c>
       <c r="C25">
-        <v>63.64754867553711</v>
+        <v>63.64755630493164</v>
       </c>
       <c r="D25">
-        <v>64.39541931145253</v>
+        <v>64.39542703049386</v>
       </c>
       <c r="E25">
-        <v>63.17520735085088</v>
+        <v>63.17521492362614</v>
       </c>
       <c r="F25">
-        <v>63.21456975354229</v>
+        <v>63.21457733103589</v>
       </c>
       <c r="G25">
         <v>39641100</v>
       </c>
       <c r="I25">
-        <v>57.52413501739502</v>
+        <v>57.52413492202759</v>
       </c>
       <c r="J25">
-        <v>56.8582315826416</v>
+        <v>56.85823169708252</v>
       </c>
       <c r="K25">
-        <v>79.46686249789286</v>
+        <v>79.46692673787246</v>
       </c>
       <c r="L25">
-        <v>0.001703484338108296</v>
+        <v>0.001703724689905428</v>
       </c>
       <c r="M25">
-        <v>3.95062322609383</v>
+        <v>3.950623974636128</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1378,16 +1378,16 @@
         <v>45442</v>
       </c>
       <c r="C26">
-        <v>61.60075759887695</v>
+        <v>61.60075378417969</v>
       </c>
       <c r="D26">
-        <v>63.27362616847081</v>
+        <v>63.27362225017925</v>
       </c>
       <c r="E26">
-        <v>61.00049776403485</v>
+        <v>61.00049398650936</v>
       </c>
       <c r="F26">
-        <v>63.22442128116062</v>
+        <v>63.22441736591613</v>
       </c>
       <c r="G26">
         <v>42782400</v>
@@ -1396,16 +1396,16 @@
         <v>57.57136869430542</v>
       </c>
       <c r="J26">
-        <v>57.02340538024902</v>
+        <v>57.02340545654297</v>
       </c>
       <c r="K26">
-        <v>75.94337863072133</v>
+        <v>75.94340709435552</v>
       </c>
       <c r="L26">
-        <v>-0.0299085132700514</v>
+        <v>-0.02990868989865036</v>
       </c>
       <c r="M26">
-        <v>3.322076219161922</v>
+        <v>3.322076422435253</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1431,19 +1431,19 @@
         <v>71873200</v>
       </c>
       <c r="I27">
-        <v>57.6872389793396</v>
+        <v>57.68723907470703</v>
       </c>
       <c r="J27">
-        <v>57.16073047637939</v>
+        <v>57.16073055267334</v>
       </c>
       <c r="K27">
-        <v>73.29542462380131</v>
+        <v>73.29546194055179</v>
       </c>
       <c r="L27">
         <v>-0.01635992194158864</v>
       </c>
       <c r="M27">
-        <v>2.770102748381418</v>
+        <v>2.770102959993074</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1454,34 +1454,34 @@
         <v>45446</v>
       </c>
       <c r="C28">
-        <v>62.13213348388672</v>
+        <v>62.13213729858398</v>
       </c>
       <c r="D28">
-        <v>63.12601356234568</v>
+        <v>63.12601743806373</v>
       </c>
       <c r="E28">
-        <v>59.98693121487464</v>
+        <v>59.98693489786393</v>
       </c>
       <c r="F28">
-        <v>62.71271581823046</v>
+        <v>62.71271966857346</v>
       </c>
       <c r="G28">
         <v>55717500</v>
       </c>
       <c r="I28">
-        <v>57.76792993545532</v>
+        <v>57.76793012619019</v>
       </c>
       <c r="J28">
-        <v>57.30092060089111</v>
+        <v>57.30092067718506</v>
       </c>
       <c r="K28">
-        <v>69.18948002884096</v>
+        <v>69.18950837669266</v>
       </c>
       <c r="L28">
-        <v>-0.03381786886622906</v>
+        <v>-0.03381792417428331</v>
       </c>
       <c r="M28">
-        <v>2.503216151611991</v>
+        <v>2.503217304719245</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1492,34 +1492,34 @@
         <v>45447</v>
       </c>
       <c r="C29">
-        <v>62.59463882446289</v>
+        <v>62.59463500976562</v>
       </c>
       <c r="D29">
-        <v>63.10633512615068</v>
+        <v>63.10633128026917</v>
       </c>
       <c r="E29">
-        <v>61.27602815363836</v>
+        <v>61.27602441930102</v>
       </c>
       <c r="F29">
-        <v>61.99437522563745</v>
+        <v>61.99437144752198</v>
       </c>
       <c r="G29">
         <v>44245900</v>
       </c>
       <c r="I29">
-        <v>57.85919942855835</v>
+        <v>57.85919961929321</v>
       </c>
       <c r="J29">
-        <v>57.43622489929199</v>
+        <v>57.43622493743896</v>
       </c>
       <c r="K29">
-        <v>66.40673409900847</v>
+        <v>66.40675869868855</v>
       </c>
       <c r="L29">
-        <v>-0.03708749760134644</v>
+        <v>-0.03708744327146929</v>
       </c>
       <c r="M29">
-        <v>2.369451106396945</v>
+        <v>2.369452230171852</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1530,34 +1530,34 @@
         <v>45448</v>
       </c>
       <c r="C30">
-        <v>66.37334442138672</v>
+        <v>66.37333679199219</v>
       </c>
       <c r="D30">
-        <v>66.40287186080901</v>
+        <v>66.40286422802041</v>
       </c>
       <c r="E30">
-        <v>63.61804317668195</v>
+        <v>63.61803586400011</v>
       </c>
       <c r="F30">
-        <v>64.08054212867061</v>
+        <v>64.08053476282606</v>
       </c>
       <c r="G30">
         <v>52435700</v>
       </c>
       <c r="I30">
-        <v>58.02968416213989</v>
+        <v>58.02968406677246</v>
       </c>
       <c r="J30">
-        <v>57.60696308135986</v>
+        <v>57.60696300506592</v>
       </c>
       <c r="K30">
-        <v>73.11489871424024</v>
+        <v>73.11492515258865</v>
       </c>
       <c r="L30">
-        <v>0.04282640577008223</v>
+        <v>0.04282616089770186</v>
       </c>
       <c r="M30">
-        <v>2.427118819546958</v>
+        <v>2.427119215640694</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1568,34 +1568,34 @@
         <v>45449</v>
       </c>
       <c r="C31">
-        <v>66.29463195800781</v>
+        <v>66.29461669921875</v>
       </c>
       <c r="D31">
-        <v>66.79648585073323</v>
+        <v>66.79647047643432</v>
       </c>
       <c r="E31">
-        <v>65.78292807714166</v>
+        <v>65.78291293612958</v>
       </c>
       <c r="F31">
-        <v>66.65872115379533</v>
+        <v>66.65870581120519</v>
       </c>
       <c r="G31">
         <v>36515600</v>
       </c>
       <c r="I31">
-        <v>58.23731641769409</v>
+        <v>58.23731594085693</v>
       </c>
       <c r="J31">
-        <v>57.77632587432861</v>
+        <v>57.77632564544678</v>
       </c>
       <c r="K31">
-        <v>73.22918809802967</v>
+        <v>73.22920002309796</v>
       </c>
       <c r="L31">
-        <v>0.07619832193778797</v>
+        <v>0.07619814087801857</v>
       </c>
       <c r="M31">
-        <v>2.382697735306917</v>
+        <v>2.382696514582883</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1621,19 +1621,19 @@
         <v>44971700</v>
       </c>
       <c r="I32">
-        <v>58.37065372467041</v>
+        <v>58.37065315246582</v>
       </c>
       <c r="J32">
-        <v>57.94352260589599</v>
+        <v>57.94352233886719</v>
       </c>
       <c r="K32">
-        <v>71.82434605374799</v>
+        <v>71.82441367945501</v>
       </c>
       <c r="L32">
         <v>0.07340492942094801</v>
       </c>
       <c r="M32">
-        <v>2.267060593003851</v>
+        <v>2.267059091230062</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1659,19 +1659,19 @@
         <v>36226800</v>
       </c>
       <c r="I33">
-        <v>58.59476852416992</v>
+        <v>58.59476804733276</v>
       </c>
       <c r="J33">
-        <v>58.12623638153076</v>
+        <v>58.12623611450195</v>
       </c>
       <c r="K33">
-        <v>72.27366278737028</v>
+        <v>72.27372497047197</v>
       </c>
       <c r="L33">
-        <v>0.07427960690995827</v>
+        <v>0.07427954095292444</v>
       </c>
       <c r="M33">
-        <v>2.167128480616276</v>
+        <v>2.167127106966717</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1697,19 +1697,19 @@
         <v>35693400</v>
       </c>
       <c r="I34">
-        <v>58.92589731216431</v>
+        <v>58.92589683532715</v>
       </c>
       <c r="J34">
-        <v>58.30193996429443</v>
+        <v>58.3019397354126</v>
       </c>
       <c r="K34">
-        <v>73.6430193821065</v>
+        <v>73.64308212821197</v>
       </c>
       <c r="L34">
-        <v>0.0883508973746967</v>
+        <v>0.08835096370193374</v>
       </c>
       <c r="M34">
-        <v>2.152239114755317</v>
+        <v>2.152237953521794</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1735,19 +1735,19 @@
         <v>62201300</v>
       </c>
       <c r="I35">
-        <v>59.32394046783448</v>
+        <v>59.32393999099732</v>
       </c>
       <c r="J35">
-        <v>58.47528884887695</v>
+        <v>58.47528865814209</v>
       </c>
       <c r="K35">
-        <v>75.57768772446849</v>
+        <v>75.57775491212433</v>
       </c>
       <c r="L35">
-        <v>0.06686424465615826</v>
+        <v>0.06686436728865841</v>
       </c>
       <c r="M35">
-        <v>2.482647075332394</v>
+        <v>2.482645927469064</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1758,34 +1758,34 @@
         <v>45456</v>
       </c>
       <c r="C36">
-        <v>71.94300079345703</v>
+        <v>71.9429931640625</v>
       </c>
       <c r="D36">
-        <v>72.71054904033674</v>
+        <v>72.71054132954544</v>
       </c>
       <c r="E36">
-        <v>70.91960062841332</v>
+        <v>70.91959310754808</v>
       </c>
       <c r="F36">
-        <v>72.3956572593704</v>
+        <v>72.39564958197266</v>
       </c>
       <c r="G36">
         <v>43642500</v>
       </c>
       <c r="I36">
-        <v>59.80119905471802</v>
+        <v>59.80119838714599</v>
       </c>
       <c r="J36">
-        <v>58.65779724121094</v>
+        <v>58.65779693603515</v>
       </c>
       <c r="K36">
-        <v>73.60430105893832</v>
+        <v>73.60435377228467</v>
       </c>
       <c r="L36">
-        <v>0.08520099846133844</v>
+        <v>0.08520113315490829</v>
       </c>
       <c r="M36">
-        <v>2.98288901214061</v>
+        <v>2.982887209313397</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1796,34 +1796,34 @@
         <v>45457</v>
       </c>
       <c r="C37">
-        <v>72.98607635498047</v>
+        <v>72.98606109619141</v>
       </c>
       <c r="D37">
-        <v>73.02543876494437</v>
+        <v>73.02542349792603</v>
       </c>
       <c r="E37">
-        <v>71.56906713434026</v>
+        <v>71.56905217179735</v>
       </c>
       <c r="F37">
-        <v>71.78554912772364</v>
+        <v>71.78553411992206</v>
       </c>
       <c r="G37">
         <v>35777500</v>
       </c>
       <c r="I37">
-        <v>60.32815132141113</v>
+        <v>60.32815027236938</v>
       </c>
       <c r="J37">
-        <v>58.84436309814453</v>
+        <v>58.84436267852783</v>
       </c>
       <c r="K37">
-        <v>76.29204835771371</v>
+        <v>76.29211260884861</v>
       </c>
       <c r="L37">
-        <v>0.1050356908368184</v>
+        <v>0.1050354598132128</v>
       </c>
       <c r="M37">
-        <v>3.440322227222693</v>
+        <v>3.440318862950883</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1849,19 +1849,19 @@
         <v>46677300</v>
       </c>
       <c r="I38">
-        <v>61.00172491073609</v>
+        <v>61.0017240524292</v>
       </c>
       <c r="J38">
-        <v>59.0484769821167</v>
+        <v>59.04847652435303</v>
       </c>
       <c r="K38">
-        <v>79.44160925733914</v>
+        <v>79.44166382154337</v>
       </c>
       <c r="L38">
         <v>0.1331267502600386</v>
       </c>
       <c r="M38">
-        <v>4.055327948780267</v>
+        <v>4.055325597632642</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1887,19 +1887,19 @@
         <v>33216600</v>
       </c>
       <c r="I39">
-        <v>61.64085731506348</v>
+        <v>61.64085645675659</v>
       </c>
       <c r="J39">
-        <v>59.25141563415527</v>
+        <v>59.2514151763916</v>
       </c>
       <c r="K39">
-        <v>78.28417088173349</v>
+        <v>78.2842259115772</v>
       </c>
       <c r="L39">
         <v>0.1107900073813417</v>
       </c>
       <c r="M39">
-        <v>4.543718086653668</v>
+        <v>4.543716410953513</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1910,34 +1910,34 @@
         <v>45463</v>
       </c>
       <c r="C40">
-        <v>73.89137268066406</v>
+        <v>73.89138793945312</v>
       </c>
       <c r="D40">
-        <v>76.42035627697913</v>
+        <v>76.42037205801086</v>
       </c>
       <c r="E40">
-        <v>73.03526485579231</v>
+        <v>73.03527993779255</v>
       </c>
       <c r="F40">
-        <v>76.22354427132271</v>
+        <v>76.22356001171217</v>
       </c>
       <c r="G40">
         <v>52727500</v>
       </c>
       <c r="I40">
-        <v>62.17961759567261</v>
+        <v>62.17961702346802</v>
       </c>
       <c r="J40">
-        <v>59.44674034118653</v>
+        <v>59.44673999786377</v>
       </c>
       <c r="K40">
-        <v>72.0452139028267</v>
+        <v>72.04531278864164</v>
       </c>
       <c r="L40">
-        <v>0.04349620234480089</v>
+        <v>0.04349641782988201</v>
       </c>
       <c r="M40">
-        <v>4.76657723412066</v>
+        <v>4.766576728443136</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1948,34 +1948,34 @@
         <v>45464</v>
       </c>
       <c r="C41">
-        <v>73.21241760253906</v>
+        <v>73.21240997314453</v>
       </c>
       <c r="D41">
-        <v>74.32437767122511</v>
+        <v>74.3243699259543</v>
       </c>
       <c r="E41">
-        <v>72.54327156367687</v>
+        <v>72.54326400401339</v>
       </c>
       <c r="F41">
-        <v>73.70443652794911</v>
+        <v>73.70442884728178</v>
       </c>
       <c r="G41">
         <v>38856500</v>
       </c>
       <c r="I41">
-        <v>62.6886116027832</v>
+        <v>62.68861083984375</v>
       </c>
       <c r="J41">
-        <v>59.61929328918457</v>
+        <v>59.61929294586182</v>
       </c>
       <c r="K41">
-        <v>70.13468855939642</v>
+        <v>70.13466966501977</v>
       </c>
       <c r="L41">
-        <v>0.01764475758700179</v>
+        <v>0.01764475945818922</v>
       </c>
       <c r="M41">
-        <v>4.87718404014653</v>
+        <v>4.877183514076024</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2001,19 +2001,19 @@
         <v>46877300</v>
       </c>
       <c r="I42">
-        <v>63.15676755905152</v>
+        <v>63.15676679611206</v>
       </c>
       <c r="J42">
-        <v>59.77822601318359</v>
+        <v>59.77822570800781</v>
       </c>
       <c r="K42">
-        <v>65.93786445129351</v>
+        <v>65.93788341083769</v>
       </c>
       <c r="L42">
-        <v>-0.0308750462946944</v>
+        <v>-0.03087484368514104</v>
       </c>
       <c r="M42">
-        <v>4.777674464524353</v>
+        <v>4.777674082134547</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2024,34 +2024,34 @@
         <v>45468</v>
       </c>
       <c r="C43">
-        <v>73.09431457519531</v>
+        <v>73.09432220458984</v>
       </c>
       <c r="D43">
-        <v>73.24192172246963</v>
+        <v>73.24192936727101</v>
       </c>
       <c r="E43">
-        <v>71.21480658991051</v>
+        <v>71.21481402312688</v>
       </c>
       <c r="F43">
-        <v>71.62810059618951</v>
+        <v>71.62810807254444</v>
       </c>
       <c r="G43">
         <v>39304300</v>
       </c>
       <c r="I43">
-        <v>63.62418537139892</v>
+        <v>63.62418479919434</v>
       </c>
       <c r="J43">
-        <v>59.99303413391113</v>
+        <v>59.9930339050293</v>
       </c>
       <c r="K43">
-        <v>66.72911696278632</v>
+        <v>66.72913640130756</v>
       </c>
       <c r="L43">
-        <v>-0.03356754190747746</v>
+        <v>-0.03356744103376985</v>
       </c>
       <c r="M43">
-        <v>4.82740208830309</v>
+        <v>4.827402605263399</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2062,34 +2062,34 @@
         <v>45469</v>
       </c>
       <c r="C44">
-        <v>73.55167388916016</v>
+        <v>73.55166625976562</v>
       </c>
       <c r="D44">
-        <v>73.78874405874269</v>
+        <v>73.78873640475726</v>
       </c>
       <c r="E44">
-        <v>72.51448718703354</v>
+        <v>72.51447966522468</v>
       </c>
       <c r="F44">
-        <v>72.70216428380418</v>
+        <v>72.70215674252789</v>
       </c>
       <c r="G44">
         <v>36274800</v>
       </c>
       <c r="I44">
-        <v>64.08680067062377</v>
+        <v>64.08679971694946</v>
       </c>
       <c r="J44">
-        <v>60.19417850494385</v>
+        <v>60.19417819976807</v>
       </c>
       <c r="K44">
-        <v>66.42058366250436</v>
+        <v>66.42060291945936</v>
       </c>
       <c r="L44">
-        <v>-0.02802628812996266</v>
+        <v>-0.02802638895120202</v>
       </c>
       <c r="M44">
-        <v>4.888607513257904</v>
+        <v>4.888607479715532</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2100,34 +2100,34 @@
         <v>45470</v>
       </c>
       <c r="C45">
-        <v>74.08507537841797</v>
+        <v>74.0850830078125</v>
       </c>
       <c r="D45">
-        <v>74.77653306742043</v>
+        <v>74.77654076802234</v>
       </c>
       <c r="E45">
-        <v>73.01824848425109</v>
+        <v>73.01825600378216</v>
       </c>
       <c r="F45">
-        <v>73.41337039353404</v>
+        <v>73.41337795375536</v>
       </c>
       <c r="G45">
         <v>37057700</v>
       </c>
       <c r="I45">
-        <v>64.64147386550903</v>
+        <v>64.64147310256958</v>
       </c>
       <c r="J45">
-        <v>60.37379119873047</v>
+        <v>60.37379093170166</v>
       </c>
       <c r="K45">
         <v>70.71096414318745</v>
       </c>
       <c r="L45">
-        <v>0.002621452149644377</v>
+        <v>0.002621348356835362</v>
       </c>
       <c r="M45">
-        <v>4.863163518072137</v>
+        <v>4.863164540080342</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2153,19 +2153,19 @@
         <v>53901500</v>
       </c>
       <c r="I46">
-        <v>65.19505214691162</v>
+        <v>65.1950514793396</v>
       </c>
       <c r="J46">
-        <v>60.54459133148193</v>
+        <v>60.54459098815918</v>
       </c>
       <c r="K46">
-        <v>73.27336546644652</v>
+        <v>73.27337696116604</v>
       </c>
       <c r="L46">
-        <v>-0.004001313867365686</v>
+        <v>-0.004001210075304629</v>
       </c>
       <c r="M46">
-        <v>4.562845673481021</v>
+        <v>4.562846620856859</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2191,10 +2191,10 @@
         <v>43278700</v>
       </c>
       <c r="I47">
-        <v>65.73152389526368</v>
+        <v>65.73152322769165</v>
       </c>
       <c r="J47">
-        <v>60.73057960510254</v>
+        <v>60.73057926177979</v>
       </c>
       <c r="K47">
         <v>74.72728921953373</v>
@@ -2203,7 +2203,7 @@
         <v>0.04781520832499653</v>
       </c>
       <c r="M47">
-        <v>4.198463665376469</v>
+        <v>4.198464935662766</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2214,34 +2214,34 @@
         <v>45475</v>
       </c>
       <c r="C48">
-        <v>76.38666534423828</v>
+        <v>76.38665771484375</v>
       </c>
       <c r="D48">
-        <v>76.43605088033527</v>
+        <v>76.43604324600818</v>
       </c>
       <c r="E48">
-        <v>73.33435584763367</v>
+        <v>73.33434852309959</v>
       </c>
       <c r="F48">
-        <v>73.38374892005541</v>
+        <v>73.38374159058802</v>
       </c>
       <c r="G48">
         <v>37475100</v>
       </c>
       <c r="I48">
-        <v>66.24631719589233</v>
+        <v>66.24631614685059</v>
       </c>
       <c r="J48">
-        <v>60.92271686553955</v>
+        <v>60.92271640777588</v>
       </c>
       <c r="K48">
-        <v>76.28539384267003</v>
+        <v>76.28538383370993</v>
       </c>
       <c r="L48">
-        <v>0.04504250143362354</v>
+        <v>0.04504228797742615</v>
       </c>
       <c r="M48">
-        <v>3.893407062555745</v>
+        <v>3.89340866850069</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2252,34 +2252,34 @@
         <v>45476</v>
       </c>
       <c r="C49">
-        <v>78.26348114013672</v>
+        <v>78.26348876953125</v>
       </c>
       <c r="D49">
-        <v>78.3424994971693</v>
+        <v>78.3425071342668</v>
       </c>
       <c r="E49">
-        <v>76.0112883974187</v>
+        <v>76.01129580726169</v>
       </c>
       <c r="F49">
-        <v>76.0112883974187</v>
+        <v>76.01129580726169</v>
       </c>
       <c r="G49">
         <v>28075200</v>
       </c>
       <c r="I49">
-        <v>66.7622730255127</v>
+        <v>66.76227216720581</v>
       </c>
       <c r="J49">
-        <v>61.1312691116333</v>
+        <v>61.1312686920166</v>
       </c>
       <c r="K49">
-        <v>77.46102333151352</v>
+        <v>77.46103237269435</v>
       </c>
       <c r="L49">
-        <v>0.06406118313605069</v>
+        <v>0.06406139723775506</v>
       </c>
       <c r="M49">
-        <v>3.624989544894682</v>
+        <v>3.624991912589418</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2305,19 +2305,19 @@
         <v>39812300</v>
       </c>
       <c r="I50">
-        <v>67.33749685287475</v>
+        <v>67.33749599456787</v>
       </c>
       <c r="J50">
-        <v>61.34666393280029</v>
+        <v>61.34666343688965</v>
       </c>
       <c r="K50">
-        <v>76.29092416895627</v>
+        <v>76.29093083847984</v>
       </c>
       <c r="L50">
-        <v>0.0884000675970773</v>
+        <v>0.08839995551198299</v>
       </c>
       <c r="M50">
-        <v>3.846581021163403</v>
+        <v>3.846582883768192</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2328,34 +2328,34 @@
         <v>45481</v>
       </c>
       <c r="C51">
-        <v>81.16761779785156</v>
+        <v>81.16761016845703</v>
       </c>
       <c r="D51">
-        <v>81.46396115413594</v>
+        <v>81.46395349688646</v>
       </c>
       <c r="E51">
-        <v>80.28847538688572</v>
+        <v>80.28846784012666</v>
       </c>
       <c r="F51">
-        <v>80.81200878484013</v>
+        <v>80.81200118887128</v>
       </c>
       <c r="G51">
         <v>36682800</v>
       </c>
       <c r="I51">
-        <v>67.92876224517822</v>
+        <v>67.9287612915039</v>
       </c>
       <c r="J51">
-        <v>61.57435443878174</v>
+        <v>61.57435386657715</v>
       </c>
       <c r="K51">
-        <v>76.96730554919219</v>
+        <v>76.96732684361456</v>
       </c>
       <c r="L51">
-        <v>0.1131130802271383</v>
+        <v>0.1131129755994669</v>
       </c>
       <c r="M51">
-        <v>3.967183284365455</v>
+        <v>3.967183081344273</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2366,34 +2366,34 @@
         <v>45482</v>
       </c>
       <c r="C52">
-        <v>81.34542083740234</v>
+        <v>81.34541320800781</v>
       </c>
       <c r="D52">
-        <v>82.47151351285608</v>
+        <v>82.47150577784521</v>
       </c>
       <c r="E52">
-        <v>80.62433023914529</v>
+        <v>80.62432267738193</v>
       </c>
       <c r="F52">
-        <v>81.9084671751292</v>
+        <v>81.90845949292651</v>
       </c>
       <c r="G52">
         <v>36016800</v>
       </c>
       <c r="I52">
-        <v>68.51660032272339</v>
+        <v>68.51659927368163</v>
       </c>
       <c r="J52">
-        <v>61.83147304534912</v>
+        <v>61.83147243499756</v>
       </c>
       <c r="K52">
-        <v>77.80454556170511</v>
+        <v>77.80452398227595</v>
       </c>
       <c r="L52">
-        <v>0.09756088020163944</v>
+        <v>0.09756077726130319</v>
       </c>
       <c r="M52">
-        <v>3.929167551790103</v>
+        <v>3.929166779627319</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2404,34 +2404,34 @@
         <v>45483</v>
       </c>
       <c r="C53">
-        <v>83.89394378662109</v>
+        <v>83.89395141601562</v>
       </c>
       <c r="D53">
-        <v>84.16064675511984</v>
+        <v>84.16065440876858</v>
       </c>
       <c r="E53">
-        <v>81.66151129523668</v>
+        <v>81.66151872161169</v>
       </c>
       <c r="F53">
-        <v>82.30358348736382</v>
+        <v>82.30359097212948</v>
       </c>
       <c r="G53">
         <v>38777400</v>
       </c>
       <c r="I53">
-        <v>69.15831127166749</v>
+        <v>69.1583104133606</v>
       </c>
       <c r="J53">
-        <v>62.0964278793335</v>
+        <v>62.09642738342285</v>
       </c>
       <c r="K53">
-        <v>79.20310481478623</v>
+        <v>79.20309504095934</v>
       </c>
       <c r="L53">
-        <v>0.09827996036416953</v>
+        <v>0.098280169937492</v>
       </c>
       <c r="M53">
-        <v>4.070427286663227</v>
+        <v>4.070427660258071</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2457,19 +2457,19 @@
         <v>74664500</v>
       </c>
       <c r="I54">
-        <v>69.65262966156006</v>
+        <v>69.65262880325318</v>
       </c>
       <c r="J54">
-        <v>62.3014591217041</v>
+        <v>62.30145858764649</v>
       </c>
       <c r="K54">
-        <v>65.31280019554212</v>
+        <v>65.31278624263101</v>
       </c>
       <c r="L54">
-        <v>0.001514600438227154</v>
+        <v>0.001514502807133278</v>
       </c>
       <c r="M54">
-        <v>3.777934157600933</v>
+        <v>3.77793466914001</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2480,34 +2480,34 @@
         <v>45485</v>
       </c>
       <c r="C55">
-        <v>79.65628051757812</v>
+        <v>79.65628814697266</v>
       </c>
       <c r="D55">
-        <v>81.92822607398675</v>
+        <v>81.92823392098583</v>
       </c>
       <c r="E55">
-        <v>78.33263065409307</v>
+        <v>78.33263815670982</v>
       </c>
       <c r="F55">
-        <v>78.54006798181875</v>
+        <v>78.54007550430362</v>
       </c>
       <c r="G55">
         <v>50509900</v>
       </c>
       <c r="I55">
-        <v>70.15149755477906</v>
+        <v>70.15149698257446</v>
       </c>
       <c r="J55">
-        <v>62.53511703491211</v>
+        <v>62.53511653900146</v>
       </c>
       <c r="K55">
-        <v>63.78586328376483</v>
+        <v>63.78585878188471</v>
       </c>
       <c r="L55">
-        <v>-0.01212786286085399</v>
+        <v>-0.0121277682435027</v>
       </c>
       <c r="M55">
-        <v>3.700325287736432</v>
+        <v>3.700326294257527</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2518,34 +2518,34 @@
         <v>45488</v>
       </c>
       <c r="C56">
-        <v>80.24895477294922</v>
+        <v>80.24897003173828</v>
       </c>
       <c r="D56">
-        <v>82.59992608292502</v>
+        <v>82.59994178873519</v>
       </c>
       <c r="E56">
-        <v>79.25128114381006</v>
+        <v>79.25129621289832</v>
       </c>
       <c r="F56">
-        <v>80.47615232924582</v>
+        <v>80.47616763123496</v>
       </c>
       <c r="G56">
         <v>54950200</v>
       </c>
       <c r="I56">
-        <v>70.59629964828491</v>
+        <v>70.59629945755005</v>
       </c>
       <c r="J56">
-        <v>62.78774230957031</v>
+        <v>62.78774196624756</v>
       </c>
       <c r="K56">
-        <v>63.16702418030685</v>
+        <v>63.16703816899143</v>
       </c>
       <c r="L56">
-        <v>-0.01131809765798819</v>
+        <v>-0.01131781673517529</v>
       </c>
       <c r="M56">
-        <v>3.677813621745859</v>
+        <v>3.677815002959628</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2556,34 +2556,34 @@
         <v>45489</v>
       </c>
       <c r="C57">
-        <v>80.3082275390625</v>
+        <v>80.30823516845703</v>
       </c>
       <c r="D57">
-        <v>81.34541410891345</v>
+        <v>81.34542183684216</v>
       </c>
       <c r="E57">
-        <v>78.76725279248933</v>
+        <v>78.76726027548909</v>
       </c>
       <c r="F57">
-        <v>80.94041960154037</v>
+        <v>80.94042729099404</v>
       </c>
       <c r="G57">
         <v>41818800</v>
       </c>
       <c r="I57">
-        <v>71.05217781066895</v>
+        <v>71.05217790603638</v>
       </c>
       <c r="J57">
-        <v>63.04782382965088</v>
+        <v>63.04782360076904</v>
       </c>
       <c r="K57">
-        <v>61.98115979914905</v>
+        <v>61.98117631079461</v>
       </c>
       <c r="L57">
-        <v>-0.01275048168246673</v>
+        <v>-0.01275029529813343</v>
       </c>
       <c r="M57">
-        <v>3.674721189983064</v>
+        <v>3.67472202261143</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2594,34 +2594,34 @@
         <v>45490</v>
       </c>
       <c r="C58">
-        <v>73.24545288085938</v>
+        <v>73.24546051025391</v>
       </c>
       <c r="D58">
-        <v>76.6237308253134</v>
+        <v>76.62373880659619</v>
       </c>
       <c r="E58">
-        <v>73.18617969031374</v>
+        <v>73.18618731353425</v>
       </c>
       <c r="F58">
-        <v>76.38666067210372</v>
+        <v>76.38666862869282</v>
       </c>
       <c r="G58">
         <v>71420000</v>
       </c>
       <c r="I58">
-        <v>71.33493089675903</v>
+        <v>71.3349310874939</v>
       </c>
       <c r="J58">
-        <v>63.1903116607666</v>
+        <v>63.19031158447265</v>
       </c>
       <c r="K58">
-        <v>46.58636158969061</v>
+        <v>46.58637622081087</v>
       </c>
       <c r="L58">
-        <v>-0.1269280048729796</v>
+        <v>-0.1269279933300279</v>
       </c>
       <c r="M58">
-        <v>3.754584795262413</v>
+        <v>3.75458530024904</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2632,34 +2632,34 @@
         <v>45491</v>
       </c>
       <c r="C59">
-        <v>72.14899444580078</v>
+        <v>72.14900207519531</v>
       </c>
       <c r="D59">
-        <v>74.99385894793966</v>
+        <v>74.99386687816435</v>
       </c>
       <c r="E59">
-        <v>70.67717289254406</v>
+        <v>70.67718036630085</v>
       </c>
       <c r="F59">
-        <v>74.88520022223032</v>
+        <v>74.88520814096491</v>
       </c>
       <c r="G59">
         <v>65839200</v>
       </c>
       <c r="I59">
-        <v>71.5582914352417</v>
+        <v>71.55829172134399</v>
       </c>
       <c r="J59">
-        <v>63.32722766876221</v>
+        <v>63.32722763061523</v>
       </c>
       <c r="K59">
-        <v>45.11029346370518</v>
+        <v>45.11030922835949</v>
       </c>
       <c r="L59">
-        <v>-0.07952110284057679</v>
+        <v>-0.0795210055045471</v>
       </c>
       <c r="M59">
-        <v>3.887635654221637</v>
+        <v>3.887635795073157</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2685,19 +2685,19 @@
         <v>59124800</v>
       </c>
       <c r="I60">
-        <v>71.72463731765747</v>
+        <v>71.72463779449463</v>
       </c>
       <c r="J60">
-        <v>63.44536964416504</v>
+        <v>63.44536952972412</v>
       </c>
       <c r="K60">
-        <v>44.89258426170725</v>
+        <v>44.8925717989751</v>
       </c>
       <c r="L60">
-        <v>-0.1187996063102235</v>
+        <v>-0.1187996907106595</v>
       </c>
       <c r="M60">
-        <v>4.103417044594566</v>
+        <v>4.10341779161032</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2723,19 +2723,19 @@
         <v>56404300</v>
       </c>
       <c r="I61">
-        <v>71.9685221672058</v>
+        <v>71.96852245330811</v>
       </c>
       <c r="J61">
-        <v>63.59050567626953</v>
+        <v>63.59050548553467</v>
       </c>
       <c r="K61">
-        <v>50.05561739659969</v>
+        <v>50.05562722738754</v>
       </c>
       <c r="L61">
-        <v>-0.08714897554198164</v>
+        <v>-0.08714914911431815</v>
       </c>
       <c r="M61">
-        <v>4.101684436907695</v>
+        <v>4.101684872952416</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2746,34 +2746,34 @@
         <v>45496</v>
       </c>
       <c r="C62">
-        <v>72.465087890625</v>
+        <v>72.46509552001953</v>
       </c>
       <c r="D62">
-        <v>74.21349248766394</v>
+        <v>74.21350030113703</v>
       </c>
       <c r="E62">
-        <v>72.24777044703644</v>
+        <v>72.24777805355099</v>
       </c>
       <c r="F62">
-        <v>72.83057700359886</v>
+        <v>72.83058467147345</v>
       </c>
       <c r="G62">
         <v>43563500</v>
       </c>
       <c r="I62">
-        <v>72.21626758575439</v>
+        <v>72.21626806259155</v>
       </c>
       <c r="J62">
-        <v>63.73724998474121</v>
+        <v>63.73724990844727</v>
       </c>
       <c r="K62">
-        <v>52.34762223087434</v>
+        <v>52.34763014223199</v>
       </c>
       <c r="L62">
-        <v>-0.09766296541188813</v>
+        <v>-0.09766295613376996</v>
       </c>
       <c r="M62">
-        <v>3.992963257698587</v>
+        <v>3.992963250801372</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2784,34 +2784,34 @@
         <v>45497</v>
       </c>
       <c r="C63">
-        <v>64.65157318115234</v>
+        <v>64.65158081054688</v>
       </c>
       <c r="D63">
-        <v>69.52143246877353</v>
+        <v>69.52144067284979</v>
       </c>
       <c r="E63">
-        <v>64.25645880565399</v>
+        <v>64.25646638842191</v>
       </c>
       <c r="F63">
-        <v>69.37326834612347</v>
+        <v>69.3732765327152</v>
       </c>
       <c r="G63">
         <v>79787600</v>
       </c>
       <c r="I63">
-        <v>72.22488555908203</v>
+        <v>72.22488603591918</v>
       </c>
       <c r="J63">
         <v>63.79193607330322</v>
       </c>
       <c r="K63">
-        <v>40.03218576587836</v>
+        <v>40.03219294871737</v>
       </c>
       <c r="L63">
-        <v>-0.1173298732098194</v>
+        <v>-0.1173298609885037</v>
       </c>
       <c r="M63">
-        <v>4.744046846131453</v>
+        <v>4.744046375827656</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2822,34 +2822,34 @@
         <v>45498</v>
       </c>
       <c r="C64">
-        <v>62.4981803894043</v>
+        <v>62.49817276000977</v>
       </c>
       <c r="D64">
-        <v>66.51852707598464</v>
+        <v>66.51851895581083</v>
       </c>
       <c r="E64">
-        <v>61.37208766010803</v>
+        <v>61.37208016818</v>
       </c>
       <c r="F64">
-        <v>64.76024220169134</v>
+        <v>64.76023429615817</v>
       </c>
       <c r="G64">
         <v>94064000</v>
       </c>
       <c r="I64">
-        <v>72.16220178604127</v>
+        <v>72.16220226287842</v>
       </c>
       <c r="J64">
-        <v>63.79792839050293</v>
+        <v>63.79792831420898</v>
       </c>
       <c r="K64">
-        <v>37.45234339998581</v>
+        <v>37.45236078740576</v>
       </c>
       <c r="L64">
-        <v>-0.1337622808263293</v>
+        <v>-0.1337624781715933</v>
       </c>
       <c r="M64">
-        <v>5.61400255136704</v>
+        <v>5.614003221268586</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2860,34 +2860,34 @@
         <v>45499</v>
       </c>
       <c r="C65">
-        <v>64.28609466552734</v>
+        <v>64.28610992431641</v>
       </c>
       <c r="D65">
-        <v>65.53071857249607</v>
+        <v>65.53073412670601</v>
       </c>
       <c r="E65">
-        <v>63.00195027555441</v>
+        <v>63.00196522954212</v>
       </c>
       <c r="F65">
-        <v>64.20706877216692</v>
+        <v>64.20708401219859</v>
       </c>
       <c r="G65">
         <v>68703500</v>
       </c>
       <c r="I65">
-        <v>72.17816543579102</v>
+        <v>72.17816610336304</v>
       </c>
       <c r="J65">
-        <v>63.82915351867675</v>
+        <v>63.82915367126465</v>
       </c>
       <c r="K65">
-        <v>39.18448170020556</v>
+        <v>39.18450651470516</v>
       </c>
       <c r="L65">
-        <v>-0.08415424359666079</v>
+        <v>-0.08415402621376822</v>
       </c>
       <c r="M65">
-        <v>6.145767573594587</v>
+        <v>6.145767069150469</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2913,19 +2913,19 @@
         <v>57820400</v>
       </c>
       <c r="I66">
-        <v>72.25468301773071</v>
+        <v>72.25468378067016</v>
       </c>
       <c r="J66">
-        <v>63.89688110351562</v>
+        <v>63.89688117980957</v>
       </c>
       <c r="K66">
-        <v>40.72348796043645</v>
+        <v>40.72349750079833</v>
       </c>
       <c r="L66">
         <v>-0.1173140365209414</v>
       </c>
       <c r="M66">
-        <v>6.556793799421646</v>
+        <v>6.556793528892448</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2951,19 +2951,19 @@
         <v>71531800</v>
       </c>
       <c r="I67">
-        <v>72.26698703765869</v>
+        <v>72.26698780059814</v>
       </c>
       <c r="J67">
         <v>63.92754692077636</v>
       </c>
       <c r="K67">
-        <v>36.84436018346742</v>
+        <v>36.84437328866967</v>
       </c>
       <c r="L67">
-        <v>-0.1440839389253311</v>
+        <v>-0.1440840290393546</v>
       </c>
       <c r="M67">
-        <v>7.134851688068475</v>
+        <v>7.134851711641277</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2989,19 +2989,19 @@
         <v>86704200</v>
       </c>
       <c r="I68">
-        <v>72.39986000061035</v>
+        <v>72.39986066818237</v>
       </c>
       <c r="J68">
-        <v>63.98616550445556</v>
+        <v>63.98616554260254</v>
       </c>
       <c r="K68">
-        <v>40.89718718031902</v>
+        <v>40.89720484932594</v>
       </c>
       <c r="L68">
-        <v>0.04323914613752566</v>
+        <v>0.04323902302710914</v>
       </c>
       <c r="M68">
-        <v>7.255529494854699</v>
+        <v>7.255529873544705</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3012,34 +3012,34 @@
         <v>45505</v>
       </c>
       <c r="C69">
-        <v>62.58708190917969</v>
+        <v>62.58707427978516</v>
       </c>
       <c r="D69">
-        <v>69.36339844897073</v>
+        <v>69.36338999354004</v>
       </c>
       <c r="E69">
-        <v>60.94733213931884</v>
+        <v>60.94732470981057</v>
       </c>
       <c r="F69">
-        <v>67.74340515442897</v>
+        <v>67.74339689647623</v>
       </c>
       <c r="G69">
         <v>105346600</v>
       </c>
       <c r="I69">
-        <v>72.39967107772827</v>
+        <v>72.39967164993286</v>
       </c>
       <c r="J69">
         <v>64.0231481552124</v>
       </c>
       <c r="K69">
-        <v>34.95163840874443</v>
+        <v>34.95163698650002</v>
       </c>
       <c r="L69">
-        <v>0.001422465729745692</v>
+        <v>0.001422465903391679</v>
       </c>
       <c r="M69">
-        <v>7.558690989385337</v>
+        <v>7.558691975171616</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3065,19 +3065,19 @@
         <v>104922000</v>
       </c>
       <c r="I70">
-        <v>72.19092340469361</v>
+        <v>72.19092416763306</v>
       </c>
       <c r="J70">
         <v>64.02135787963867</v>
       </c>
       <c r="K70">
-        <v>29.17197211402053</v>
+        <v>29.17198967917713</v>
       </c>
       <c r="L70">
-        <v>-0.0974185350364053</v>
+        <v>-0.09741874927086747</v>
       </c>
       <c r="M70">
-        <v>7.996438485248491</v>
+        <v>7.996439814465683</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3103,19 +3103,19 @@
         <v>143962200</v>
       </c>
       <c r="I71">
-        <v>71.85770492553711</v>
+        <v>71.85770606994629</v>
       </c>
       <c r="J71">
-        <v>63.94428352355957</v>
+        <v>63.94428356170654</v>
       </c>
       <c r="K71">
-        <v>26.02048425503918</v>
+        <v>26.02051252044023</v>
       </c>
       <c r="L71">
         <v>-0.180873860970464</v>
       </c>
       <c r="M71">
-        <v>8.682170194545865</v>
+        <v>8.682172381873466</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3141,19 +3141,19 @@
         <v>96454700</v>
       </c>
       <c r="I72">
-        <v>71.56372823715211</v>
+        <v>71.56372938156127</v>
       </c>
       <c r="J72">
-        <v>63.89456493377686</v>
+        <v>63.8945650100708</v>
       </c>
       <c r="K72">
-        <v>27.43449641266736</v>
+        <v>27.43452287815349</v>
       </c>
       <c r="L72">
         <v>-0.1247014310888561</v>
       </c>
       <c r="M72">
-        <v>8.959913439450174</v>
+        <v>8.959916603462172</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3179,19 +3179,19 @@
         <v>91375800</v>
       </c>
       <c r="I73">
-        <v>71.20857467651368</v>
+        <v>71.20857582092285</v>
       </c>
       <c r="J73">
-        <v>63.83216674804687</v>
+        <v>63.83216682434082</v>
       </c>
       <c r="K73">
-        <v>23.49699216887528</v>
+        <v>23.49700281206248</v>
       </c>
       <c r="L73">
         <v>-0.221001660554589</v>
       </c>
       <c r="M73">
-        <v>8.934134412387721</v>
+        <v>8.93413747356019</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3217,19 +3217,19 @@
         <v>76439600</v>
       </c>
       <c r="I74">
-        <v>70.93924465179444</v>
+        <v>70.93924579620361</v>
       </c>
       <c r="J74">
-        <v>63.83934741973877</v>
+        <v>63.83934749603272</v>
       </c>
       <c r="K74">
-        <v>32.00945839403101</v>
+        <v>32.00946778743661</v>
       </c>
       <c r="L74">
-        <v>-0.08364907586036741</v>
+        <v>-0.08364896415674794</v>
       </c>
       <c r="M74">
-        <v>8.796964775760507</v>
+        <v>8.796968268645383</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3240,34 +3240,34 @@
         <v>45513</v>
       </c>
       <c r="C75">
-        <v>58.13209533691406</v>
+        <v>58.1320915222168</v>
       </c>
       <c r="D75">
-        <v>58.80380041073819</v>
+        <v>58.80379655196283</v>
       </c>
       <c r="E75">
-        <v>56.30466474287514</v>
+        <v>56.30466104809604</v>
       </c>
       <c r="F75">
-        <v>56.73929588610628</v>
+        <v>56.73929216280617</v>
       </c>
       <c r="G75">
         <v>62796200</v>
       </c>
       <c r="I75">
-        <v>70.62226333618165</v>
+        <v>70.62226438522339</v>
       </c>
       <c r="J75">
-        <v>63.838349609375</v>
+        <v>63.83834964752197</v>
       </c>
       <c r="K75">
-        <v>31.43003118407874</v>
+        <v>31.43002742231251</v>
       </c>
       <c r="L75">
-        <v>0.001872654251380057</v>
+        <v>0.00187258850730454</v>
       </c>
       <c r="M75">
-        <v>8.37611593869558</v>
+        <v>8.376119493780475</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3278,34 +3278,34 @@
         <v>45516</v>
       </c>
       <c r="C76">
-        <v>58.52721405029297</v>
+        <v>58.52721786499023</v>
       </c>
       <c r="D76">
-        <v>59.66318680072805</v>
+        <v>59.66319068946595</v>
       </c>
       <c r="E76">
-        <v>57.40112142083883</v>
+        <v>57.40112516213944</v>
       </c>
       <c r="F76">
-        <v>58.50745757649317</v>
+        <v>58.50746138990274</v>
       </c>
       <c r="G76">
         <v>54486300</v>
       </c>
       <c r="I76">
-        <v>70.28686866760253</v>
+        <v>70.28687000274658</v>
       </c>
       <c r="J76">
-        <v>63.83728286743164</v>
+        <v>63.83728294372558</v>
       </c>
       <c r="K76">
-        <v>31.19548920847154</v>
+        <v>31.195485511293</v>
       </c>
       <c r="L76">
-        <v>0.1049981594837077</v>
+        <v>0.104998231505476</v>
       </c>
       <c r="M76">
-        <v>7.698335862917326</v>
+        <v>7.698338267669297</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3316,34 +3316,34 @@
         <v>45517</v>
       </c>
       <c r="C77">
-        <v>62.78463745117188</v>
+        <v>62.78464126586914</v>
       </c>
       <c r="D77">
-        <v>62.93280535097627</v>
+        <v>62.93280917467598</v>
       </c>
       <c r="E77">
-        <v>60.15708675212294</v>
+        <v>60.1570904071743</v>
       </c>
       <c r="F77">
-        <v>60.21635240477988</v>
+        <v>60.21635606343213</v>
       </c>
       <c r="G77">
         <v>54481400</v>
       </c>
       <c r="I77">
-        <v>70.03183269500732</v>
+        <v>70.03183450698853</v>
       </c>
       <c r="J77">
-        <v>63.85797801971435</v>
+        <v>63.8579780960083</v>
       </c>
       <c r="K77">
-        <v>35.85778056905013</v>
+        <v>35.85778358581099</v>
       </c>
       <c r="L77">
-        <v>0.1564774613030551</v>
+        <v>0.1564775315688332</v>
       </c>
       <c r="M77">
-        <v>6.684612289954766</v>
+        <v>6.68461428249626</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3369,19 +3369,19 @@
         <v>62355300</v>
       </c>
       <c r="I78">
-        <v>69.71333675384521</v>
+        <v>69.71333856582642</v>
       </c>
       <c r="J78">
-        <v>63.87188743591309</v>
+        <v>63.87188751220703</v>
       </c>
       <c r="K78">
-        <v>40.58907818772489</v>
+        <v>40.58907516829857</v>
       </c>
       <c r="L78">
         <v>0.1970294797668977</v>
       </c>
       <c r="M78">
-        <v>6.253013402780308</v>
+        <v>6.253015004358287</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3392,34 +3392,34 @@
         <v>45519</v>
       </c>
       <c r="C79">
-        <v>67.62486267089844</v>
+        <v>67.62485504150391</v>
       </c>
       <c r="D79">
-        <v>67.79278704984922</v>
+        <v>67.79277940150956</v>
       </c>
       <c r="E79">
-        <v>65.18499273837189</v>
+        <v>65.18498538424194</v>
       </c>
       <c r="F79">
-        <v>65.32328429001657</v>
+        <v>65.32327692028466</v>
       </c>
       <c r="G79">
         <v>53212400</v>
       </c>
       <c r="I79">
-        <v>69.51214599609375</v>
+        <v>69.51214761734009</v>
       </c>
       <c r="J79">
-        <v>63.93183326721191</v>
+        <v>63.93183330535889</v>
       </c>
       <c r="K79">
-        <v>46.14218086190904</v>
+        <v>46.14216885435123</v>
       </c>
       <c r="L79">
-        <v>0.1791250632216279</v>
+        <v>0.1791249301934787</v>
       </c>
       <c r="M79">
-        <v>5.968016733254148</v>
+        <v>5.968017465188766</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3445,19 +3445,19 @@
         <v>44837600</v>
       </c>
       <c r="I80">
-        <v>69.35992813110352</v>
+        <v>69.35992937088012</v>
       </c>
       <c r="J80">
-        <v>63.99985488891602</v>
+        <v>63.99985492706299</v>
       </c>
       <c r="K80">
-        <v>47.89783733388724</v>
+        <v>47.89783789803918</v>
       </c>
       <c r="L80">
-        <v>0.1663549660147858</v>
+        <v>0.1663550425523914</v>
       </c>
       <c r="M80">
-        <v>5.827271075508831</v>
+        <v>5.827271837476133</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3468,34 +3468,34 @@
         <v>45523</v>
       </c>
       <c r="C81">
-        <v>70.43021392822266</v>
+        <v>70.43022155761719</v>
       </c>
       <c r="D81">
-        <v>70.47959945615764</v>
+        <v>70.47960709090189</v>
       </c>
       <c r="E81">
-        <v>67.06180891926292</v>
+        <v>67.06181618377298</v>
       </c>
       <c r="F81">
-        <v>67.84217260934147</v>
+        <v>67.8421799583849</v>
       </c>
       <c r="G81">
         <v>45799900</v>
       </c>
       <c r="I81">
-        <v>69.29037303924561</v>
+        <v>69.29037466049195</v>
       </c>
       <c r="J81">
-        <v>64.09985946655273</v>
+        <v>64.09985958099365</v>
       </c>
       <c r="K81">
-        <v>47.49648401007153</v>
+        <v>47.49649178649401</v>
       </c>
       <c r="L81">
-        <v>0.2033754736335363</v>
+        <v>0.2033755255560692</v>
       </c>
       <c r="M81">
-        <v>5.577662299143343</v>
+        <v>5.577663703019248</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3506,34 +3506,34 @@
         <v>45524</v>
       </c>
       <c r="C82">
-        <v>69.99558258056641</v>
+        <v>69.99559020996094</v>
       </c>
       <c r="D82">
-        <v>71.18094081883382</v>
+        <v>71.1809485774303</v>
       </c>
       <c r="E82">
-        <v>69.23497155634699</v>
+        <v>69.23497910283626</v>
       </c>
       <c r="F82">
-        <v>70.03509552668517</v>
+        <v>70.03510316038654</v>
       </c>
       <c r="G82">
         <v>48929500</v>
       </c>
       <c r="I82">
-        <v>69.27194690704346</v>
+        <v>69.27194871902466</v>
       </c>
       <c r="J82">
-        <v>64.19020393371582</v>
+        <v>64.19020416259765</v>
       </c>
       <c r="K82">
-        <v>47.79774134504994</v>
+        <v>47.79774254373891</v>
       </c>
       <c r="L82">
-        <v>0.1148520628952034</v>
+        <v>0.1148521166754168</v>
       </c>
       <c r="M82">
-        <v>5.361593608367415</v>
+        <v>5.361594906988036</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3559,19 +3559,19 @@
         <v>51500400</v>
       </c>
       <c r="I83">
-        <v>69.21843280792237</v>
+        <v>69.2184344291687</v>
       </c>
       <c r="J83">
-        <v>64.29396785736084</v>
+        <v>64.29396808624267</v>
       </c>
       <c r="K83">
-        <v>56.40306259682625</v>
+        <v>56.40305186729518</v>
       </c>
       <c r="L83">
         <v>0.1281608045077667</v>
       </c>
       <c r="M83">
-        <v>5.695720635348926</v>
+        <v>5.695721642880822</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3582,34 +3582,34 @@
         <v>45526</v>
       </c>
       <c r="C84">
-        <v>67.54583740234375</v>
+        <v>67.54584503173828</v>
       </c>
       <c r="D84">
-        <v>72.26753305358908</v>
+        <v>72.26754121630557</v>
       </c>
       <c r="E84">
-        <v>67.09144979466564</v>
+        <v>67.09145737273646</v>
       </c>
       <c r="F84">
-        <v>71.9711897051221</v>
+        <v>71.97119783436622</v>
       </c>
       <c r="G84">
         <v>63748200</v>
       </c>
       <c r="I84">
-        <v>69.06828689575195</v>
+        <v>69.06828889846801</v>
       </c>
       <c r="J84">
-        <v>64.35991333007813</v>
+        <v>64.3599136352539</v>
       </c>
       <c r="K84">
-        <v>55.00097471184018</v>
+        <v>55.00098982951123</v>
       </c>
       <c r="L84">
-        <v>-0.00116858305412415</v>
+        <v>-0.001168357547193799</v>
       </c>
       <c r="M84">
-        <v>5.81137892828821</v>
+        <v>5.811380218320418</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3635,19 +3635,19 @@
         <v>64376600</v>
       </c>
       <c r="I85">
-        <v>68.95790023803711</v>
+        <v>68.9579020500183</v>
       </c>
       <c r="J85">
-        <v>64.46343151092529</v>
+        <v>64.46343185424804</v>
       </c>
       <c r="K85">
-        <v>55.29846457250461</v>
+        <v>55.29845273760576</v>
       </c>
       <c r="L85">
         <v>0.02753507077167505</v>
       </c>
       <c r="M85">
-        <v>6.012664870372869</v>
+        <v>6.012665870840585</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3658,34 +3658,34 @@
         <v>45530</v>
       </c>
       <c r="C86">
-        <v>67.62486267089844</v>
+        <v>67.62485504150391</v>
       </c>
       <c r="D86">
-        <v>69.80790220623159</v>
+        <v>69.8078943305479</v>
       </c>
       <c r="E86">
-        <v>66.70620734278772</v>
+        <v>66.7061998170353</v>
       </c>
       <c r="F86">
-        <v>69.41278025739349</v>
+        <v>69.41277242628722</v>
       </c>
       <c r="G86">
         <v>42490700</v>
       </c>
       <c r="I86">
-        <v>68.82553501129151</v>
+        <v>68.82553663253785</v>
       </c>
       <c r="J86">
-        <v>64.54256603240967</v>
+        <v>64.54256637573242</v>
       </c>
       <c r="K86">
-        <v>52.82379508218412</v>
+        <v>52.82378822278977</v>
       </c>
       <c r="L86">
-        <v>-0.03983164469986178</v>
+        <v>-0.03983185703623382</v>
       </c>
       <c r="M86">
-        <v>6.09399494138432</v>
+        <v>6.09399561311407</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3696,34 +3696,34 @@
         <v>45531</v>
       </c>
       <c r="C87">
-        <v>68.19779205322266</v>
+        <v>68.19778442382812</v>
       </c>
       <c r="D87">
-        <v>68.65217967621707</v>
+        <v>68.65217199598949</v>
       </c>
       <c r="E87">
-        <v>66.03450513093811</v>
+        <v>66.0344977435539</v>
       </c>
       <c r="F87">
-        <v>66.90377496303584</v>
+        <v>66.90376747840504</v>
       </c>
       <c r="G87">
         <v>35766300</v>
       </c>
       <c r="I87">
-        <v>68.67761173248292</v>
+        <v>68.67761316299439</v>
       </c>
       <c r="J87">
-        <v>64.65557334899903</v>
+        <v>64.6555736541748</v>
       </c>
       <c r="K87">
-        <v>56.12385364146676</v>
+        <v>56.12384700061617</v>
       </c>
       <c r="L87">
-        <v>-0.02568434265511621</v>
+        <v>-0.02568455785200263</v>
       </c>
       <c r="M87">
-        <v>6.194257325923462</v>
+        <v>6.194257663772233</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3734,34 +3734,34 @@
         <v>45532</v>
       </c>
       <c r="C88">
-        <v>65.88632202148438</v>
+        <v>65.88632965087891</v>
       </c>
       <c r="D88">
-        <v>68.27680610871761</v>
+        <v>68.27681401492143</v>
       </c>
       <c r="E88">
-        <v>64.3651151518678</v>
+        <v>64.36512260511216</v>
       </c>
       <c r="F88">
-        <v>67.96071009815368</v>
+        <v>67.96071796775475</v>
       </c>
       <c r="G88">
         <v>59312900</v>
       </c>
       <c r="I88">
-        <v>68.41510314941407</v>
+        <v>68.41510496139526</v>
       </c>
       <c r="J88">
-        <v>64.72539161682128</v>
+        <v>64.72539199829102</v>
       </c>
       <c r="K88">
-        <v>48.35003744855562</v>
+        <v>48.35004471567797</v>
       </c>
       <c r="L88">
-        <v>-0.07141875581314083</v>
+        <v>-0.07141864828683719</v>
       </c>
       <c r="M88">
-        <v>6.149854748840008</v>
+        <v>6.149855256014284</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3787,19 +3787,19 @@
         <v>60016800</v>
       </c>
       <c r="I89">
-        <v>68.09703121185302</v>
+        <v>68.09703283309936</v>
       </c>
       <c r="J89">
-        <v>64.79135906219483</v>
+        <v>64.79135948181153</v>
       </c>
       <c r="K89">
-        <v>53.45185421113481</v>
+        <v>53.4518649745447</v>
       </c>
       <c r="L89">
-        <v>-0.02968700724967044</v>
+        <v>-0.02968711684783498</v>
       </c>
       <c r="M89">
-        <v>6.167488495107158</v>
+        <v>6.167488940554283</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3825,19 +3825,19 @@
         <v>46473400</v>
       </c>
       <c r="I90">
-        <v>67.77550201416015</v>
+        <v>67.77550363540649</v>
       </c>
       <c r="J90">
-        <v>64.87354984283448</v>
+        <v>64.8735502243042</v>
       </c>
       <c r="K90">
-        <v>62.05128064879114</v>
+        <v>62.05128519479737</v>
       </c>
       <c r="L90">
         <v>-0.0272224281585044</v>
       </c>
       <c r="M90">
-        <v>6.101863860888443</v>
+        <v>6.101864263006717</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3863,19 +3863,19 @@
         <v>73786300</v>
       </c>
       <c r="I91">
-        <v>67.28604650497437</v>
+        <v>67.28604831695557</v>
       </c>
       <c r="J91">
-        <v>64.90955039978027</v>
+        <v>64.90955078125</v>
       </c>
       <c r="K91">
-        <v>60.37063624491034</v>
+        <v>60.37064005098432</v>
       </c>
       <c r="L91">
-        <v>-0.08924920513111534</v>
+        <v>-0.08924910238077111</v>
       </c>
       <c r="M91">
-        <v>5.567908128435254</v>
+        <v>5.567908522472876</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3886,34 +3886,34 @@
         <v>45539</v>
       </c>
       <c r="C92">
-        <v>61.06586456298828</v>
+        <v>61.06586837768555</v>
       </c>
       <c r="D92">
-        <v>62.59695553597965</v>
+        <v>62.59695944632197</v>
       </c>
       <c r="E92">
-        <v>59.91013906838366</v>
+        <v>59.91014281088439</v>
       </c>
       <c r="F92">
-        <v>60.29538089991853</v>
+        <v>60.29538466648478</v>
       </c>
       <c r="G92">
         <v>48399200</v>
       </c>
       <c r="I92">
-        <v>66.77905759811401</v>
+        <v>66.77905969619751</v>
       </c>
       <c r="J92">
-        <v>64.91305782318115</v>
+        <v>64.91305820465088</v>
       </c>
       <c r="K92">
-        <v>58.30911206024346</v>
+        <v>58.30912062447553</v>
       </c>
       <c r="L92">
-        <v>-0.104577102506024</v>
+        <v>-0.1045769463978466</v>
       </c>
       <c r="M92">
-        <v>5.110375629567073</v>
+        <v>5.110375876310037</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3939,19 +3939,19 @@
         <v>55085800</v>
       </c>
       <c r="I93">
-        <v>66.21329460144042</v>
+        <v>66.21329650878906</v>
       </c>
       <c r="J93">
-        <v>64.94786514282227</v>
+        <v>64.94786556243896</v>
       </c>
       <c r="K93">
-        <v>61.11810556514551</v>
+        <v>61.11811205258051</v>
       </c>
       <c r="L93">
-        <v>-0.07016476197137234</v>
+        <v>-0.07016486964287139</v>
       </c>
       <c r="M93">
-        <v>4.331231524110756</v>
+        <v>4.33123173437626</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3962,34 +3962,34 @@
         <v>45541</v>
       </c>
       <c r="C94">
-        <v>56.2947883605957</v>
+        <v>56.29478073120117</v>
       </c>
       <c r="D94">
-        <v>61.21403756237252</v>
+        <v>61.21402926629296</v>
       </c>
       <c r="E94">
-        <v>56.02808160187643</v>
+        <v>56.02807400862753</v>
       </c>
       <c r="F94">
-        <v>60.85842855074683</v>
+        <v>60.85842030286145</v>
       </c>
       <c r="G94">
         <v>84952300</v>
       </c>
       <c r="I94">
-        <v>65.6611138343811</v>
+        <v>65.66111555099488</v>
       </c>
       <c r="J94">
-        <v>64.96201522827148</v>
+        <v>64.96201557159424</v>
       </c>
       <c r="K94">
-        <v>48.65814537734276</v>
+        <v>48.65813517145241</v>
       </c>
       <c r="L94">
-        <v>-0.1410700354273504</v>
+        <v>-0.1410701518344951</v>
       </c>
       <c r="M94">
-        <v>4.43633901099874</v>
+        <v>4.436340021008049</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4000,34 +4000,34 @@
         <v>45544</v>
       </c>
       <c r="C95">
-        <v>58.3889274597168</v>
+        <v>58.38892364501953</v>
       </c>
       <c r="D95">
-        <v>58.76429295746151</v>
+        <v>58.76428911824067</v>
       </c>
       <c r="E95">
-        <v>56.64051894567713</v>
+        <v>56.64051524520784</v>
       </c>
       <c r="F95">
-        <v>57.85551392631573</v>
+        <v>57.85551014646773</v>
       </c>
       <c r="G95">
         <v>55417500</v>
       </c>
       <c r="I95">
-        <v>65.12943000793457</v>
+        <v>65.12943143844605</v>
       </c>
       <c r="J95">
-        <v>64.99700828552245</v>
+        <v>64.99700859069824</v>
       </c>
       <c r="K95">
-        <v>50.31553874231985</v>
+        <v>50.31553880147277</v>
       </c>
       <c r="L95">
-        <v>-0.1384637111149911</v>
+        <v>-0.13846376740135</v>
       </c>
       <c r="M95">
-        <v>4.415492186413164</v>
+        <v>4.415493188344979</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4038,34 +4038,34 @@
         <v>45545</v>
       </c>
       <c r="C96">
-        <v>59.95952606201172</v>
+        <v>59.95952987670898</v>
       </c>
       <c r="D96">
-        <v>60.17683973636404</v>
+        <v>60.17684356488707</v>
       </c>
       <c r="E96">
-        <v>57.49002337221027</v>
+        <v>57.4900270297948</v>
       </c>
       <c r="F96">
-        <v>59.05074711272051</v>
+        <v>59.05075086960017</v>
       </c>
       <c r="G96">
         <v>45791200</v>
       </c>
       <c r="I96">
-        <v>64.62219429016113</v>
+        <v>64.62219543457032</v>
       </c>
       <c r="J96">
-        <v>65.06807697296142</v>
+        <v>65.06807731628417</v>
       </c>
       <c r="K96">
-        <v>51.71030992489198</v>
+        <v>51.71031023651688</v>
       </c>
       <c r="L96">
-        <v>-0.02646350567481259</v>
+        <v>-0.02646344373724818</v>
       </c>
       <c r="M96">
-        <v>4.313847570301672</v>
+        <v>4.313848655837325</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4076,34 +4076,34 @@
         <v>45546</v>
       </c>
       <c r="C97">
-        <v>63.78231811523438</v>
+        <v>63.78231048583984</v>
       </c>
       <c r="D97">
-        <v>64.15767982833599</v>
+        <v>64.15767215404215</v>
       </c>
       <c r="E97">
-        <v>57.06527124251598</v>
+        <v>57.06526441658865</v>
       </c>
       <c r="F97">
-        <v>60.43367291618013</v>
+        <v>60.43366568733761</v>
       </c>
       <c r="G97">
         <v>81737600</v>
       </c>
       <c r="I97">
-        <v>64.20904655456543</v>
+        <v>64.20904731750488</v>
       </c>
       <c r="J97">
-        <v>65.18682029724121</v>
+        <v>65.18682056427002</v>
       </c>
       <c r="K97">
-        <v>51.20381618420612</v>
+        <v>51.20380292969123</v>
       </c>
       <c r="L97">
-        <v>0.0444839939905235</v>
+        <v>0.04448380380597228</v>
       </c>
       <c r="M97">
-        <v>4.29058791830476</v>
+        <v>4.290589252743153</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4129,19 +4129,19 @@
         <v>55173500</v>
       </c>
       <c r="I98">
-        <v>64.01963577270507</v>
+        <v>64.01963634490967</v>
       </c>
       <c r="J98">
-        <v>65.35660861968994</v>
+        <v>65.35660896301269</v>
       </c>
       <c r="K98">
-        <v>53.21143497528266</v>
+        <v>53.21143554222877</v>
       </c>
       <c r="L98">
         <v>0.07191236475035656</v>
       </c>
       <c r="M98">
-        <v>4.256321302807988</v>
+        <v>4.256322654536264</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4152,34 +4152,34 @@
         <v>45548</v>
       </c>
       <c r="C99">
-        <v>66.52839660644531</v>
+        <v>66.52840423583984</v>
       </c>
       <c r="D99">
-        <v>67.04205735268305</v>
+        <v>67.04206504098356</v>
       </c>
       <c r="E99">
-        <v>65.24425981349825</v>
+        <v>65.24426729562956</v>
       </c>
       <c r="F99">
-        <v>65.34303840736746</v>
+        <v>65.34304590082657</v>
       </c>
       <c r="G99">
         <v>43983300</v>
       </c>
       <c r="I99">
-        <v>63.87912082672119</v>
+        <v>63.87912139892578</v>
       </c>
       <c r="J99">
-        <v>65.52082061767578</v>
+        <v>65.52082103729248</v>
       </c>
       <c r="K99">
-        <v>48.60656866224154</v>
+        <v>48.60658832390165</v>
       </c>
       <c r="L99">
-        <v>0.1817860683709891</v>
+        <v>0.1817863640592656</v>
       </c>
       <c r="M99">
-        <v>4.232512374322032</v>
+        <v>4.232514068519492</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4205,19 +4205,19 @@
         <v>41165500</v>
       </c>
       <c r="I100">
-        <v>63.76527671813965</v>
+        <v>63.76527729034424</v>
       </c>
       <c r="J100">
-        <v>65.65380481719971</v>
+        <v>65.65380519866943</v>
       </c>
       <c r="K100">
-        <v>47.29963880901257</v>
+        <v>47.29963932335416</v>
       </c>
       <c r="L100">
-        <v>0.1241751521121326</v>
+        <v>0.1241752255573618</v>
       </c>
       <c r="M100">
-        <v>4.192591945498477</v>
+        <v>4.192593671366639</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4243,19 +4243,19 @@
         <v>51557200</v>
       </c>
       <c r="I101">
-        <v>63.57586555480957</v>
+        <v>63.57586612701416</v>
       </c>
       <c r="J101">
-        <v>65.78206718444824</v>
+        <v>65.78206756591797</v>
       </c>
       <c r="K101">
-        <v>43.65937399394939</v>
+        <v>43.65936381253906</v>
       </c>
       <c r="L101">
-        <v>0.09538714457218878</v>
+        <v>0.09538707488234377</v>
       </c>
       <c r="M101">
-        <v>4.010699508336432</v>
+        <v>4.010700799716528</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4281,19 +4281,19 @@
         <v>83198100</v>
       </c>
       <c r="I102">
-        <v>63.3847261428833</v>
+        <v>63.38472652435303</v>
       </c>
       <c r="J102">
-        <v>65.91019840240479</v>
+        <v>65.91019878387451</v>
       </c>
       <c r="K102">
-        <v>43.16997356734528</v>
+        <v>43.16996350006362</v>
       </c>
       <c r="L102">
-        <v>0.01626145503940402</v>
+        <v>0.01626157660068839</v>
       </c>
       <c r="M102">
-        <v>3.83112281336168</v>
+        <v>3.831123623120872</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4304,34 +4304,34 @@
         <v>45554</v>
       </c>
       <c r="C103">
-        <v>69.71900177001953</v>
+        <v>69.71900939941406</v>
       </c>
       <c r="D103">
-        <v>70.92412028884908</v>
+        <v>70.92412805012049</v>
       </c>
       <c r="E103">
-        <v>68.56327631953184</v>
+        <v>68.56328382245459</v>
       </c>
       <c r="F103">
-        <v>69.44241867448308</v>
+        <v>69.44242627361093</v>
       </c>
       <c r="G103">
         <v>57400700</v>
       </c>
       <c r="I103">
-        <v>63.51141185760498</v>
+        <v>63.51141223907471</v>
       </c>
       <c r="J103">
-        <v>66.06341239929199</v>
+        <v>66.06341285705567</v>
       </c>
       <c r="K103">
-        <v>48.52420520132383</v>
+        <v>48.52421485841344</v>
       </c>
       <c r="L103">
-        <v>0.06167261312108119</v>
+        <v>0.06167272930058765</v>
       </c>
       <c r="M103">
-        <v>3.733640766462177</v>
+        <v>3.733642141161463</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4342,34 +4342,34 @@
         <v>45555</v>
       </c>
       <c r="C104">
-        <v>69.27449035644531</v>
+        <v>69.27448272705078</v>
       </c>
       <c r="D104">
-        <v>69.81778399108403</v>
+        <v>69.81777630185503</v>
       </c>
       <c r="E104">
-        <v>67.47669260590158</v>
+        <v>67.47668517450356</v>
       </c>
       <c r="F104">
-        <v>69.29425059933646</v>
+        <v>69.29424296776567</v>
       </c>
       <c r="G104">
         <v>48379800</v>
       </c>
       <c r="I104">
-        <v>63.68081960678101</v>
+        <v>63.68081998825073</v>
       </c>
       <c r="J104">
-        <v>66.20568668365479</v>
+        <v>66.20568698883056</v>
       </c>
       <c r="K104">
-        <v>52.22363674691772</v>
+        <v>52.22361493665952</v>
       </c>
       <c r="L104">
-        <v>0.04127701688415497</v>
+        <v>0.04127678279304914</v>
       </c>
       <c r="M104">
-        <v>3.823575435861772</v>
+        <v>3.823575998249716</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4398,16 +4398,16 @@
         <v>63.81837091445923</v>
       </c>
       <c r="J105">
-        <v>66.38458667755127</v>
+        <v>66.38458698272706</v>
       </c>
       <c r="K105">
-        <v>50.15906928344187</v>
+        <v>50.15906905544289</v>
       </c>
       <c r="L105">
         <v>0.06320543361207687</v>
       </c>
       <c r="M105">
-        <v>3.831737597527335</v>
+        <v>3.831738159648973</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4436,16 +4436,16 @@
         <v>63.97123308181763</v>
       </c>
       <c r="J106">
-        <v>66.58458274841308</v>
+        <v>66.58458309173584</v>
       </c>
       <c r="K106">
-        <v>54.35197995441695</v>
+        <v>54.35198498859161</v>
       </c>
       <c r="L106">
         <v>0.07760565402482889</v>
       </c>
       <c r="M106">
-        <v>4.017563274527349</v>
+        <v>4.017564108438887</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4474,16 +4474,16 @@
         <v>64.19622468948364</v>
       </c>
       <c r="J107">
-        <v>66.76826118469238</v>
+        <v>66.76826152801513</v>
       </c>
       <c r="K107">
-        <v>53.93824601605549</v>
+        <v>53.93825162374014</v>
       </c>
       <c r="L107">
         <v>0.09571478325800209</v>
       </c>
       <c r="M107">
-        <v>4.186467096820444</v>
+        <v>4.186468208371874</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4494,34 +4494,34 @@
         <v>45561</v>
       </c>
       <c r="C108">
-        <v>72.52999114990234</v>
+        <v>72.52999877929688</v>
       </c>
       <c r="D108">
-        <v>74.39303500293963</v>
+        <v>74.39304282830683</v>
       </c>
       <c r="E108">
-        <v>70.93450916978325</v>
+        <v>70.93451663134981</v>
       </c>
       <c r="F108">
-        <v>74.24438615772092</v>
+        <v>74.24439396745184</v>
       </c>
       <c r="G108">
         <v>53501600</v>
       </c>
       <c r="I108">
-        <v>64.32329816818238</v>
+        <v>64.32329835891724</v>
       </c>
       <c r="J108">
-        <v>66.93561176300049</v>
+        <v>66.93561210632325</v>
       </c>
       <c r="K108">
-        <v>59.47132788212904</v>
+        <v>59.47130933932212</v>
       </c>
       <c r="L108">
-        <v>0.04031884147101472</v>
+        <v>0.04031883705889894</v>
       </c>
       <c r="M108">
-        <v>4.509672889846733</v>
+        <v>4.509674498505571</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4547,19 +4547,19 @@
         <v>41465300</v>
       </c>
       <c r="I109">
-        <v>64.54065485000611</v>
+        <v>64.54065523147582</v>
       </c>
       <c r="J109">
-        <v>67.07217277526856</v>
+        <v>67.07217311859131</v>
       </c>
       <c r="K109">
-        <v>57.97869734644647</v>
+        <v>57.97868211793568</v>
       </c>
       <c r="L109">
-        <v>0.02896966567862846</v>
+        <v>0.0289697790019654</v>
       </c>
       <c r="M109">
-        <v>4.700742916926252</v>
+        <v>4.700744447938678</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4570,34 +4570,34 @@
         <v>45565</v>
       </c>
       <c r="C110">
-        <v>71.83629608154297</v>
+        <v>71.8363037109375</v>
       </c>
       <c r="D110">
-        <v>71.9651286036699</v>
+        <v>71.96513624674712</v>
       </c>
       <c r="E110">
-        <v>69.5471296660792</v>
+        <v>69.54713705235214</v>
       </c>
       <c r="F110">
-        <v>70.81558564625989</v>
+        <v>70.81559316724957</v>
       </c>
       <c r="G110">
         <v>42931400</v>
       </c>
       <c r="I110">
-        <v>64.88597631454468</v>
+        <v>64.88597688674926</v>
       </c>
       <c r="J110">
-        <v>67.21428325653076</v>
+        <v>67.21428367614746</v>
       </c>
       <c r="K110">
-        <v>55.92347376400956</v>
+        <v>55.92347170979781</v>
       </c>
       <c r="L110">
-        <v>0.0293480941640305</v>
+        <v>0.02934820348624156</v>
       </c>
       <c r="M110">
-        <v>4.881992239634545</v>
+        <v>4.881994198205064</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4608,34 +4608,34 @@
         <v>45566</v>
       </c>
       <c r="C111">
-        <v>68.79399108886719</v>
+        <v>68.79398345947266</v>
       </c>
       <c r="D111">
-        <v>71.77684999983072</v>
+        <v>71.77684203963102</v>
       </c>
       <c r="E111">
-        <v>67.08950028260232</v>
+        <v>67.08949284223931</v>
       </c>
       <c r="F111">
-        <v>71.62820113917364</v>
+        <v>71.6281931954594</v>
       </c>
       <c r="G111">
         <v>67380100</v>
       </c>
       <c r="I111">
-        <v>65.28167877197265</v>
+        <v>65.28167915344238</v>
       </c>
       <c r="J111">
-        <v>67.3270531463623</v>
+        <v>67.32705352783204</v>
       </c>
       <c r="K111">
-        <v>61.56189015353117</v>
+        <v>61.5618439358383</v>
       </c>
       <c r="L111">
-        <v>-0.02800324898442286</v>
+        <v>-0.02800335678085364</v>
       </c>
       <c r="M111">
-        <v>4.816791747883389</v>
+        <v>4.816793472145798</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4661,19 +4661,19 @@
         <v>39559700</v>
       </c>
       <c r="I112">
-        <v>65.65073118209838</v>
+        <v>65.65073156356812</v>
       </c>
       <c r="J112">
-        <v>67.43925060272217</v>
+        <v>67.43925102233887</v>
       </c>
       <c r="K112">
-        <v>62.92583640946683</v>
+        <v>62.92578713745801</v>
       </c>
       <c r="L112">
         <v>-0.02776613459906085</v>
       </c>
       <c r="M112">
-        <v>4.697826211335198</v>
+        <v>4.697828198923559</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4699,19 +4699,19 @@
         <v>48874700</v>
       </c>
       <c r="I113">
-        <v>66.05952949523926</v>
+        <v>66.05952987670898</v>
       </c>
       <c r="J113">
-        <v>67.54592628479004</v>
+        <v>67.54592670440674</v>
       </c>
       <c r="K113">
-        <v>62.36501105951365</v>
+        <v>62.36496825091637</v>
       </c>
       <c r="L113">
-        <v>-0.05014363102211283</v>
+        <v>-0.05014373093703228</v>
       </c>
       <c r="M113">
-        <v>4.54865555362333</v>
+        <v>4.548657606393538</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4722,34 +4722,34 @@
         <v>45569</v>
       </c>
       <c r="C114">
-        <v>71.32099914550781</v>
+        <v>71.32099151611328</v>
       </c>
       <c r="D114">
-        <v>71.50928820666294</v>
+        <v>71.50928055712663</v>
       </c>
       <c r="E114">
-        <v>69.1507454341981</v>
+        <v>69.15073803696131</v>
       </c>
       <c r="F114">
-        <v>71.35072740556491</v>
+        <v>71.35071977299027</v>
       </c>
       <c r="G114">
         <v>55350200</v>
       </c>
       <c r="I114">
-        <v>66.40876121520996</v>
+        <v>66.40876140594483</v>
       </c>
       <c r="J114">
-        <v>67.67304344177246</v>
+        <v>67.67304378509522</v>
       </c>
       <c r="K114">
-        <v>76.53770257660942</v>
+        <v>76.53761675886827</v>
       </c>
       <c r="L114">
-        <v>0.0005562459722472379</v>
+        <v>0.0005561389401185224</v>
       </c>
       <c r="M114">
-        <v>3.881828977345672</v>
+        <v>3.881829828391757</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4775,19 +4775,19 @@
         <v>41201700</v>
       </c>
       <c r="I115">
-        <v>66.67976779937744</v>
+        <v>66.67976808547974</v>
       </c>
       <c r="J115">
-        <v>67.76575138092041</v>
+        <v>67.76575176239014</v>
       </c>
       <c r="K115">
-        <v>68.524807596286</v>
+        <v>68.52476232293739</v>
       </c>
       <c r="L115">
-        <v>-0.03986755350914484</v>
+        <v>-0.03986765548027726</v>
       </c>
       <c r="M115">
-        <v>3.202195559619831</v>
+        <v>3.202195971955487</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4813,19 +4813,19 @@
         <v>38957000</v>
       </c>
       <c r="I116">
-        <v>67.01571559906006</v>
+        <v>67.01571578979492</v>
       </c>
       <c r="J116">
-        <v>67.86083393096924</v>
+        <v>67.86083431243897</v>
       </c>
       <c r="K116">
-        <v>70.01751916779119</v>
+        <v>70.01746442588419</v>
       </c>
       <c r="L116">
-        <v>0.04609610372269346</v>
+        <v>0.04609621973690703</v>
       </c>
       <c r="M116">
-        <v>2.638627249354806</v>
+        <v>2.638628381867852</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4836,34 +4836,34 @@
         <v>45574</v>
       </c>
       <c r="C117">
-        <v>73.69935607910156</v>
+        <v>73.69934844970703</v>
       </c>
       <c r="D117">
-        <v>73.9570060324464</v>
+        <v>73.95699837637981</v>
       </c>
       <c r="E117">
-        <v>71.41018183402001</v>
+        <v>71.41017444160195</v>
       </c>
       <c r="F117">
-        <v>71.86603278293192</v>
+        <v>71.86602534332394</v>
       </c>
       <c r="G117">
         <v>39348100</v>
       </c>
       <c r="I117">
-        <v>67.2885835647583</v>
+        <v>67.28858346939087</v>
       </c>
       <c r="J117">
-        <v>67.97709648132324</v>
+        <v>67.977096824646</v>
       </c>
       <c r="K117">
-        <v>67.77299824983592</v>
+        <v>67.77294964737024</v>
       </c>
       <c r="L117">
-        <v>0.06730777836103297</v>
+        <v>0.06730766787279308</v>
       </c>
       <c r="M117">
-        <v>2.563523575996412</v>
+        <v>2.563523188296744</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4874,34 +4874,34 @@
         <v>45575</v>
       </c>
       <c r="C118">
-        <v>73.44169616699219</v>
+        <v>73.44168853759766</v>
       </c>
       <c r="D118">
-        <v>74.27411763940724</v>
+        <v>74.27410992353769</v>
       </c>
       <c r="E118">
-        <v>72.06423142530919</v>
+        <v>72.06422393901077</v>
       </c>
       <c r="F118">
-        <v>72.65881927140489</v>
+        <v>72.6588117233385</v>
       </c>
       <c r="G118">
         <v>43030300</v>
       </c>
       <c r="I118">
-        <v>67.55229358673095</v>
+        <v>67.55229330062866</v>
       </c>
       <c r="J118">
-        <v>68.09216014862061</v>
+        <v>68.09216037750244</v>
       </c>
       <c r="K118">
-        <v>64.79375176793741</v>
+        <v>64.79369857929356</v>
       </c>
       <c r="L118">
-        <v>0.06602437465621369</v>
+        <v>0.06602426391366589</v>
       </c>
       <c r="M118">
-        <v>2.563205727425272</v>
+        <v>2.563204761604863</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4927,19 +4927,19 @@
         <v>35367600</v>
       </c>
       <c r="I119">
-        <v>67.70242156982422</v>
+        <v>67.70242147445678</v>
       </c>
       <c r="J119">
-        <v>68.19631423950196</v>
+        <v>68.19631443023681</v>
       </c>
       <c r="K119">
-        <v>63.87080564965993</v>
+        <v>63.87075354227876</v>
       </c>
       <c r="L119">
-        <v>0.03237451629653076</v>
+        <v>0.03237462673235503</v>
       </c>
       <c r="M119">
-        <v>2.584983682089985</v>
+        <v>2.5849833354183</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4950,34 +4950,34 @@
         <v>45579</v>
       </c>
       <c r="C120">
-        <v>75.51284027099609</v>
+        <v>75.51284790039062</v>
       </c>
       <c r="D120">
-        <v>76.12725195400481</v>
+        <v>76.12725964547604</v>
       </c>
       <c r="E120">
-        <v>74.5317700144417</v>
+        <v>74.53177754471439</v>
       </c>
       <c r="F120">
-        <v>74.7596992460625</v>
+        <v>74.75970679936387</v>
       </c>
       <c r="G120">
         <v>33845600</v>
       </c>
       <c r="I120">
-        <v>67.89517612457276</v>
+        <v>67.89517621994018</v>
       </c>
       <c r="J120">
-        <v>68.31604953765869</v>
+        <v>68.31604988098144</v>
       </c>
       <c r="K120">
-        <v>68.56410206387341</v>
+        <v>68.56406847504483</v>
       </c>
       <c r="L120">
-        <v>0.09482757571751965</v>
+        <v>0.09482768633276706</v>
       </c>
       <c r="M120">
-        <v>2.629337600948677</v>
+        <v>2.629338161125925</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5003,19 +5003,19 @@
         <v>53153800</v>
       </c>
       <c r="I121">
-        <v>67.94692745208741</v>
+        <v>67.94692735671997</v>
       </c>
       <c r="J121">
-        <v>68.40605274200439</v>
+        <v>68.4060530090332</v>
       </c>
       <c r="K121">
-        <v>61.53586320632875</v>
+        <v>61.53583343848711</v>
       </c>
       <c r="L121">
         <v>0.007436115528115073</v>
       </c>
       <c r="M121">
-        <v>2.388749484797723</v>
+        <v>2.388750158727828</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5041,19 +5041,19 @@
         <v>35392100</v>
       </c>
       <c r="I122">
-        <v>68.00855331420898</v>
+        <v>68.00855302810669</v>
       </c>
       <c r="J122">
-        <v>68.50510620117187</v>
+        <v>68.50510646820068</v>
       </c>
       <c r="K122">
-        <v>63.2906322828859</v>
+        <v>63.29059700894387</v>
       </c>
       <c r="L122">
-        <v>-0.01680800321162013</v>
+        <v>-0.01680790143107791</v>
       </c>
       <c r="M122">
-        <v>1.923896606122159</v>
+        <v>1.923897522628393</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5079,19 +5079,19 @@
         <v>48848900</v>
       </c>
       <c r="I123">
-        <v>68.05167541503906</v>
+        <v>68.05167512893676</v>
       </c>
       <c r="J123">
-        <v>68.58882400512695</v>
+        <v>68.58882419586182</v>
       </c>
       <c r="K123">
-        <v>56.14931521745677</v>
+        <v>56.1492818197324</v>
       </c>
       <c r="L123">
-        <v>-0.01039003132093308</v>
+        <v>-0.01038992851658538</v>
       </c>
       <c r="M123">
-        <v>1.907739515060241</v>
+        <v>1.907740839351776</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5117,19 +5117,19 @@
         <v>32075800</v>
       </c>
       <c r="I124">
-        <v>68.21220226287842</v>
+        <v>68.21220178604126</v>
       </c>
       <c r="J124">
-        <v>68.67843780517578</v>
+        <v>68.67843807220459</v>
       </c>
       <c r="K124">
-        <v>59.41931636387694</v>
+        <v>59.41931148298188</v>
       </c>
       <c r="L124">
         <v>0.004575979949494435</v>
       </c>
       <c r="M124">
-        <v>1.911860215690091</v>
+        <v>1.911861124962087</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5140,34 +5140,34 @@
         <v>45586</v>
       </c>
       <c r="C125">
-        <v>74.37322235107422</v>
+        <v>74.37321472167969</v>
       </c>
       <c r="D125">
-        <v>74.73988095201285</v>
+        <v>74.73987328500554</v>
       </c>
       <c r="E125">
-        <v>72.52008278527366</v>
+        <v>72.52007534597891</v>
       </c>
       <c r="F125">
-        <v>73.39214446062967</v>
+        <v>73.39213693187661</v>
       </c>
       <c r="G125">
         <v>37497900</v>
       </c>
       <c r="I125">
-        <v>68.32979259490966</v>
+        <v>68.32979192733765</v>
       </c>
       <c r="J125">
-        <v>68.78569454193115</v>
+        <v>68.78569465637207</v>
       </c>
       <c r="K125">
-        <v>59.24367305014216</v>
+        <v>59.24364345124898</v>
       </c>
       <c r="L125">
-        <v>-0.0150917104406626</v>
+        <v>-0.01509191098466101</v>
       </c>
       <c r="M125">
-        <v>1.944390151743242</v>
+        <v>1.944390589699758</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5193,19 +5193,19 @@
         <v>38154000</v>
       </c>
       <c r="I126">
-        <v>68.50395183563232</v>
+        <v>68.50395135879516</v>
       </c>
       <c r="J126">
-        <v>68.91559928894043</v>
+        <v>68.91559944152831</v>
       </c>
       <c r="K126">
-        <v>57.93813588567542</v>
+        <v>57.93812076467255</v>
       </c>
       <c r="L126">
         <v>0.02884079406445816</v>
       </c>
       <c r="M126">
-        <v>2.010678119478041</v>
+        <v>2.010678619190036</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5231,19 +5231,19 @@
         <v>59086100</v>
       </c>
       <c r="I127">
-        <v>68.57757244110107</v>
+        <v>68.57757215499878</v>
       </c>
       <c r="J127">
-        <v>69.01170673370362</v>
+        <v>69.01170688629151</v>
       </c>
       <c r="K127">
-        <v>50.21834305816999</v>
+        <v>50.21834269114405</v>
       </c>
       <c r="L127">
         <v>-0.01818920189800366</v>
       </c>
       <c r="M127">
-        <v>2.00741951112115</v>
+        <v>2.007420014023079</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5269,19 +5269,19 @@
         <v>39306400</v>
       </c>
       <c r="I128">
-        <v>68.75134410858155</v>
+        <v>68.75134363174439</v>
       </c>
       <c r="J128">
-        <v>69.11875728607178</v>
+        <v>69.11875740051269</v>
       </c>
       <c r="K128">
-        <v>50.56016021987384</v>
+        <v>50.56014552876881</v>
       </c>
       <c r="L128">
         <v>0.002181577542369251</v>
       </c>
       <c r="M128">
-        <v>2.011794652109995</v>
+        <v>2.011795083699014</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5292,34 +5292,34 @@
         <v>45590</v>
       </c>
       <c r="C129">
-        <v>74.06600952148438</v>
+        <v>74.06601715087891</v>
       </c>
       <c r="D129">
-        <v>76.30563147124313</v>
+        <v>76.30563933133674</v>
       </c>
       <c r="E129">
-        <v>73.71916725418852</v>
+        <v>73.7191748478555</v>
       </c>
       <c r="F129">
-        <v>74.02636932513708</v>
+        <v>74.02637695044835</v>
       </c>
       <c r="G129">
         <v>57413000</v>
       </c>
       <c r="I129">
-        <v>68.96447925567627</v>
+        <v>68.96447896957397</v>
       </c>
       <c r="J129">
-        <v>69.23347099304199</v>
+        <v>69.23347122192382</v>
       </c>
       <c r="K129">
-        <v>55.08136934725486</v>
+        <v>55.08137619491529</v>
       </c>
       <c r="L129">
-        <v>0.001339764008032596</v>
+        <v>0.001339867154079855</v>
       </c>
       <c r="M129">
-        <v>2.044787315800232</v>
+        <v>2.044788171865435</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5330,34 +5330,34 @@
         <v>45593</v>
       </c>
       <c r="C130">
-        <v>74.13538360595703</v>
+        <v>74.1353759765625</v>
       </c>
       <c r="D130">
-        <v>75.50294402173259</v>
+        <v>75.50293625160015</v>
       </c>
       <c r="E130">
-        <v>73.98674230910748</v>
+        <v>73.98673469500986</v>
       </c>
       <c r="F130">
-        <v>75.50294402173259</v>
+        <v>75.50293625160015</v>
       </c>
       <c r="G130">
         <v>34581100</v>
       </c>
       <c r="I130">
-        <v>69.12353801727295</v>
+        <v>69.12353754043579</v>
       </c>
       <c r="J130">
-        <v>69.31109138488769</v>
+        <v>69.31109161376953</v>
       </c>
       <c r="K130">
-        <v>54.27099697319986</v>
+        <v>54.2709662057588</v>
       </c>
       <c r="L130">
-        <v>-0.003197908300846319</v>
+        <v>-0.003197908628895907</v>
       </c>
       <c r="M130">
-        <v>2.082412708527315</v>
+        <v>2.082413368164214</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5368,34 +5368,34 @@
         <v>45594</v>
       </c>
       <c r="C131">
-        <v>76.18670654296875</v>
+        <v>76.18671417236328</v>
       </c>
       <c r="D131">
-        <v>76.76147801637673</v>
+        <v>76.76148570332931</v>
       </c>
       <c r="E131">
-        <v>73.40204906337287</v>
+        <v>73.4020564139097</v>
       </c>
       <c r="F131">
-        <v>74.25429433481395</v>
+        <v>74.25430177069526</v>
       </c>
       <c r="G131">
         <v>39272600</v>
       </c>
       <c r="I131">
-        <v>69.48847074508667</v>
+        <v>69.48847045898438</v>
       </c>
       <c r="J131">
-        <v>69.4100121307373</v>
+        <v>69.41001258850098</v>
       </c>
       <c r="K131">
-        <v>64.258365686383</v>
+        <v>64.25838672368178</v>
       </c>
       <c r="L131">
-        <v>0.0213895681030094</v>
+        <v>0.0213896703857348</v>
       </c>
       <c r="M131">
-        <v>2.06437372338238</v>
+        <v>2.064374567084708</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5421,19 +5421,19 @@
         <v>40236600</v>
       </c>
       <c r="I132">
-        <v>69.82412729263305</v>
+        <v>69.82412691116333</v>
       </c>
       <c r="J132">
-        <v>69.49444725036621</v>
+        <v>69.49444770812988</v>
       </c>
       <c r="K132">
-        <v>59.94201773486596</v>
+        <v>59.94201219037825</v>
       </c>
       <c r="L132">
         <v>0.04708162798042426</v>
       </c>
       <c r="M132">
-        <v>1.900369318020865</v>
+        <v>1.900370349492891</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5459,19 +5459,19 @@
         <v>69452600</v>
       </c>
       <c r="I133">
-        <v>70.01313457489013</v>
+        <v>70.01313419342041</v>
       </c>
       <c r="J133">
-        <v>69.51521156311036</v>
+        <v>69.51521202087402</v>
       </c>
       <c r="K133">
-        <v>49.89449814376616</v>
+        <v>49.89449819274046</v>
       </c>
       <c r="L133">
         <v>-0.05510198267168165</v>
       </c>
       <c r="M133">
-        <v>1.908387987156571</v>
+        <v>1.908389012835168</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5497,19 +5497,19 @@
         <v>48339400</v>
       </c>
       <c r="I134">
-        <v>70.36302423477173</v>
+        <v>70.36302404403686</v>
       </c>
       <c r="J134">
-        <v>69.53686599731445</v>
+        <v>69.53686645507813</v>
       </c>
       <c r="K134">
-        <v>48.38508915805531</v>
+        <v>48.38510227107807</v>
       </c>
       <c r="L134">
-        <v>-0.05097661923489749</v>
+        <v>-0.05097671699192652</v>
       </c>
       <c r="M134">
-        <v>1.970159022692394</v>
+        <v>1.970159655382534</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5535,19 +5535,19 @@
         <v>41107200</v>
       </c>
       <c r="I135">
-        <v>70.64420909881592</v>
+        <v>70.64420900344848</v>
       </c>
       <c r="J135">
-        <v>69.52511573791504</v>
+        <v>69.52511619567871</v>
       </c>
       <c r="K135">
-        <v>51.09872948001779</v>
+        <v>51.09872837028839</v>
       </c>
       <c r="L135">
-        <v>-0.0606871019699039</v>
+        <v>-0.06068700530365523</v>
       </c>
       <c r="M135">
-        <v>1.903389085278912</v>
+        <v>1.903389747167125</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5573,19 +5573,19 @@
         <v>39676300</v>
       </c>
       <c r="I136">
-        <v>70.95227699279785</v>
+        <v>70.95227680206298</v>
       </c>
       <c r="J136">
-        <v>69.52850814819335</v>
+        <v>69.52850868225097</v>
       </c>
       <c r="K136">
-        <v>50.53085850542225</v>
+        <v>50.5308579630227</v>
       </c>
       <c r="L136">
-        <v>-0.05124863508147048</v>
+        <v>-0.05124873009014175</v>
       </c>
       <c r="M136">
-        <v>1.895430077032252</v>
+        <v>1.895430745058817</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5614,16 +5614,16 @@
         <v>71.31144046783447</v>
       </c>
       <c r="J137">
-        <v>69.58013595581055</v>
+        <v>69.58013664245605</v>
       </c>
       <c r="K137">
-        <v>56.54327082199696</v>
+        <v>56.54327470027128</v>
       </c>
       <c r="L137">
         <v>0.04908882086459498</v>
       </c>
       <c r="M137">
-        <v>2.211924628923422</v>
+        <v>2.2119253215392</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5652,16 +5652,16 @@
         <v>71.71485462188721</v>
       </c>
       <c r="J138">
-        <v>69.64186050415039</v>
+        <v>69.64186119079589</v>
       </c>
       <c r="K138">
-        <v>61.18177545385112</v>
+        <v>61.18177424846284</v>
       </c>
       <c r="L138">
         <v>0.1886249894965693</v>
       </c>
       <c r="M138">
-        <v>2.924114606465654</v>
+        <v>2.924115097933584</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5687,19 +5687,19 @@
         <v>35030000</v>
       </c>
       <c r="I139">
-        <v>72.1017391204834</v>
+        <v>72.10173892974854</v>
       </c>
       <c r="J139">
-        <v>69.70517333984375</v>
+        <v>69.70517402648926</v>
       </c>
       <c r="K139">
-        <v>61.19205130537392</v>
+        <v>61.19204217524754</v>
       </c>
       <c r="L139">
         <v>0.166643040887432</v>
       </c>
       <c r="M139">
-        <v>3.46613697731192</v>
+        <v>3.466137343421234</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5725,19 +5725,19 @@
         <v>35403000</v>
       </c>
       <c r="I140">
-        <v>72.50713291168213</v>
+        <v>72.50713272094727</v>
       </c>
       <c r="J140">
-        <v>69.78481094360352</v>
+        <v>69.78481147766114</v>
       </c>
       <c r="K140">
-        <v>58.88890148264375</v>
+        <v>58.88888508700307</v>
       </c>
       <c r="L140">
         <v>0.1754660596719406</v>
       </c>
       <c r="M140">
-        <v>3.869205013432259</v>
+        <v>3.869205194438267</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5748,16 +5748,16 @@
         <v>45608</v>
       </c>
       <c r="C141">
-        <v>81.40918731689453</v>
+        <v>81.40919494628906</v>
       </c>
       <c r="D141">
-        <v>82.22179239925369</v>
+        <v>82.22180010480281</v>
       </c>
       <c r="E141">
-        <v>79.92271405204774</v>
+        <v>79.92272154213501</v>
       </c>
       <c r="F141">
-        <v>81.79566976090717</v>
+        <v>81.79567742652154</v>
       </c>
       <c r="G141">
         <v>34143000</v>
@@ -5766,16 +5766,16 @@
         <v>72.90039024353027</v>
       </c>
       <c r="J141">
-        <v>69.86677864074707</v>
+        <v>69.86677932739258</v>
       </c>
       <c r="K141">
-        <v>63.45403958774327</v>
+        <v>63.45404800919526</v>
       </c>
       <c r="L141">
-        <v>0.1262681575119236</v>
+        <v>0.1262682630619776</v>
       </c>
       <c r="M141">
-        <v>4.14061252922918</v>
+        <v>4.140613333564723</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5804,16 +5804,16 @@
         <v>73.30621337890625</v>
       </c>
       <c r="J142">
-        <v>69.96997673034667</v>
+        <v>69.96997741699219</v>
       </c>
       <c r="K142">
-        <v>62.85207052240841</v>
+        <v>62.85206465547839</v>
       </c>
       <c r="L142">
         <v>0.03715447441001163</v>
       </c>
       <c r="M142">
-        <v>4.320448316847751</v>
+        <v>4.320449047776744</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5839,19 +5839,19 @@
         <v>38825700</v>
       </c>
       <c r="I143">
-        <v>73.54668922424317</v>
+        <v>73.5466890335083</v>
       </c>
       <c r="J143">
-        <v>70.03241394042969</v>
+        <v>70.03241455078125</v>
       </c>
       <c r="K143">
-        <v>59.53462318477415</v>
+        <v>59.53461901875003</v>
       </c>
       <c r="L143">
         <v>-0.03016361415359325</v>
       </c>
       <c r="M143">
-        <v>4.365077052698996</v>
+        <v>4.365077745524765</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5862,34 +5862,34 @@
         <v>45611</v>
       </c>
       <c r="C144">
-        <v>73.60024261474609</v>
+        <v>73.60025024414062</v>
       </c>
       <c r="D144">
-        <v>76.75156622528451</v>
+        <v>76.75157418134496</v>
       </c>
       <c r="E144">
-        <v>72.62908431976288</v>
+        <v>72.62909184848722</v>
       </c>
       <c r="F144">
-        <v>76.57318913183539</v>
+        <v>76.5731970694053</v>
       </c>
       <c r="G144">
         <v>60300800</v>
       </c>
       <c r="I144">
-        <v>73.65483303070069</v>
+        <v>73.65483322143555</v>
       </c>
       <c r="J144">
-        <v>70.03289962768555</v>
+        <v>70.032900390625</v>
       </c>
       <c r="K144">
-        <v>49.53435015395706</v>
+        <v>49.5343599331154</v>
       </c>
       <c r="L144">
-        <v>-0.1024774015181238</v>
+        <v>-0.1024773084810119</v>
       </c>
       <c r="M144">
-        <v>4.373156214831817</v>
+        <v>4.373156724118655</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -5915,19 +5915,19 @@
         <v>38982600</v>
       </c>
       <c r="I145">
-        <v>73.7872974395752</v>
+        <v>73.78729763031006</v>
       </c>
       <c r="J145">
-        <v>70.04291610717773</v>
+        <v>70.04291679382324</v>
       </c>
       <c r="K145">
-        <v>50.88191304971039</v>
+        <v>50.88192231358416</v>
       </c>
       <c r="L145">
         <v>-0.08268766387955684</v>
       </c>
       <c r="M145">
-        <v>4.365495105915981</v>
+        <v>4.365495493086511</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -5953,19 +5953,19 @@
         <v>40044100</v>
       </c>
       <c r="I146">
-        <v>73.9327241897583</v>
+        <v>73.93272438049317</v>
       </c>
       <c r="J146">
-        <v>70.07965156555176</v>
+        <v>70.07965225219726</v>
       </c>
       <c r="K146">
         <v>52.39791203311735</v>
       </c>
       <c r="L146">
-        <v>-0.05916002723405211</v>
+        <v>-0.05916011540639365</v>
       </c>
       <c r="M146">
-        <v>4.363150707740971</v>
+        <v>4.363151067485461</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -5976,34 +5976,34 @@
         <v>45616</v>
       </c>
       <c r="C147">
-        <v>76.50382232666016</v>
+        <v>76.50382995605469</v>
       </c>
       <c r="D147">
-        <v>76.59301465559891</v>
+        <v>76.59302229388821</v>
       </c>
       <c r="E147">
-        <v>73.4416909773221</v>
+        <v>73.44169830134355</v>
       </c>
       <c r="F147">
-        <v>76.45427775333341</v>
+        <v>76.45428537778707</v>
       </c>
       <c r="G147">
         <v>50630300</v>
       </c>
       <c r="I147">
-        <v>74.06972732543946</v>
+        <v>74.06972770690918</v>
       </c>
       <c r="J147">
-        <v>70.10354255676269</v>
+        <v>70.10354331970215</v>
       </c>
       <c r="K147">
-        <v>56.98423779708435</v>
+        <v>56.98424912451515</v>
       </c>
       <c r="L147">
-        <v>-0.05611940467096932</v>
+        <v>-0.0561193105418496</v>
       </c>
       <c r="M147">
-        <v>4.228491298497437</v>
+        <v>4.22849164047833</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6014,34 +6014,34 @@
         <v>45617</v>
       </c>
       <c r="C148">
-        <v>77.25697326660156</v>
+        <v>77.25698089599609</v>
       </c>
       <c r="D148">
-        <v>78.16867509803075</v>
+        <v>78.16868281745899</v>
       </c>
       <c r="E148">
-        <v>73.88763219328249</v>
+        <v>73.88763948994288</v>
       </c>
       <c r="F148">
-        <v>77.84165671020126</v>
+        <v>77.84166439733531</v>
       </c>
       <c r="G148">
         <v>54932800</v>
       </c>
       <c r="I148">
-        <v>74.18790187835694</v>
+        <v>74.18790225982666</v>
       </c>
       <c r="J148">
-        <v>70.11224563598633</v>
+        <v>70.11224655151368</v>
       </c>
       <c r="K148">
-        <v>55.90259550770616</v>
+        <v>55.90260689955081</v>
       </c>
       <c r="L148">
-        <v>-0.02623032321873409</v>
+        <v>-0.0262302270555953</v>
       </c>
       <c r="M148">
-        <v>4.169170021817599</v>
+        <v>4.169170382599484</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6052,34 +6052,34 @@
         <v>45618</v>
       </c>
       <c r="C149">
-        <v>77.54435729980469</v>
+        <v>77.54436492919922</v>
       </c>
       <c r="D149">
-        <v>77.90111149734142</v>
+        <v>77.90111916183611</v>
       </c>
       <c r="E149">
-        <v>76.186708961368</v>
+        <v>76.18671645718692</v>
       </c>
       <c r="F149">
-        <v>76.93985755178934</v>
+        <v>76.93986512170866</v>
       </c>
       <c r="G149">
         <v>39967400</v>
       </c>
       <c r="I149">
-        <v>74.34447708129883</v>
+        <v>74.34447765350342</v>
       </c>
       <c r="J149">
-        <v>70.105054397583</v>
+        <v>70.10505531311036</v>
       </c>
       <c r="K149">
-        <v>54.76513487457388</v>
+        <v>54.76513686674959</v>
       </c>
       <c r="L149">
-        <v>0.05358833809426033</v>
+        <v>0.05358833253929851</v>
       </c>
       <c r="M149">
-        <v>4.146710313739428</v>
+        <v>4.146710929094981</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6090,34 +6090,34 @@
         <v>45621</v>
       </c>
       <c r="C150">
-        <v>77.90110778808594</v>
+        <v>77.90111541748047</v>
       </c>
       <c r="D150">
-        <v>80.14072957473951</v>
+        <v>80.1407374234757</v>
       </c>
       <c r="E150">
-        <v>76.84075718494978</v>
+        <v>76.84076471049683</v>
       </c>
       <c r="F150">
-        <v>79.43713315215327</v>
+        <v>79.43714093198138</v>
       </c>
       <c r="G150">
         <v>45757900</v>
       </c>
       <c r="I150">
-        <v>74.4960973739624</v>
+        <v>74.496097946167</v>
       </c>
       <c r="J150">
-        <v>70.07772346496581</v>
+        <v>70.07772445678711</v>
       </c>
       <c r="K150">
-        <v>55.11852177705822</v>
+        <v>55.11854251740996</v>
       </c>
       <c r="L150">
-        <v>0.03748178553708903</v>
+        <v>0.03748188714485923</v>
       </c>
       <c r="M150">
-        <v>4.123793422614174</v>
+        <v>4.123793838267054</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6143,19 +6143,19 @@
         <v>34873600</v>
       </c>
       <c r="I151">
-        <v>74.75400028228759</v>
+        <v>74.75400104522706</v>
       </c>
       <c r="J151">
-        <v>70.05714836120606</v>
+        <v>70.05714942932129</v>
       </c>
       <c r="K151">
-        <v>54.06672392134853</v>
+        <v>54.0667158977999</v>
       </c>
       <c r="L151">
         <v>0.03286317634871305</v>
       </c>
       <c r="M151">
-        <v>4.160374556529224</v>
+        <v>4.160374922856395</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6166,34 +6166,34 @@
         <v>45623</v>
       </c>
       <c r="C152">
-        <v>77.19751739501953</v>
+        <v>77.19752502441406</v>
       </c>
       <c r="D152">
-        <v>78.59479841081325</v>
+        <v>78.59480617830042</v>
       </c>
       <c r="E152">
-        <v>75.64167559299975</v>
+        <v>75.64168306863115</v>
       </c>
       <c r="F152">
-        <v>78.57498209283222</v>
+        <v>78.57498985836092</v>
       </c>
       <c r="G152">
         <v>39231800</v>
       </c>
       <c r="I152">
-        <v>74.95764713287353</v>
+        <v>74.95764808654785</v>
       </c>
       <c r="J152">
-        <v>70.01566932678223</v>
+        <v>70.01567054748536</v>
       </c>
       <c r="K152">
-        <v>53.74076231583971</v>
+        <v>53.74077681128108</v>
       </c>
       <c r="L152">
-        <v>0.009067456334369783</v>
+        <v>0.009067455430111782</v>
       </c>
       <c r="M152">
-        <v>4.127404296723356</v>
+        <v>4.127404618687483</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6219,19 +6219,19 @@
         <v>20432900</v>
       </c>
       <c r="I153">
-        <v>75.21455936431884</v>
+        <v>75.21456031799316</v>
       </c>
       <c r="J153">
-        <v>69.96842552185059</v>
+        <v>69.96842666625976</v>
       </c>
       <c r="K153">
-        <v>65.93404914787769</v>
+        <v>65.93407161555304</v>
       </c>
       <c r="L153">
-        <v>0.024756212235437</v>
+        <v>0.02475611103721054</v>
       </c>
       <c r="M153">
-        <v>3.690859390039978</v>
+        <v>3.690859356133371</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6242,34 +6242,34 @@
         <v>45628</v>
       </c>
       <c r="C154">
-        <v>81.73621368408203</v>
+        <v>81.73622131347656</v>
       </c>
       <c r="D154">
-        <v>82.2019689586436</v>
+        <v>82.20197663151252</v>
       </c>
       <c r="E154">
-        <v>79.56596028648205</v>
+        <v>79.56596771330152</v>
       </c>
       <c r="F154">
-        <v>79.75424932042004</v>
+        <v>79.75425676481471</v>
       </c>
       <c r="G154">
         <v>36819100</v>
       </c>
       <c r="I154">
-        <v>75.47493972778321</v>
+        <v>75.47494106292724</v>
       </c>
       <c r="J154">
-        <v>70.00196746826173</v>
+        <v>70.00196868896484</v>
       </c>
       <c r="K154">
-        <v>67.05047100987252</v>
+        <v>67.05050175343209</v>
       </c>
       <c r="L154">
-        <v>0.05405752952559317</v>
+        <v>0.05405752420700916</v>
       </c>
       <c r="M154">
-        <v>3.408794191719384</v>
+        <v>3.408794127749999</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6295,19 +6295,19 @@
         <v>42405400</v>
       </c>
       <c r="I155">
-        <v>75.81212158203125</v>
+        <v>75.81212291717529</v>
       </c>
       <c r="J155">
-        <v>70.03000099182128</v>
+        <v>70.03000213623046</v>
       </c>
       <c r="K155">
-        <v>69.06304660416122</v>
+        <v>69.06307254932162</v>
       </c>
       <c r="L155">
-        <v>0.0585168197845114</v>
+        <v>0.05851671611664488</v>
       </c>
       <c r="M155">
-        <v>2.933283190626532</v>
+        <v>2.933282414116487</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6318,34 +6318,34 @@
         <v>45630</v>
       </c>
       <c r="C156">
-        <v>85.47221374511719</v>
+        <v>85.47222137451172</v>
       </c>
       <c r="D156">
-        <v>85.59113432953296</v>
+        <v>85.59114196954255</v>
       </c>
       <c r="E156">
-        <v>83.74790685435596</v>
+        <v>83.74791432983594</v>
       </c>
       <c r="F156">
-        <v>84.10466104700919</v>
+        <v>84.10466855433364</v>
       </c>
       <c r="G156">
         <v>34996300</v>
       </c>
       <c r="I156">
-        <v>76.14979877471924</v>
+        <v>76.14980030059814</v>
       </c>
       <c r="J156">
-        <v>70.08223358154297</v>
+        <v>70.0822346496582</v>
       </c>
       <c r="K156">
-        <v>69.39666933541088</v>
+        <v>69.39670231703056</v>
       </c>
       <c r="L156">
-        <v>0.08042090360609189</v>
+        <v>0.08042100004629127</v>
       </c>
       <c r="M156">
-        <v>2.920178520518098</v>
+        <v>2.920177868955674</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6356,34 +6356,34 @@
         <v>45631</v>
       </c>
       <c r="C157">
-        <v>84.76862335205078</v>
+        <v>84.76861572265625</v>
       </c>
       <c r="D157">
-        <v>85.85870232495941</v>
+        <v>85.85869459745497</v>
       </c>
       <c r="E157">
-        <v>84.5704223638708</v>
+        <v>84.57041475231487</v>
       </c>
       <c r="F157">
-        <v>85.47221984875175</v>
+        <v>85.47221215603173</v>
       </c>
       <c r="G157">
         <v>27010200</v>
       </c>
       <c r="I157">
-        <v>76.42653045654296</v>
+        <v>76.42653198242188</v>
       </c>
       <c r="J157">
-        <v>70.12683753967285</v>
+        <v>70.1268384552002</v>
       </c>
       <c r="K157">
-        <v>61.47767077623154</v>
+        <v>61.47766665775966</v>
       </c>
       <c r="L157">
-        <v>0.09807447457526286</v>
+        <v>0.09807426722356438</v>
       </c>
       <c r="M157">
-        <v>3.153203669405929</v>
+        <v>3.153202027579218</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6394,34 +6394,34 @@
         <v>45632</v>
       </c>
       <c r="C158">
-        <v>86.94878387451172</v>
+        <v>86.94877624511719</v>
       </c>
       <c r="D158">
-        <v>87.07761641079519</v>
+        <v>87.07760877009613</v>
       </c>
       <c r="E158">
-        <v>84.94700297843826</v>
+        <v>84.94699552469169</v>
       </c>
       <c r="F158">
-        <v>85.00645949635688</v>
+        <v>85.00645203739323</v>
       </c>
       <c r="G158">
         <v>31370300</v>
       </c>
       <c r="I158">
-        <v>76.76420764923095</v>
+        <v>76.76420917510987</v>
       </c>
       <c r="J158">
-        <v>70.26387084960938</v>
+        <v>70.26387161254883</v>
       </c>
       <c r="K158">
-        <v>59.39876690582927</v>
+        <v>59.39876082604162</v>
       </c>
       <c r="L158">
-        <v>0.0982602436774791</v>
+        <v>0.09826014730970578</v>
       </c>
       <c r="M158">
-        <v>3.530307612776566</v>
+        <v>3.530305104934707</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6447,19 +6447,19 @@
         <v>34788800</v>
       </c>
       <c r="I159">
-        <v>77.04638977050782</v>
+        <v>77.04639129638672</v>
       </c>
       <c r="J159">
-        <v>70.39155357360841</v>
+        <v>70.39155426025391</v>
       </c>
       <c r="K159">
-        <v>54.98981984084403</v>
+        <v>54.98982505683308</v>
       </c>
       <c r="L159">
-        <v>0.03891852849847144</v>
+        <v>0.03891843152409202</v>
       </c>
       <c r="M159">
-        <v>3.680747974687028</v>
+        <v>3.680745458100863</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6470,34 +6470,34 @@
         <v>45636</v>
       </c>
       <c r="C160">
-        <v>83.99565124511719</v>
+        <v>83.99565887451172</v>
       </c>
       <c r="D160">
-        <v>86.33436978227283</v>
+        <v>86.3343776240951</v>
       </c>
       <c r="E160">
-        <v>83.29205480834662</v>
+        <v>83.29206237383291</v>
       </c>
       <c r="F160">
-        <v>85.47221256846406</v>
+        <v>85.47222033197586</v>
       </c>
       <c r="G160">
         <v>35770800</v>
       </c>
       <c r="I160">
-        <v>77.25846004486084</v>
+        <v>77.25846157073974</v>
       </c>
       <c r="J160">
-        <v>70.52957862854004</v>
+        <v>70.52957939147949</v>
       </c>
       <c r="K160">
-        <v>53.57142129741366</v>
+        <v>53.5714385732118</v>
       </c>
       <c r="L160">
-        <v>0.01862751892114001</v>
+        <v>0.01862761144392078</v>
       </c>
       <c r="M160">
-        <v>3.76774220740483</v>
+        <v>3.767740083932419</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -6523,19 +6523,19 @@
         <v>37448900</v>
       </c>
       <c r="I161">
-        <v>77.65807342529297</v>
+        <v>77.65807495117187</v>
       </c>
       <c r="J161">
-        <v>70.68187324523926</v>
+        <v>70.68187400817871</v>
       </c>
       <c r="K161">
-        <v>60.40209725500787</v>
+        <v>60.4020977060098</v>
       </c>
       <c r="L161">
-        <v>0.03524640779704469</v>
+        <v>0.03524631538920553</v>
       </c>
       <c r="M161">
-        <v>4.203795072413479</v>
+        <v>4.203792807892848</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -6561,19 +6561,19 @@
         <v>33174200</v>
       </c>
       <c r="I162">
-        <v>78.01482696533203</v>
+        <v>78.01482849121093</v>
       </c>
       <c r="J162">
-        <v>70.82452995300292</v>
+        <v>70.82453063964844</v>
       </c>
       <c r="K162">
-        <v>58.01845862925727</v>
+        <v>58.01846899579333</v>
       </c>
       <c r="L162">
-        <v>0.02314695269725564</v>
+        <v>0.02314704478312613</v>
       </c>
       <c r="M162">
-        <v>4.431709626013238</v>
+        <v>4.431707297877736</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -6599,19 +6599,19 @@
         <v>39831800</v>
       </c>
       <c r="I163">
-        <v>78.41270637512207</v>
+        <v>78.41270790100097</v>
       </c>
       <c r="J163">
-        <v>71.06395233154296</v>
+        <v>71.06395294189453</v>
       </c>
       <c r="K163">
-        <v>63.01560125970478</v>
+        <v>63.01561801636795</v>
       </c>
       <c r="L163">
-        <v>0.01891949590713882</v>
+        <v>0.01891958531309923</v>
       </c>
       <c r="M163">
-        <v>4.749404734544736</v>
+        <v>4.749402288250573</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -6637,19 +6637,19 @@
         <v>34983800</v>
       </c>
       <c r="I164">
-        <v>78.87475185394287</v>
+        <v>78.87475337982178</v>
       </c>
       <c r="J164">
-        <v>71.36345783233642</v>
+        <v>71.36345851898193</v>
       </c>
       <c r="K164">
-        <v>77.98704704593575</v>
+        <v>77.98706742250197</v>
       </c>
       <c r="L164">
         <v>0.08869178086868645</v>
       </c>
       <c r="M164">
-        <v>5.023420041130436</v>
+        <v>5.023417884050678</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -6660,34 +6660,34 @@
         <v>45643</v>
       </c>
       <c r="C165">
-        <v>91.21000671386719</v>
+        <v>91.20999908447266</v>
       </c>
       <c r="D165">
-        <v>92.07216398861188</v>
+        <v>92.07215628710094</v>
       </c>
       <c r="E165">
-        <v>90.3478494391225</v>
+        <v>90.34784188184437</v>
       </c>
       <c r="F165">
-        <v>91.49739247211542</v>
+        <v>91.49738481868208</v>
       </c>
       <c r="G165">
         <v>34584100</v>
       </c>
       <c r="I165">
-        <v>79.2956714630127</v>
+        <v>79.2956729888916</v>
       </c>
       <c r="J165">
-        <v>71.63269695281983</v>
+        <v>71.63269741058349</v>
       </c>
       <c r="K165">
-        <v>74.11799668172421</v>
+        <v>74.11800178399102</v>
       </c>
       <c r="L165">
-        <v>0.08588963073453626</v>
+        <v>0.08588944127147169</v>
       </c>
       <c r="M165">
-        <v>5.123658058434255</v>
+        <v>5.123654917296839</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -6698,34 +6698,34 @@
         <v>45644</v>
       </c>
       <c r="C166">
-        <v>81.34972381591797</v>
+        <v>81.3497314453125</v>
       </c>
       <c r="D166">
-        <v>91.73522042584933</v>
+        <v>91.73522902924903</v>
       </c>
       <c r="E166">
-        <v>80.55694260545989</v>
+        <v>80.55695016050333</v>
       </c>
       <c r="F166">
-        <v>90.82351863155523</v>
+        <v>90.82352714945084</v>
       </c>
       <c r="G166">
         <v>67424600</v>
       </c>
       <c r="I166">
-        <v>79.46463375091552</v>
+        <v>79.46463546752929</v>
       </c>
       <c r="J166">
-        <v>71.79957958221435</v>
+        <v>71.79958011627197</v>
       </c>
       <c r="K166">
-        <v>55.69258778725622</v>
+        <v>55.6926021153509</v>
       </c>
       <c r="L166">
-        <v>-0.08063620247838399</v>
+        <v>-0.08063611625572953</v>
       </c>
       <c r="M166">
-        <v>4.919261157585447</v>
+        <v>4.919257638647291</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -6751,19 +6751,19 @@
         <v>56658800</v>
       </c>
       <c r="I167">
-        <v>79.69107322692871</v>
+        <v>79.69107494354247</v>
       </c>
       <c r="J167">
-        <v>71.98134120941162</v>
+        <v>71.98134174346924</v>
       </c>
       <c r="K167">
-        <v>54.31414504879216</v>
+        <v>54.31413844921464</v>
       </c>
       <c r="L167">
         <v>-0.07529697024289461</v>
       </c>
       <c r="M167">
-        <v>4.720249775272259</v>
+        <v>4.720246598145091</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -6774,34 +6774,34 @@
         <v>45646</v>
       </c>
       <c r="C168">
-        <v>82.28125</v>
+        <v>82.28125762939453</v>
       </c>
       <c r="D168">
-        <v>85.08573141135624</v>
+        <v>85.08573930079173</v>
       </c>
       <c r="E168">
-        <v>77.79210189041385</v>
+        <v>77.79210910355945</v>
       </c>
       <c r="F168">
-        <v>78.34704949724835</v>
+        <v>78.34705676185057</v>
       </c>
       <c r="G168">
         <v>72620500</v>
       </c>
       <c r="I168">
-        <v>79.92717475891114</v>
+        <v>79.92717666625977</v>
       </c>
       <c r="J168">
-        <v>72.1296831893921</v>
+        <v>72.12968379974365</v>
       </c>
       <c r="K168">
-        <v>55.68768098368064</v>
+        <v>55.68768294861081</v>
       </c>
       <c r="L168">
-        <v>-0.07125284443008406</v>
+        <v>-0.07125275831352074</v>
       </c>
       <c r="M168">
-        <v>4.506371281664864</v>
+        <v>4.506368289518944</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -6827,19 +6827,19 @@
         <v>41822900</v>
       </c>
       <c r="I169">
-        <v>80.18985099792481</v>
+        <v>80.18985271453857</v>
       </c>
       <c r="J169">
-        <v>72.3495429611206</v>
+        <v>72.34954364776611</v>
       </c>
       <c r="K169">
-        <v>57.61135309125038</v>
+        <v>57.61134860243457</v>
       </c>
       <c r="L169">
         <v>-0.08518961100694533</v>
       </c>
       <c r="M169">
-        <v>4.275268216310447</v>
+        <v>4.275265501599102</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -6850,34 +6850,34 @@
         <v>45650</v>
       </c>
       <c r="C170">
-        <v>87.9337158203125</v>
+        <v>87.93370819091797</v>
       </c>
       <c r="D170">
-        <v>87.97348774524957</v>
+        <v>87.9734801124043</v>
       </c>
       <c r="E170">
-        <v>85.14974176047004</v>
+        <v>85.1497343726215</v>
       </c>
       <c r="F170">
-        <v>85.45796469658352</v>
+        <v>85.45795728199262</v>
       </c>
       <c r="G170">
         <v>24069800</v>
       </c>
       <c r="I170">
-        <v>80.53480930328369</v>
+        <v>80.53481101989746</v>
       </c>
       <c r="J170">
-        <v>72.64864574432373</v>
+        <v>72.64864635467529</v>
       </c>
       <c r="K170">
-        <v>60.20063459872459</v>
+        <v>60.2006254146211</v>
       </c>
       <c r="L170">
-        <v>-0.03592030098005217</v>
+        <v>-0.03592030398465862</v>
       </c>
       <c r="M170">
-        <v>4.110179100678282</v>
+        <v>4.110176386036646</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -6903,19 +6903,19 @@
         <v>29531000</v>
       </c>
       <c r="I171">
-        <v>80.82376155853271</v>
+        <v>80.82376308441162</v>
       </c>
       <c r="J171">
-        <v>72.99643478393554</v>
+        <v>72.9964353942871</v>
       </c>
       <c r="K171">
-        <v>58.96527282244583</v>
+        <v>58.9652785039148</v>
       </c>
       <c r="L171">
-        <v>0.07861210385277762</v>
+        <v>0.07861200269500923</v>
       </c>
       <c r="M171">
-        <v>3.96755921062459</v>
+        <v>3.967556311011359</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -6941,19 +6941,19 @@
         <v>51069500</v>
       </c>
       <c r="I172">
-        <v>81.06584205627442</v>
+        <v>81.06584358215332</v>
       </c>
       <c r="J172">
-        <v>73.29529277801514</v>
+        <v>73.2952933883667</v>
       </c>
       <c r="K172">
-        <v>57.00399993138424</v>
+        <v>57.00399549157473</v>
       </c>
       <c r="L172">
         <v>0.04956535388127858</v>
       </c>
       <c r="M172">
-        <v>3.537025465132519</v>
+        <v>3.537023048629982</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -6979,19 +6979,19 @@
         <v>51422000</v>
       </c>
       <c r="I173">
-        <v>81.3651195526123</v>
+        <v>81.36512107849121</v>
       </c>
       <c r="J173">
-        <v>73.5778295135498</v>
+        <v>73.57783012390136</v>
       </c>
       <c r="K173">
-        <v>51.58648887167705</v>
+        <v>51.58648934428781</v>
       </c>
       <c r="L173">
-        <v>-0.01806529356959741</v>
+        <v>-0.01806538461788099</v>
       </c>
       <c r="M173">
-        <v>3.405983668920053</v>
+        <v>3.405981149864522</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7002,34 +7002,34 @@
         <v>45657</v>
       </c>
       <c r="C174">
-        <v>78.677001953125</v>
+        <v>78.67700958251953</v>
       </c>
       <c r="D174">
-        <v>81.68966249159479</v>
+        <v>81.6896704131303</v>
       </c>
       <c r="E174">
-        <v>78.22958110130358</v>
+        <v>78.22958868731124</v>
       </c>
       <c r="F174">
-        <v>81.33172277585022</v>
+        <v>81.33173066267594</v>
       </c>
       <c r="G174">
         <v>52588800</v>
       </c>
       <c r="I174">
-        <v>81.57478523254395</v>
+        <v>81.57478694915771</v>
       </c>
       <c r="J174">
-        <v>73.79108222961426</v>
+        <v>73.79108291625977</v>
       </c>
       <c r="K174">
-        <v>46.9873529184157</v>
+        <v>46.98735110762895</v>
       </c>
       <c r="L174">
-        <v>-0.06971554763305177</v>
+        <v>-0.06971545742235563</v>
       </c>
       <c r="M174">
-        <v>3.637234581322546</v>
+        <v>3.637231901578115</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7055,19 +7055,19 @@
         <v>70685300</v>
       </c>
       <c r="I175">
-        <v>81.78837375640869</v>
+        <v>81.78837547302246</v>
       </c>
       <c r="J175">
-        <v>73.99155990600586</v>
+        <v>73.99156063079835</v>
       </c>
       <c r="K175">
-        <v>45.76650552523714</v>
+        <v>45.76650424724622</v>
       </c>
       <c r="L175">
-        <v>-0.1109227871612946</v>
+        <v>-0.1109227100222659</v>
       </c>
       <c r="M175">
-        <v>3.921024891003919</v>
+        <v>3.921022427124597</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7078,34 +7078,34 @@
         <v>45660</v>
       </c>
       <c r="C176">
-        <v>81.92829132080078</v>
+        <v>81.92828369140625</v>
       </c>
       <c r="D176">
-        <v>82.43537387926649</v>
+        <v>82.435366202651</v>
       </c>
       <c r="E176">
-        <v>79.1642070290041</v>
+        <v>79.16419965700892</v>
       </c>
       <c r="F176">
-        <v>79.53208405797103</v>
+        <v>79.53207665171811</v>
       </c>
       <c r="G176">
         <v>46215800</v>
       </c>
       <c r="I176">
-        <v>82.02952499389649</v>
+        <v>82.02952651977539</v>
       </c>
       <c r="J176">
-        <v>74.22557067871094</v>
+        <v>74.2255712890625</v>
       </c>
       <c r="K176">
-        <v>46.54469824158674</v>
+        <v>46.54468130814301</v>
       </c>
       <c r="L176">
-        <v>-0.06628889287312301</v>
+        <v>-0.06628897982294579</v>
       </c>
       <c r="M176">
-        <v>3.977003566767834</v>
+        <v>3.977001376895949</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7131,19 +7131,19 @@
         <v>46025000</v>
       </c>
       <c r="I177">
-        <v>82.19385852813721</v>
+        <v>82.19386005401611</v>
       </c>
       <c r="J177">
-        <v>74.4449462890625</v>
+        <v>74.44494686126708</v>
       </c>
       <c r="K177">
-        <v>49.95650879322873</v>
+        <v>49.95651590943073</v>
       </c>
       <c r="L177">
         <v>0.006496582851983179</v>
       </c>
       <c r="M177">
-        <v>3.977034441435479</v>
+        <v>3.977032248732841</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7169,19 +7169,19 @@
         <v>55510500</v>
       </c>
       <c r="I178">
-        <v>82.15268077850342</v>
+        <v>82.15268230438232</v>
       </c>
       <c r="J178">
-        <v>74.61759811401367</v>
+        <v>74.61759868621826</v>
       </c>
       <c r="K178">
-        <v>43.91072353427744</v>
+        <v>43.9107262098937</v>
       </c>
       <c r="L178">
         <v>-0.007875966790362732</v>
       </c>
       <c r="M178">
-        <v>4.072149648086258</v>
+        <v>4.072147752507946</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7207,19 +7207,19 @@
         <v>48010600</v>
       </c>
       <c r="I179">
-        <v>82.10803966522217</v>
+        <v>82.10804119110108</v>
       </c>
       <c r="J179">
-        <v>74.74353080749512</v>
+        <v>74.74353145599365</v>
       </c>
       <c r="K179">
-        <v>45.631507700618</v>
+        <v>45.63150522190897</v>
       </c>
       <c r="L179">
-        <v>0.0195880629365639</v>
+        <v>0.01958796406600904</v>
       </c>
       <c r="M179">
-        <v>4.178257045079616</v>
+        <v>4.178255220220066</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7245,19 +7245,19 @@
         <v>72825800</v>
       </c>
       <c r="I180">
-        <v>81.97141571044922</v>
+        <v>81.97141723632812</v>
       </c>
       <c r="J180">
-        <v>74.8294059753418</v>
+        <v>74.82940662384033</v>
       </c>
       <c r="K180">
-        <v>43.2921355013324</v>
+        <v>43.29212606415178</v>
       </c>
       <c r="L180">
         <v>-0.02289193204264461</v>
       </c>
       <c r="M180">
-        <v>4.530963354339833</v>
+        <v>4.530961691418784</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7283,19 +7283,19 @@
         <v>56691000</v>
       </c>
       <c r="I181">
-        <v>81.82605495452881</v>
+        <v>81.82605628967285</v>
       </c>
       <c r="J181">
-        <v>74.88105140686035</v>
+        <v>74.88105197906494</v>
       </c>
       <c r="K181">
-        <v>37.83889379629</v>
+        <v>37.8388902948885</v>
       </c>
       <c r="L181">
-        <v>-0.077305826090317</v>
+        <v>-0.07730574016641423</v>
       </c>
       <c r="M181">
-        <v>4.747070445281346</v>
+        <v>4.747068858063625</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7306,34 +7306,34 @@
         <v>45671</v>
       </c>
       <c r="C182">
-        <v>75.32630157470703</v>
+        <v>75.3262939453125</v>
       </c>
       <c r="D182">
-        <v>77.61313029593445</v>
+        <v>77.61312243491938</v>
       </c>
       <c r="E182">
-        <v>73.76528960071224</v>
+        <v>73.76528212942418</v>
       </c>
       <c r="F182">
-        <v>77.03645636623638</v>
+        <v>77.03644856362949</v>
       </c>
       <c r="G182">
         <v>62635500</v>
       </c>
       <c r="I182">
-        <v>81.68290157318116</v>
+        <v>81.68290271759034</v>
       </c>
       <c r="J182">
-        <v>74.93435859680176</v>
+        <v>74.93435901641845</v>
       </c>
       <c r="K182">
-        <v>38.93016652830656</v>
+        <v>38.9301574832072</v>
       </c>
       <c r="L182">
-        <v>-0.1109024208470858</v>
+        <v>-0.1109025108989808</v>
       </c>
       <c r="M182">
-        <v>4.979306887744541</v>
+        <v>4.97930596314837</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7359,10 +7359,10 @@
         <v>53459600</v>
       </c>
       <c r="I183">
-        <v>81.70987529754639</v>
+        <v>81.70987644195557</v>
       </c>
       <c r="J183">
-        <v>75.0289909362793</v>
+        <v>75.028991355896</v>
       </c>
       <c r="K183">
         <v>42.53108502490049</v>
@@ -7371,7 +7371,7 @@
         <v>0.003224946157304842</v>
       </c>
       <c r="M183">
-        <v>4.795735920075343</v>
+        <v>4.795734925855197</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7397,10 +7397,10 @@
         <v>46527700</v>
       </c>
       <c r="I184">
-        <v>81.839280128479</v>
+        <v>81.83928108215332</v>
       </c>
       <c r="J184">
-        <v>75.14129692077637</v>
+        <v>75.14129726409912</v>
       </c>
       <c r="K184">
         <v>36.98488564553931</v>
@@ -7409,7 +7409,7 @@
         <v>-0.01797219818893248</v>
       </c>
       <c r="M184">
-        <v>4.197512104899496</v>
+        <v>4.197510903587627</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7435,19 +7435,19 @@
         <v>43676100</v>
       </c>
       <c r="I185">
-        <v>82.02871322631836</v>
+        <v>82.02871417999268</v>
       </c>
       <c r="J185">
-        <v>75.27124130249024</v>
+        <v>75.27124164581299</v>
       </c>
       <c r="K185">
-        <v>42.25538634707421</v>
+        <v>42.25539219014482</v>
       </c>
       <c r="L185">
         <v>0.08212931030091752</v>
       </c>
       <c r="M185">
-        <v>3.54474367461288</v>
+        <v>3.544743348333134</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -7473,19 +7473,19 @@
         <v>41725900</v>
       </c>
       <c r="I186">
-        <v>82.21479148864746</v>
+        <v>82.21479244232178</v>
       </c>
       <c r="J186">
-        <v>75.43535415649414</v>
+        <v>75.43535457611084</v>
       </c>
       <c r="K186">
-        <v>52.87715755153455</v>
+        <v>52.87714891027313</v>
       </c>
       <c r="L186">
         <v>0.1116663551450916</v>
       </c>
       <c r="M186">
-        <v>3.604882262318639</v>
+        <v>3.604881929214915</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -7511,19 +7511,19 @@
         <v>43132700</v>
       </c>
       <c r="I187">
-        <v>82.48463039398193</v>
+        <v>82.48463115692138</v>
       </c>
       <c r="J187">
-        <v>75.6263500213623</v>
+        <v>75.62635051727295</v>
       </c>
       <c r="K187">
         <v>57.27213797770208</v>
       </c>
       <c r="L187">
-        <v>0.1589229354830248</v>
+        <v>0.1589230528640857</v>
       </c>
       <c r="M187">
-        <v>3.838901776691254</v>
+        <v>3.83890150101164</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -7549,19 +7549,19 @@
         <v>30240500</v>
       </c>
       <c r="I188">
-        <v>82.7490629196167</v>
+        <v>82.74906349182129</v>
       </c>
       <c r="J188">
-        <v>75.84582954406739</v>
+        <v>75.84582996368408</v>
       </c>
       <c r="K188">
-        <v>55.87585185587037</v>
+        <v>55.87584473164356</v>
       </c>
       <c r="L188">
         <v>0.09223536264938326</v>
       </c>
       <c r="M188">
-        <v>4.08416700118465</v>
+        <v>4.084166729132205</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -7572,34 +7572,34 @@
         <v>45681</v>
       </c>
       <c r="C189">
-        <v>86.25337982177734</v>
+        <v>86.25338745117188</v>
       </c>
       <c r="D189">
-        <v>88.32147420752896</v>
+        <v>88.32148201985322</v>
       </c>
       <c r="E189">
-        <v>85.5176182447051</v>
+        <v>85.51762580901911</v>
       </c>
       <c r="F189">
-        <v>87.92376258169699</v>
+        <v>87.92377035884235</v>
       </c>
       <c r="G189">
         <v>36239600</v>
       </c>
       <c r="I189">
-        <v>82.96678848266602</v>
+        <v>82.9667890548706</v>
       </c>
       <c r="J189">
-        <v>76.05295730590821</v>
+        <v>76.05295780181885</v>
       </c>
       <c r="K189">
-        <v>51.80516543709341</v>
+        <v>51.80517392925066</v>
       </c>
       <c r="L189">
-        <v>0.09491345843278487</v>
+        <v>0.09491355528147372</v>
       </c>
       <c r="M189">
-        <v>4.159245928904377</v>
+        <v>4.159246092856377</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -7625,19 +7625,19 @@
         <v>80910800</v>
       </c>
       <c r="I190">
-        <v>82.98643455505371</v>
+        <v>82.98643493652344</v>
       </c>
       <c r="J190">
-        <v>76.16209648132325</v>
+        <v>76.16209697723389</v>
       </c>
       <c r="K190">
-        <v>40.88948937806673</v>
+        <v>40.88949826470714</v>
       </c>
       <c r="L190">
         <v>-0.04811156349521761</v>
       </c>
       <c r="M190">
-        <v>3.969409352675092</v>
+        <v>3.96941012916306</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -7663,19 +7663,19 @@
         <v>50516700</v>
       </c>
       <c r="I191">
-        <v>83.06310329437255</v>
+        <v>83.06310367584229</v>
       </c>
       <c r="J191">
-        <v>76.36797107696533</v>
+        <v>76.36797157287597</v>
       </c>
       <c r="K191">
-        <v>44.8491526521887</v>
+        <v>44.84915410635064</v>
       </c>
       <c r="L191">
         <v>-0.02212489648005866</v>
       </c>
       <c r="M191">
-        <v>3.693588856143145</v>
+        <v>3.693589690615693</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -7686,16 +7686,16 @@
         <v>45686</v>
       </c>
       <c r="C192">
-        <v>81.66977691650391</v>
+        <v>81.66976928710938</v>
       </c>
       <c r="D192">
-        <v>82.5049721578835</v>
+        <v>82.50496445046703</v>
       </c>
       <c r="E192">
-        <v>79.80054198308321</v>
+        <v>79.80053452830812</v>
       </c>
       <c r="F192">
-        <v>82.43537318657845</v>
+        <v>82.43536548566375</v>
       </c>
       <c r="G192">
         <v>59240600</v>
@@ -7704,16 +7704,16 @@
         <v>83.17490978240967</v>
       </c>
       <c r="J192">
-        <v>76.57401020050048</v>
+        <v>76.57401058197021</v>
       </c>
       <c r="K192">
-        <v>47.54290434228305</v>
+        <v>47.54289796350174</v>
       </c>
       <c r="L192">
-        <v>-0.0644647264058914</v>
+        <v>-0.06446481380135116</v>
       </c>
       <c r="M192">
-        <v>3.629851452943649</v>
+        <v>3.629852237944739</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -7724,34 +7724,34 @@
         <v>45687</v>
       </c>
       <c r="C193">
-        <v>82.69387817382812</v>
+        <v>82.69387054443359</v>
       </c>
       <c r="D193">
-        <v>84.10574733548536</v>
+        <v>84.1057395758308</v>
       </c>
       <c r="E193">
-        <v>80.3971045667858</v>
+        <v>80.3970971492932</v>
       </c>
       <c r="F193">
-        <v>82.99216380999519</v>
+        <v>82.99215615308061</v>
       </c>
       <c r="G193">
         <v>57585500</v>
       </c>
       <c r="I193">
-        <v>83.26301765441895</v>
+        <v>83.26301746368408</v>
       </c>
       <c r="J193">
-        <v>76.78831474304199</v>
+        <v>76.78831504821777</v>
       </c>
       <c r="K193">
-        <v>51.95256437530553</v>
+        <v>51.95255561198243</v>
       </c>
       <c r="L193">
-        <v>-0.05852380701724214</v>
+        <v>-0.05852389387848844</v>
       </c>
       <c r="M193">
-        <v>3.64652070873769</v>
+        <v>3.646521334459516</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -7777,19 +7777,19 @@
         <v>59334600</v>
       </c>
       <c r="I194">
-        <v>83.27577362060546</v>
+        <v>83.27577323913575</v>
       </c>
       <c r="J194">
-        <v>77.04783138275147</v>
+        <v>77.04783176422119</v>
       </c>
       <c r="K194">
-        <v>53.80055554048221</v>
+        <v>53.80054556472773</v>
       </c>
       <c r="L194">
-        <v>-0.04645530990801483</v>
+        <v>-0.04645539425216472</v>
       </c>
       <c r="M194">
-        <v>3.604414420947161</v>
+        <v>3.604415393034707</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -7815,19 +7815,19 @@
         <v>76628500</v>
       </c>
       <c r="I195">
-        <v>83.22073040008544</v>
+        <v>83.22073001861573</v>
       </c>
       <c r="J195">
-        <v>77.26652114868165</v>
+        <v>77.26652156829834</v>
       </c>
       <c r="K195">
-        <v>52.14447713267897</v>
+        <v>52.14447645731384</v>
       </c>
       <c r="L195">
         <v>0.0199645983926553</v>
       </c>
       <c r="M195">
-        <v>3.537133765003449</v>
+        <v>3.537134790967203</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -7853,19 +7853,19 @@
         <v>42317300</v>
       </c>
       <c r="I196">
-        <v>83.16320343017578</v>
+        <v>83.16320285797119</v>
       </c>
       <c r="J196">
-        <v>77.49863723754883</v>
+        <v>77.49863761901855</v>
       </c>
       <c r="K196">
-        <v>51.3050748442021</v>
+        <v>51.30508222827991</v>
       </c>
       <c r="L196">
         <v>0.01209924534065054</v>
       </c>
       <c r="M196">
-        <v>3.5565206948229</v>
+        <v>3.55652178125812</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -7876,34 +7876,34 @@
         <v>45693</v>
       </c>
       <c r="C197">
-        <v>84.2548828125</v>
+        <v>84.25489044189453</v>
       </c>
       <c r="D197">
-        <v>84.33442665330979</v>
+        <v>84.33443428990714</v>
       </c>
       <c r="E197">
-        <v>81.29194680665779</v>
+        <v>81.29195416775444</v>
       </c>
       <c r="F197">
-        <v>81.87856556476413</v>
+        <v>81.8785729789799</v>
       </c>
       <c r="G197">
         <v>39847400</v>
       </c>
       <c r="I197">
-        <v>83.15035991668701</v>
+        <v>83.15035972595214</v>
       </c>
       <c r="J197">
-        <v>77.70336288452148</v>
+        <v>77.7033634185791</v>
       </c>
       <c r="K197">
-        <v>49.49100407116968</v>
+        <v>49.49101263481298</v>
       </c>
       <c r="L197">
-        <v>0.03165315240959954</v>
+        <v>0.0316533422017784</v>
       </c>
       <c r="M197">
-        <v>3.535917174954306</v>
+        <v>3.535918574558568</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -7914,34 +7914,34 @@
         <v>45694</v>
       </c>
       <c r="C198">
-        <v>85.51762390136719</v>
+        <v>85.51761627197266</v>
       </c>
       <c r="D198">
-        <v>85.63693208700573</v>
+        <v>85.63692444696721</v>
       </c>
       <c r="E198">
-        <v>83.70804309056729</v>
+        <v>83.70803562261324</v>
       </c>
       <c r="F198">
-        <v>84.47363176271698</v>
+        <v>84.47362422646147</v>
       </c>
       <c r="G198">
         <v>38215500</v>
       </c>
       <c r="I198">
-        <v>83.1145809173584</v>
+        <v>83.11458072662353</v>
       </c>
       <c r="J198">
-        <v>77.90184890747071</v>
+        <v>77.90184936523437</v>
       </c>
       <c r="K198">
-        <v>56.28938960417084</v>
+        <v>56.28937952419641</v>
       </c>
       <c r="L198">
-        <v>0.03414697423675506</v>
+        <v>0.03414697738717876</v>
       </c>
       <c r="M198">
-        <v>3.630212862926333</v>
+        <v>3.630213841742926</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -7967,10 +7967,10 @@
         <v>55435200</v>
       </c>
       <c r="I199">
-        <v>83.04805908203124</v>
+        <v>83.04805889129639</v>
       </c>
       <c r="J199">
-        <v>78.05912887573243</v>
+        <v>78.05912925720214</v>
       </c>
       <c r="K199">
         <v>52.2248732701912</v>
@@ -7979,7 +7979,7 @@
         <v>0.0001208696641910034</v>
       </c>
       <c r="M199">
-        <v>3.612798941934507</v>
+        <v>3.612799948123456</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -7990,34 +7990,34 @@
         <v>45698</v>
       </c>
       <c r="C200">
-        <v>85.14973449707031</v>
+        <v>85.14974212646484</v>
       </c>
       <c r="D200">
-        <v>85.70652622725602</v>
+        <v>85.70653390653895</v>
       </c>
       <c r="E200">
-        <v>84.01626128306746</v>
+        <v>84.01626881090309</v>
       </c>
       <c r="F200">
-        <v>84.24494793551854</v>
+        <v>84.24495548384442</v>
       </c>
       <c r="G200">
         <v>32797100</v>
       </c>
       <c r="I200">
-        <v>83.07691116333008</v>
+        <v>83.07691097259521</v>
       </c>
       <c r="J200">
-        <v>78.25423240661621</v>
+        <v>78.25423286437989</v>
       </c>
       <c r="K200">
-        <v>59.76069016068078</v>
+        <v>59.76069700245553</v>
       </c>
       <c r="L200">
-        <v>0.06095138543764733</v>
+        <v>0.06095148049862154</v>
       </c>
       <c r="M200">
-        <v>3.439545967758236</v>
+        <v>3.43954745794098</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8043,19 +8043,19 @@
         <v>31301400</v>
       </c>
       <c r="I201">
-        <v>82.97837181091309</v>
+        <v>82.97837162017822</v>
       </c>
       <c r="J201">
-        <v>78.44287574768066</v>
+        <v>78.44287620544434</v>
       </c>
       <c r="K201">
-        <v>60.01334892358296</v>
+        <v>60.01334550410525</v>
       </c>
       <c r="L201">
         <v>0.01649722829355871</v>
       </c>
       <c r="M201">
-        <v>3.083021154148915</v>
+        <v>3.083022874932883</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8066,16 +8066,16 @@
         <v>45700</v>
       </c>
       <c r="C202">
-        <v>84.71224975585938</v>
+        <v>84.71225738525391</v>
       </c>
       <c r="D202">
-        <v>85.11990625667505</v>
+        <v>85.11991392278412</v>
       </c>
       <c r="E202">
-        <v>81.62999794378408</v>
+        <v>81.6300052955834</v>
       </c>
       <c r="F202">
-        <v>81.80896779536101</v>
+        <v>81.80897516327879</v>
       </c>
       <c r="G202">
         <v>48493300</v>
@@ -8084,16 +8084,16 @@
         <v>82.92790908813477</v>
       </c>
       <c r="J202">
-        <v>78.64180313110352</v>
+        <v>78.64180366516113</v>
       </c>
       <c r="K202">
-        <v>60.52631083580226</v>
+        <v>60.5263243458123</v>
       </c>
       <c r="L202">
-        <v>0.005428373146956877</v>
+        <v>0.005428372655410296</v>
       </c>
       <c r="M202">
-        <v>2.562010271176053</v>
+        <v>2.56201140876489</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8104,34 +8104,34 @@
         <v>45701</v>
       </c>
       <c r="C203">
-        <v>88.28170776367188</v>
+        <v>88.28170013427734</v>
       </c>
       <c r="D203">
-        <v>88.45073274977889</v>
+        <v>88.45072510577705</v>
       </c>
       <c r="E203">
-        <v>85.09008485371523</v>
+        <v>85.09007750014396</v>
       </c>
       <c r="F203">
-        <v>85.48779650422259</v>
+        <v>85.48778911628068</v>
       </c>
       <c r="G203">
         <v>46460100</v>
       </c>
       <c r="I203">
-        <v>82.92010650634765</v>
+        <v>82.9201063156128</v>
       </c>
       <c r="J203">
-        <v>78.82743019104004</v>
+        <v>78.82743057250977</v>
       </c>
       <c r="K203">
-        <v>59.13184954047754</v>
+        <v>59.13184229977952</v>
       </c>
       <c r="L203">
-        <v>0.0323218038131261</v>
+        <v>0.03232180669669327</v>
       </c>
       <c r="M203">
-        <v>2.706869219199816</v>
+        <v>2.70686954663845</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8157,10 +8157,10 @@
         <v>38028700</v>
       </c>
       <c r="I204">
-        <v>82.84178218841552</v>
+        <v>82.84178199768067</v>
       </c>
       <c r="J204">
-        <v>79.02784286499023</v>
+        <v>79.02784332275391</v>
       </c>
       <c r="K204">
         <v>62.41218358325843</v>
@@ -8169,7 +8169,7 @@
         <v>0.08582146656637146</v>
       </c>
       <c r="M204">
-        <v>2.739175628848011</v>
+        <v>2.739175952424795</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -8198,16 +8198,16 @@
         <v>82.80834560394287</v>
       </c>
       <c r="J205">
-        <v>79.22868682861328</v>
+        <v>79.22868728637695</v>
       </c>
       <c r="K205">
         <v>59.21220025287843</v>
       </c>
       <c r="L205">
-        <v>0.05546475119136307</v>
+        <v>0.05546465662199851</v>
       </c>
       <c r="M205">
-        <v>2.995484857748225</v>
+        <v>2.995485153638122</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -8218,34 +8218,34 @@
         <v>45707</v>
       </c>
       <c r="C206">
-        <v>89.88249206542969</v>
+        <v>89.88248443603516</v>
       </c>
       <c r="D206">
-        <v>90.59837152244964</v>
+        <v>90.59836383228991</v>
       </c>
       <c r="E206">
-        <v>88.4109612275866</v>
+        <v>88.41095372309837</v>
       </c>
       <c r="F206">
-        <v>89.48478041311651</v>
+        <v>89.48477281748049</v>
       </c>
       <c r="G206">
         <v>34257900</v>
       </c>
       <c r="I206">
-        <v>83.02166481018067</v>
+        <v>83.02166442871093</v>
       </c>
       <c r="J206">
-        <v>79.41975227355957</v>
+        <v>79.4197526550293</v>
       </c>
       <c r="K206">
-        <v>57.74092374034673</v>
+        <v>57.74091520249554</v>
       </c>
       <c r="L206">
-        <v>0.06315424703891703</v>
+        <v>0.06315415679639025</v>
       </c>
       <c r="M206">
-        <v>3.223264853524612</v>
+        <v>3.223264495804429</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -8271,19 +8271,19 @@
         <v>40133000</v>
       </c>
       <c r="I207">
-        <v>83.23637962341309</v>
+        <v>83.23637924194335</v>
       </c>
       <c r="J207">
-        <v>79.5974031829834</v>
+        <v>79.59740356445313</v>
       </c>
       <c r="K207">
-        <v>52.09496745696187</v>
+        <v>52.09496835502727</v>
       </c>
       <c r="L207">
-        <v>0.04812217946856667</v>
+        <v>0.04812208507210181</v>
       </c>
       <c r="M207">
-        <v>3.300322774059679</v>
+        <v>3.300322433764683</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -8309,19 +8309,19 @@
         <v>59313600</v>
       </c>
       <c r="I208">
-        <v>83.26011810302734</v>
+        <v>83.26011753082275</v>
       </c>
       <c r="J208">
-        <v>79.70441116333008</v>
+        <v>79.70441146850585</v>
       </c>
       <c r="K208">
-        <v>44.33293761411365</v>
+        <v>44.33293548509496</v>
       </c>
       <c r="L208">
-        <v>-0.05721364829759246</v>
+        <v>-0.05721356682103473</v>
       </c>
       <c r="M208">
-        <v>3.243352605472589</v>
+        <v>3.243352230703233</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -8347,19 +8347,19 @@
         <v>53233700</v>
       </c>
       <c r="I209">
-        <v>83.15174198150635</v>
+        <v>83.15174140930176</v>
       </c>
       <c r="J209">
-        <v>79.7939778137207</v>
+        <v>79.79397811889649</v>
       </c>
       <c r="K209">
-        <v>42.84362657019862</v>
+        <v>42.84361619453747</v>
       </c>
       <c r="L209">
         <v>-0.1016365281872622</v>
       </c>
       <c r="M209">
-        <v>3.36335049039943</v>
+        <v>3.363349865534064</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -8370,34 +8370,34 @@
         <v>45713</v>
       </c>
       <c r="C210">
-        <v>77.1756591796875</v>
+        <v>77.17565155029297</v>
       </c>
       <c r="D210">
-        <v>79.91985381844329</v>
+        <v>79.91984591776448</v>
       </c>
       <c r="E210">
-        <v>75.34618850146435</v>
+        <v>75.34618105292677</v>
       </c>
       <c r="F210">
-        <v>79.87014459993874</v>
+        <v>79.87013670417406</v>
       </c>
       <c r="G210">
         <v>75597200</v>
       </c>
       <c r="I210">
-        <v>82.88279056549072</v>
+        <v>82.88278999328614</v>
       </c>
       <c r="J210">
-        <v>79.84737144470215</v>
+        <v>79.84737159729004</v>
       </c>
       <c r="K210">
-        <v>47.98623112676228</v>
+        <v>47.98622055128774</v>
       </c>
       <c r="L210">
-        <v>-0.1412765643890961</v>
+        <v>-0.1412766492803682</v>
       </c>
       <c r="M210">
-        <v>3.510954710511321</v>
+        <v>3.510954906214949</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -8423,19 +8423,19 @@
         <v>63175700</v>
       </c>
       <c r="I211">
-        <v>82.63099040985108</v>
+        <v>82.63098983764648</v>
       </c>
       <c r="J211">
-        <v>79.93615943908691</v>
+        <v>79.93615966796875</v>
       </c>
       <c r="K211">
         <v>43.4782618301834</v>
       </c>
       <c r="L211">
-        <v>-0.1358407099927528</v>
+        <v>-0.135840636641285</v>
       </c>
       <c r="M211">
-        <v>3.786075637528763</v>
+        <v>3.786075747356825</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -8461,19 +8461,19 @@
         <v>103375500</v>
       </c>
       <c r="I212">
-        <v>82.30735378265381</v>
+        <v>82.30735321044922</v>
       </c>
       <c r="J212">
-        <v>79.9579418182373</v>
+        <v>79.95794204711915</v>
       </c>
       <c r="K212">
-        <v>37.10073279271928</v>
+        <v>37.10073978745839</v>
       </c>
       <c r="L212">
         <v>-0.1977604040102686</v>
       </c>
       <c r="M212">
-        <v>4.732431318931152</v>
+        <v>4.73243111654106</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -8499,19 +8499,19 @@
         <v>93179000</v>
       </c>
       <c r="I213">
-        <v>82.14976100921631</v>
+        <v>82.14976043701172</v>
       </c>
       <c r="J213">
-        <v>80.01392211914063</v>
+        <v>80.01392234802246</v>
       </c>
       <c r="K213">
-        <v>40.39580756205296</v>
+        <v>40.39581477905031</v>
       </c>
       <c r="L213">
         <v>-0.1050054330160545</v>
       </c>
       <c r="M213">
-        <v>5.145625703229571</v>
+        <v>5.14562542025901</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -8537,10 +8537,10 @@
         <v>91945800</v>
       </c>
       <c r="I214">
-        <v>81.92480640411377</v>
+        <v>81.92480564117432</v>
       </c>
       <c r="J214">
-        <v>79.99750030517578</v>
+        <v>79.99750061035157</v>
       </c>
       <c r="K214">
         <v>36.64977314749004</v>
@@ -8549,7 +8549,7 @@
         <v>-0.1315984271876361</v>
       </c>
       <c r="M214">
-        <v>5.960119658816748</v>
+        <v>5.960119372180636</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -8560,34 +8560,34 @@
         <v>45720</v>
       </c>
       <c r="C215">
-        <v>68.91322326660156</v>
+        <v>68.91321563720703</v>
       </c>
       <c r="D215">
-        <v>72.35341512649778</v>
+        <v>72.35340711623904</v>
       </c>
       <c r="E215">
-        <v>65.63211910658725</v>
+        <v>65.63211184044431</v>
       </c>
       <c r="F215">
-        <v>68.36637636612537</v>
+        <v>68.36636879727234</v>
       </c>
       <c r="G215">
         <v>130836900</v>
       </c>
       <c r="I215">
-        <v>81.69314041137696</v>
+        <v>81.69313945770264</v>
       </c>
       <c r="J215">
-        <v>79.99690895080566</v>
+        <v>79.99690917968751</v>
       </c>
       <c r="K215">
-        <v>37.62741440860344</v>
+        <v>37.62740814689906</v>
       </c>
       <c r="L215">
-        <v>-0.1070601275182965</v>
+        <v>-0.1070601381019967</v>
       </c>
       <c r="M215">
-        <v>6.679741430635833</v>
+        <v>6.679741922602812</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -8598,34 +8598,34 @@
         <v>45721</v>
       </c>
       <c r="C216">
-        <v>71.59777069091797</v>
+        <v>71.59776306152344</v>
       </c>
       <c r="D216">
-        <v>72.2738782381393</v>
+        <v>72.27387053669935</v>
       </c>
       <c r="E216">
-        <v>67.10364182241175</v>
+        <v>67.10363467190759</v>
       </c>
       <c r="F216">
-        <v>69.15185421924875</v>
+        <v>69.15184685048889</v>
       </c>
       <c r="G216">
         <v>100633300</v>
       </c>
       <c r="I216">
-        <v>81.43487739562988</v>
+        <v>81.43487644195557</v>
       </c>
       <c r="J216">
-        <v>79.99323539733886</v>
+        <v>79.99323554992675</v>
       </c>
       <c r="K216">
-        <v>37.31473561996523</v>
+        <v>37.3147293791652</v>
       </c>
       <c r="L216">
-        <v>-0.07821297258899362</v>
+        <v>-0.07821307081379647</v>
       </c>
       <c r="M216">
-        <v>7.056236790901376</v>
+        <v>7.056237745166536</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -8636,34 +8636,34 @@
         <v>45722</v>
       </c>
       <c r="C217">
-        <v>65.66194152832031</v>
+        <v>65.66194915771484</v>
       </c>
       <c r="D217">
-        <v>70.09640844293463</v>
+        <v>70.0964165875789</v>
       </c>
       <c r="E217">
-        <v>64.79691928901693</v>
+        <v>64.79692681790276</v>
       </c>
       <c r="F217">
-        <v>67.99848695927443</v>
+        <v>67.99849486015692</v>
       </c>
       <c r="G217">
         <v>122822700</v>
       </c>
       <c r="I217">
-        <v>80.95837097167968</v>
+        <v>80.95837020874023</v>
       </c>
       <c r="J217">
-        <v>79.91286125183106</v>
+        <v>79.91286155700683</v>
       </c>
       <c r="K217">
-        <v>31.57999918368951</v>
+        <v>31.57999361463604</v>
       </c>
       <c r="L217">
-        <v>-0.07816859522615249</v>
+        <v>-0.07816848811668675</v>
       </c>
       <c r="M217">
-        <v>7.833953075896388</v>
+        <v>7.833952839449834</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -8689,19 +8689,19 @@
         <v>135177300</v>
       </c>
       <c r="I218">
-        <v>80.63001155853271</v>
+        <v>80.63001079559326</v>
       </c>
       <c r="J218">
-        <v>79.84868530273438</v>
+        <v>79.8486856842041</v>
       </c>
       <c r="K218">
-        <v>31.71451327147908</v>
+        <v>31.71451805629316</v>
       </c>
       <c r="L218">
         <v>-0.1002401958766033</v>
       </c>
       <c r="M218">
-        <v>8.278249803950462</v>
+        <v>8.278249738215072</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -8727,10 +8727,10 @@
         <v>156135800</v>
       </c>
       <c r="I219">
-        <v>80.11124849319458</v>
+        <v>80.11124773025513</v>
       </c>
       <c r="J219">
-        <v>79.70706157684326</v>
+        <v>79.70706195831299</v>
       </c>
       <c r="K219">
         <v>29.23161310997637</v>
@@ -8739,7 +8739,7 @@
         <v>-0.1465468082464555</v>
       </c>
       <c r="M219">
-        <v>9.372823424512671</v>
+        <v>9.372823268823073</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -8765,19 +8765,19 @@
         <v>139489300</v>
       </c>
       <c r="I220">
-        <v>79.67078447341919</v>
+        <v>79.67078371047974</v>
       </c>
       <c r="J220">
-        <v>79.53964931488036</v>
+        <v>79.53964962005615</v>
       </c>
       <c r="K220">
-        <v>24.95753019025113</v>
+        <v>24.95751931947471</v>
       </c>
       <c r="L220">
-        <v>-0.1471649229446159</v>
+        <v>-0.1471648285270907</v>
       </c>
       <c r="M220">
-        <v>10.18575816597559</v>
+        <v>10.18575759852476</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -8803,19 +8803,19 @@
         <v>141918600</v>
       </c>
       <c r="I221">
-        <v>79.30041685104371</v>
+        <v>79.30041608810424</v>
       </c>
       <c r="J221">
-        <v>79.42244716644286</v>
+        <v>79.42244747161865</v>
       </c>
       <c r="K221">
-        <v>28.02501745123004</v>
+        <v>28.02501124964388</v>
       </c>
       <c r="L221">
-        <v>-0.1510901582754389</v>
+        <v>-0.1510900678163543</v>
       </c>
       <c r="M221">
-        <v>10.63881394458458</v>
+        <v>10.63881326676257</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -8841,19 +8841,19 @@
         <v>121227300</v>
       </c>
       <c r="I222">
-        <v>78.85373859405517</v>
+        <v>78.85373802185059</v>
       </c>
       <c r="J222">
-        <v>79.27243270874024</v>
+        <v>79.27243301391601</v>
       </c>
       <c r="K222">
-        <v>26.18593953197551</v>
+        <v>26.18592333970733</v>
       </c>
       <c r="L222">
-        <v>-0.1249242718419528</v>
+        <v>-0.1249243735187696</v>
       </c>
       <c r="M222">
-        <v>11.17438031426254</v>
+        <v>11.17437915421677</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -8879,19 +8879,19 @@
         <v>99108500</v>
       </c>
       <c r="I223">
-        <v>78.38170642852783</v>
+        <v>78.38170585632324</v>
       </c>
       <c r="J223">
-        <v>79.1610033416748</v>
+        <v>79.16100364685059</v>
       </c>
       <c r="K223">
-        <v>26.83430833587525</v>
+        <v>26.83431188234945</v>
       </c>
       <c r="L223">
         <v>-0.08188701105056206</v>
       </c>
       <c r="M223">
-        <v>11.03485415361619</v>
+        <v>11.03485333526402</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -8917,19 +8917,19 @@
         <v>90150400</v>
       </c>
       <c r="I224">
-        <v>77.98051633834839</v>
+        <v>77.9805157661438</v>
       </c>
       <c r="J224">
-        <v>79.04862255096435</v>
+        <v>79.04862285614014</v>
       </c>
       <c r="K224">
-        <v>27.03538235300903</v>
+        <v>27.03537629959331</v>
       </c>
       <c r="L224">
         <v>0.05484032184843279</v>
       </c>
       <c r="M224">
-        <v>10.57542776703563</v>
+        <v>10.5754267617068</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -8955,19 +8955,19 @@
         <v>87826200</v>
       </c>
       <c r="I225">
-        <v>77.40309104919433</v>
+        <v>77.40309047698975</v>
       </c>
       <c r="J225">
-        <v>78.90056068420409</v>
+        <v>78.90056106567383</v>
       </c>
       <c r="K225">
-        <v>24.95070011791864</v>
+        <v>24.95069379933419</v>
       </c>
       <c r="L225">
         <v>0.01353411188147224</v>
       </c>
       <c r="M225">
-        <v>10.00702384425121</v>
+        <v>10.00702259941096</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -8993,19 +8993,19 @@
         <v>92593200</v>
       </c>
       <c r="I226">
-        <v>76.84927978515626</v>
+        <v>76.84927921295166</v>
       </c>
       <c r="J226">
-        <v>78.77348533630371</v>
+        <v>78.77348571777344</v>
       </c>
       <c r="K226">
-        <v>27.70741200738613</v>
+        <v>27.70741537356538</v>
       </c>
       <c r="L226">
         <v>0.01815801870894629</v>
       </c>
       <c r="M226">
-        <v>9.033681472961488</v>
+        <v>9.033680840214206</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9016,34 +9016,34 @@
         <v>45736</v>
       </c>
       <c r="C227">
-        <v>61.24736022949219</v>
+        <v>61.24735641479492</v>
       </c>
       <c r="D227">
-        <v>63.26574177528713</v>
+        <v>63.26573783487809</v>
       </c>
       <c r="E227">
-        <v>60.02440200040867</v>
+        <v>60.02439826188147</v>
       </c>
       <c r="F227">
-        <v>60.31274276307359</v>
+        <v>60.31273900658752</v>
       </c>
       <c r="G227">
         <v>88409100</v>
       </c>
       <c r="I227">
-        <v>76.19802932739258</v>
+        <v>76.19802865982055</v>
       </c>
       <c r="J227">
-        <v>78.6745327758789</v>
+        <v>78.67453311920166</v>
       </c>
       <c r="K227">
-        <v>27.91068817693038</v>
+        <v>27.9106864690544</v>
       </c>
       <c r="L227">
-        <v>0.06592836006747049</v>
+        <v>0.06592829367776831</v>
       </c>
       <c r="M227">
-        <v>7.86507375213356</v>
+        <v>7.865073044826092</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9069,19 +9069,19 @@
         <v>80491000</v>
       </c>
       <c r="I228">
-        <v>75.54777345657348</v>
+        <v>75.54777278900147</v>
       </c>
       <c r="J228">
-        <v>78.56440128326416</v>
+        <v>78.56440162658691</v>
       </c>
       <c r="K228">
-        <v>31.33992151771869</v>
+        <v>31.3399239996869</v>
       </c>
       <c r="L228">
         <v>0.004685760166593722</v>
       </c>
       <c r="M228">
-        <v>7.026022908029023</v>
+        <v>7.026021963326302</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9107,19 +9107,19 @@
         <v>63411500</v>
       </c>
       <c r="I229">
-        <v>75.03522462844849</v>
+        <v>75.0352237701416</v>
       </c>
       <c r="J229">
-        <v>78.48125545501709</v>
+        <v>78.4812557220459</v>
       </c>
       <c r="K229">
-        <v>37.57462445811994</v>
+        <v>37.57462608431622</v>
       </c>
       <c r="L229">
         <v>0.0481850903920078</v>
       </c>
       <c r="M229">
-        <v>6.231270196781164</v>
+        <v>6.231269014897865</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9145,19 +9145,19 @@
         <v>55569700</v>
       </c>
       <c r="I230">
-        <v>74.7411675453186</v>
+        <v>74.74116668701171</v>
       </c>
       <c r="J230">
-        <v>78.4091482925415</v>
+        <v>78.40914863586426</v>
       </c>
       <c r="K230">
-        <v>40.91308723792798</v>
+        <v>40.91309400094601</v>
       </c>
       <c r="L230">
         <v>0.1235185132173959</v>
       </c>
       <c r="M230">
-        <v>5.63249112734339</v>
+        <v>5.632490581473216</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9183,19 +9183,19 @@
         <v>78503200</v>
       </c>
       <c r="I231">
-        <v>74.26682338714599</v>
+        <v>74.26682252883911</v>
       </c>
       <c r="J231">
-        <v>78.27931213378906</v>
+        <v>78.27931240081787</v>
       </c>
       <c r="K231">
-        <v>37.86703533945126</v>
+        <v>37.86703378708402</v>
       </c>
       <c r="L231">
         <v>0.02132052884769498</v>
       </c>
       <c r="M231">
-        <v>4.817882115681655</v>
+        <v>4.817881387067098</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9221,19 +9221,19 @@
         <v>72368000</v>
       </c>
       <c r="I232">
-        <v>73.77823152542115</v>
+        <v>73.77823085784912</v>
       </c>
       <c r="J232">
-        <v>78.15565189361573</v>
+        <v>78.15565216064454</v>
       </c>
       <c r="K232">
-        <v>41.61155037535177</v>
+        <v>41.61154919594984</v>
       </c>
       <c r="L232">
-        <v>0.0143474300724955</v>
+        <v>0.01434749324956286</v>
       </c>
       <c r="M232">
-        <v>4.571031532990146</v>
+        <v>4.571030705048172</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9259,19 +9259,19 @@
         <v>103632100</v>
       </c>
       <c r="I233">
-        <v>73.14038324356079</v>
+        <v>73.14038276672363</v>
       </c>
       <c r="J233">
-        <v>78.03921421051025</v>
+        <v>78.03921447753906</v>
       </c>
       <c r="K233">
-        <v>34.52943957495859</v>
+        <v>34.52943746532942</v>
       </c>
       <c r="L233">
         <v>-0.07511790883345826</v>
       </c>
       <c r="M233">
-        <v>4.101101541221688</v>
+        <v>4.101100491286076</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -9297,19 +9297,19 @@
         <v>106854500</v>
       </c>
       <c r="I234">
-        <v>72.51272344589233</v>
+        <v>72.51272296905518</v>
       </c>
       <c r="J234">
-        <v>77.90771106719971</v>
+        <v>77.90771133422851</v>
       </c>
       <c r="K234">
-        <v>37.74945097342921</v>
+        <v>37.74944914710978</v>
       </c>
       <c r="L234">
         <v>-0.130968508283254</v>
       </c>
       <c r="M234">
-        <v>4.01053577201297</v>
+        <v>4.010534604211298</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -9335,19 +9335,19 @@
         <v>97098200</v>
       </c>
       <c r="I235">
-        <v>71.96768522262573</v>
+        <v>71.96768474578857</v>
       </c>
       <c r="J235">
-        <v>77.79591159820556</v>
+        <v>77.79591186523437</v>
       </c>
       <c r="K235">
-        <v>39.89227820497599</v>
+        <v>39.89228259800238</v>
       </c>
       <c r="L235">
         <v>-0.1265346929702061</v>
       </c>
       <c r="M235">
-        <v>3.812590965850354</v>
+        <v>3.812590381186822</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -9373,19 +9373,19 @@
         <v>123087400</v>
       </c>
       <c r="I236">
-        <v>71.38247480392457</v>
+        <v>71.38247432708741</v>
       </c>
       <c r="J236">
-        <v>77.67071636199951</v>
+        <v>77.67071662902832</v>
       </c>
       <c r="K236">
-        <v>38.24694237482917</v>
+        <v>38.24694638946836</v>
       </c>
       <c r="L236">
         <v>-0.05443361124739876</v>
       </c>
       <c r="M236">
-        <v>3.098872549701015</v>
+        <v>3.098873110241373</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -9411,19 +9411,19 @@
         <v>140115700</v>
       </c>
       <c r="I237">
-        <v>70.53009271621704</v>
+        <v>70.53009204864502</v>
       </c>
       <c r="J237">
-        <v>77.39082378387451</v>
+        <v>77.39082405090332</v>
       </c>
       <c r="K237">
-        <v>35.65026129943503</v>
+        <v>35.65025423728812</v>
       </c>
       <c r="L237">
         <v>-0.192616350807151</v>
       </c>
       <c r="M237">
-        <v>3.834687567196242</v>
+        <v>3.834687535902325</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -9449,19 +9449,19 @@
         <v>258026700</v>
       </c>
       <c r="I238">
-        <v>69.41653480529786</v>
+        <v>69.4165343284607</v>
       </c>
       <c r="J238">
-        <v>76.98252098083496</v>
+        <v>76.98252124786377</v>
       </c>
       <c r="K238">
-        <v>28.93795851769144</v>
+        <v>28.93796111625488</v>
       </c>
       <c r="L238">
         <v>-0.2833972452496367</v>
       </c>
       <c r="M238">
-        <v>5.581508027133281</v>
+        <v>5.581507958782932</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -9487,19 +9487,19 @@
         <v>395727600</v>
       </c>
       <c r="I239">
-        <v>68.38849649429321</v>
+        <v>68.38849601745605</v>
       </c>
       <c r="J239">
-        <v>76.57383182525635</v>
+        <v>76.57383209228516</v>
       </c>
       <c r="K239">
-        <v>33.16283223120378</v>
+        <v>33.16283459076098</v>
       </c>
       <c r="L239">
         <v>-0.2801046991092284</v>
       </c>
       <c r="M239">
-        <v>6.908356714922417</v>
+        <v>6.908356633060012</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -9525,19 +9525,19 @@
         <v>251147700</v>
       </c>
       <c r="I240">
-        <v>67.22953863143921</v>
+        <v>67.22953796386719</v>
       </c>
       <c r="J240">
-        <v>76.14319469451904</v>
+        <v>76.14319496154785</v>
       </c>
       <c r="K240">
-        <v>32.18876948283145</v>
+        <v>32.18877190557895</v>
       </c>
       <c r="L240">
         <v>-0.3364039439341769</v>
       </c>
       <c r="M240">
-        <v>8.183431476618699</v>
+        <v>8.183431383001546</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -9563,19 +9563,19 @@
         <v>356932000</v>
       </c>
       <c r="I241">
-        <v>66.42753667831421</v>
+        <v>66.42753601074219</v>
       </c>
       <c r="J241">
-        <v>75.85373432159423</v>
+        <v>75.8537345123291</v>
       </c>
       <c r="K241">
-        <v>43.86225006182157</v>
+        <v>43.86225075297872</v>
       </c>
       <c r="L241">
         <v>-0.12214250616509</v>
       </c>
       <c r="M241">
-        <v>8.215571981227987</v>
+        <v>8.215571877814577</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -9601,19 +9601,19 @@
         <v>281692700</v>
       </c>
       <c r="I242">
-        <v>65.46001062393188</v>
+        <v>65.460009765625</v>
       </c>
       <c r="J242">
-        <v>75.50332202911378</v>
+        <v>75.50332221984863</v>
       </c>
       <c r="K242">
-        <v>41.92475871670985</v>
+        <v>41.92475958587598</v>
       </c>
       <c r="L242">
         <v>-0.08270384495048233</v>
       </c>
       <c r="M242">
-        <v>8.574033229431535</v>
+        <v>8.574033116938057</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -9639,19 +9639,19 @@
         <v>179292900</v>
       </c>
       <c r="I243">
-        <v>64.46407794952393</v>
+        <v>64.4640772819519</v>
       </c>
       <c r="J243">
-        <v>75.19438568115234</v>
+        <v>75.19438587188721</v>
       </c>
       <c r="K243">
-        <v>40.54640373524217</v>
+        <v>40.54640477691525</v>
       </c>
       <c r="L243">
         <v>0.1822827889505598</v>
       </c>
       <c r="M243">
-        <v>8.664046762984704</v>
+        <v>8.664046636491598</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -9677,19 +9677,19 @@
         <v>147430700</v>
       </c>
       <c r="I244">
-        <v>63.4677227973938</v>
+        <v>63.46772212982178</v>
       </c>
       <c r="J244">
-        <v>74.95299877166748</v>
+        <v>74.9529988861084</v>
       </c>
       <c r="K244">
-        <v>40.39490831585993</v>
+        <v>40.39490937692285</v>
       </c>
       <c r="L244">
         <v>0.2024241840846417</v>
       </c>
       <c r="M244">
-        <v>8.612464887076534</v>
+        <v>8.612464744361496</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -9715,19 +9715,19 @@
         <v>104670100</v>
       </c>
       <c r="I245">
-        <v>62.46218481063843</v>
+        <v>62.46218414306641</v>
       </c>
       <c r="J245">
-        <v>74.69864177703857</v>
+        <v>74.6986418914795</v>
       </c>
       <c r="K245">
-        <v>42.49826599330778</v>
+        <v>42.49826685928467</v>
       </c>
       <c r="L245">
         <v>0.279948604269197</v>
       </c>
       <c r="M245">
-        <v>8.628718260671882</v>
+        <v>8.628718106689341</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -9753,19 +9753,19 @@
         <v>134574400</v>
       </c>
       <c r="I246">
-        <v>61.3442120552063</v>
+        <v>61.34421157836914</v>
       </c>
       <c r="J246">
-        <v>74.38434741973877</v>
+        <v>74.38434753417968</v>
       </c>
       <c r="K246">
-        <v>37.75302832629711</v>
+        <v>37.75302969509136</v>
       </c>
       <c r="L246">
         <v>-0.139137054730275</v>
       </c>
       <c r="M246">
-        <v>8.69859717781765</v>
+        <v>8.698597005776122</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -9791,19 +9791,19 @@
         <v>101095800</v>
       </c>
       <c r="I247">
-        <v>60.25034103393555</v>
+        <v>60.25034055709839</v>
       </c>
       <c r="J247">
-        <v>74.06964866638184</v>
+        <v>74.0696487045288</v>
       </c>
       <c r="K247">
-        <v>38.03536022350102</v>
+        <v>38.0353637121651</v>
       </c>
       <c r="L247">
         <v>-0.02123962054002626</v>
       </c>
       <c r="M247">
-        <v>8.722853614812733</v>
+        <v>8.722853614812564</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -9829,10 +9829,10 @@
         <v>114769700</v>
       </c>
       <c r="I248">
-        <v>59.21315021514893</v>
+        <v>59.21314973831177</v>
       </c>
       <c r="J248">
-        <v>73.71451049804688</v>
+        <v>73.7145104598999</v>
       </c>
       <c r="K248">
         <v>35.75210614600169</v>
@@ -9841,7 +9841,7 @@
         <v>-0.1383285631638449</v>
       </c>
       <c r="M248">
-        <v>8.806935912919108</v>
+        <v>8.806935912918924</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -9867,10 +9867,10 @@
         <v>130111400</v>
       </c>
       <c r="I249">
-        <v>58.33055553436279</v>
+        <v>58.33055505752564</v>
       </c>
       <c r="J249">
-        <v>73.38840919494629</v>
+        <v>73.38840908050537</v>
       </c>
       <c r="K249">
         <v>35.07371045005256</v>
@@ -9879,7 +9879,7 @@
         <v>-0.09153220074981983</v>
       </c>
       <c r="M249">
-        <v>8.309653788894801</v>
+        <v>8.309653788894586</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -9905,10 +9905,10 @@
         <v>151997700</v>
       </c>
       <c r="I250">
-        <v>57.59906101226807</v>
+        <v>57.59906072616577</v>
       </c>
       <c r="J250">
-        <v>73.08855690002441</v>
+        <v>73.08855670928955</v>
       </c>
       <c r="K250">
         <v>36.71489753783678</v>
@@ -9917,7 +9917,7 @@
         <v>-0.03494682352521772</v>
       </c>
       <c r="M250">
-        <v>7.424888125905643</v>
+        <v>7.424888125905382</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -9943,10 +9943,10 @@
         <v>120307700</v>
       </c>
       <c r="I251">
-        <v>56.95710277557373</v>
+        <v>56.95710248947144</v>
       </c>
       <c r="J251">
-        <v>72.81740043640137</v>
+        <v>72.81740024566651</v>
       </c>
       <c r="K251">
         <v>42.20526854368941</v>
@@ -9955,7 +9955,7 @@
         <v>0.1512475081005209</v>
       </c>
       <c r="M251">
-        <v>6.768916951256642</v>
+        <v>6.768916951256345</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -9981,10 +9981,10 @@
         <v>113051600</v>
       </c>
       <c r="I252">
-        <v>56.51909732818604</v>
+        <v>56.51909704208374</v>
       </c>
       <c r="J252">
-        <v>72.58252189636231</v>
+        <v>72.5825216293335</v>
       </c>
       <c r="K252">
         <v>44.19851748589058</v>
@@ -9993,7 +9993,7 @@
         <v>0.1926483681718307</v>
       </c>
       <c r="M252">
-        <v>6.173292146729168</v>
+        <v>6.173292146728831</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10019,10 +10019,10 @@
         <v>95678400</v>
       </c>
       <c r="I253">
-        <v>55.99856405258178</v>
+        <v>55.99856376647949</v>
       </c>
       <c r="J253">
-        <v>72.3275239944458</v>
+        <v>72.32752372741699</v>
       </c>
       <c r="K253">
         <v>47.40489626505931</v>
@@ -10031,7 +10031,7 @@
         <v>0.285714298769282</v>
       </c>
       <c r="M253">
-        <v>5.975409182151666</v>
+        <v>5.975409182151314</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10057,10 +10057,10 @@
         <v>84904000</v>
       </c>
       <c r="I254">
-        <v>55.62451467514038</v>
+        <v>55.62451438903808</v>
       </c>
       <c r="J254">
-        <v>72.05733028411865</v>
+        <v>72.0573299407959</v>
       </c>
       <c r="K254">
         <v>48.23478117335565</v>
@@ -10069,7 +10069,7 @@
         <v>0.2177096684861959</v>
       </c>
       <c r="M254">
-        <v>5.820621060851074</v>
+        <v>5.820621060850709</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -10095,10 +10095,10 @@
         <v>134223300</v>
       </c>
       <c r="I255">
-        <v>55.26985445022583</v>
+        <v>55.2698543548584</v>
       </c>
       <c r="J255">
-        <v>71.7800020980835</v>
+        <v>71.78000175476075</v>
       </c>
       <c r="K255">
         <v>47.23045047862504</v>
@@ -10107,7 +10107,7 @@
         <v>0.1421436111858583</v>
       </c>
       <c r="M255">
-        <v>5.545150320895694</v>
+        <v>5.545150320895305</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -10133,10 +10133,10 @@
         <v>102740800</v>
       </c>
       <c r="I256">
-        <v>54.89519863128662</v>
+        <v>54.89519872665405</v>
       </c>
       <c r="J256">
-        <v>71.49139533996582</v>
+        <v>71.49139492034912</v>
       </c>
       <c r="K256">
         <v>47.67988233350535</v>
@@ -10145,7 +10145,7 @@
         <v>0.08879939862227793</v>
       </c>
       <c r="M256">
-        <v>5.245664691344967</v>
+        <v>5.245664691344551</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -10171,10 +10171,10 @@
         <v>97548900</v>
       </c>
       <c r="I257">
-        <v>54.73525295257569</v>
+        <v>54.73525285720825</v>
       </c>
       <c r="J257">
-        <v>71.23635025024414</v>
+        <v>71.23634990692139</v>
       </c>
       <c r="K257">
         <v>57.46768988699471</v>
@@ -10183,7 +10183,7 @@
         <v>0.1034162316066305</v>
       </c>
       <c r="M257">
-        <v>5.77762092303246</v>
+        <v>5.777620923032094</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -10209,10 +10209,10 @@
         <v>69289500</v>
       </c>
       <c r="I258">
-        <v>54.51557521820068</v>
+        <v>54.51557512283325</v>
       </c>
       <c r="J258">
-        <v>70.94923233032226</v>
+        <v>70.94923206329345</v>
       </c>
       <c r="K258">
         <v>66.34560735419707</v>
@@ -10221,7 +10221,7 @@
         <v>0.08509852970412202</v>
       </c>
       <c r="M258">
-        <v>5.832983386238229</v>
+        <v>5.832983386237888</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -10247,10 +10247,10 @@
         <v>82942900</v>
       </c>
       <c r="I259">
-        <v>54.44342555999756</v>
+        <v>54.44342546463012</v>
       </c>
       <c r="J259">
-        <v>70.66587589263916</v>
+        <v>70.66587562561035</v>
       </c>
       <c r="K259">
         <v>64.22405465486554</v>
@@ -10259,7 +10259,7 @@
         <v>0.03408055610786964</v>
       </c>
       <c r="M259">
-        <v>5.661558591772867</v>
+        <v>5.661558591772538</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -10285,10 +10285,10 @@
         <v>103933600</v>
       </c>
       <c r="I260">
-        <v>54.40512971878051</v>
+        <v>54.40512962341309</v>
       </c>
       <c r="J260">
-        <v>70.39831718444825</v>
+        <v>70.39831684112549</v>
       </c>
       <c r="K260">
         <v>67.53221677748482</v>
@@ -10297,7 +10297,7 @@
         <v>0.04591837090328332</v>
       </c>
       <c r="M260">
-        <v>5.139843935965692</v>
+        <v>5.139843935965355</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -10323,10 +10323,10 @@
         <v>98810800</v>
       </c>
       <c r="I261">
-        <v>54.35925359725952</v>
+        <v>54.35925350189209</v>
       </c>
       <c r="J261">
-        <v>70.10291923522949</v>
+        <v>70.10291889190674</v>
       </c>
       <c r="K261">
         <v>57.97350168481623</v>
@@ -10335,7 +10335,7 @@
         <v>0.04121897189255663</v>
       </c>
       <c r="M261">
-        <v>5.409126528284574</v>
+        <v>5.409126528284263</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -10361,10 +10361,10 @@
         <v>73409400</v>
       </c>
       <c r="I262">
-        <v>54.39290933609009</v>
+        <v>54.39290924072266</v>
       </c>
       <c r="J262">
-        <v>69.82366565704346</v>
+        <v>69.82366531372071</v>
       </c>
       <c r="K262">
         <v>68.63201045905933</v>
@@ -10373,7 +10373,7 @@
         <v>-0.007740156691683375</v>
       </c>
       <c r="M262">
-        <v>5.456927147417299</v>
+        <v>5.456927147417008</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -10399,10 +10399,10 @@
         <v>101245000</v>
       </c>
       <c r="I263">
-        <v>54.5026535987854</v>
+        <v>54.50265350341797</v>
       </c>
       <c r="J263">
-        <v>69.59698223114013</v>
+        <v>69.59698188781738</v>
       </c>
       <c r="K263">
         <v>72.39969095898617</v>
@@ -10411,7 +10411,7 @@
         <v>0.1320204961484894</v>
       </c>
       <c r="M263">
-        <v>6.155040216943585</v>
+        <v>6.155040216943348</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -10437,10 +10437,10 @@
         <v>85297700</v>
       </c>
       <c r="I264">
-        <v>54.65810794830323</v>
+        <v>54.65810785293579</v>
       </c>
       <c r="J264">
-        <v>69.36196498870849</v>
+        <v>69.36196464538574</v>
       </c>
       <c r="K264">
         <v>73.74817297427376</v>
@@ -10449,7 +10449,7 @@
         <v>0.2185406228322566</v>
       </c>
       <c r="M264">
-        <v>7.01190445352231</v>
+        <v>7.011904453522122</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -10475,10 +10475,10 @@
         <v>80592400</v>
       </c>
       <c r="I265">
-        <v>54.9230221748352</v>
+        <v>54.92302207946777</v>
       </c>
       <c r="J265">
-        <v>69.15150096893311</v>
+        <v>69.1515007019043</v>
       </c>
       <c r="K265">
         <v>74.38937327712986</v>
@@ -10487,7 +10487,7 @@
         <v>0.2257839602827445</v>
       </c>
       <c r="M265">
-        <v>7.77191735505257</v>
+        <v>7.77191735505242</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -10513,10 +10513,10 @@
         <v>80847400</v>
       </c>
       <c r="I266">
-        <v>55.13550462722778</v>
+        <v>55.13550453186035</v>
       </c>
       <c r="J266">
-        <v>69.04183368682861</v>
+        <v>69.04183334350586</v>
       </c>
       <c r="K266">
         <v>83.37292648334483</v>
@@ -10525,7 +10525,7 @@
         <v>0.1940450735434971</v>
       </c>
       <c r="M266">
-        <v>8.094229900509074</v>
+        <v>8.094229900508955</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -10554,7 +10554,7 @@
         <v>55.3855845451355</v>
       </c>
       <c r="J267">
-        <v>68.95233730316163</v>
+        <v>68.95233695983887</v>
       </c>
       <c r="K267">
         <v>84.02795306760359</v>
@@ -10563,7 +10563,7 @@
         <v>0.2116328758560468</v>
       </c>
       <c r="M267">
-        <v>8.264514640181558</v>
+        <v>8.264514640181465</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -10592,7 +10592,7 @@
         <v>55.6259843826294</v>
       </c>
       <c r="J268">
-        <v>68.84392513275147</v>
+        <v>68.84392471313477</v>
       </c>
       <c r="K268">
         <v>91.92004750702289</v>
@@ -10601,7 +10601,7 @@
         <v>0.08364846916143676</v>
       </c>
       <c r="M268">
-        <v>7.889276713432021</v>
+        <v>7.889276713431951</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -10630,7 +10630,7 @@
         <v>55.74950180053711</v>
       </c>
       <c r="J269">
-        <v>68.70511577606202</v>
+        <v>68.70511535644532</v>
       </c>
       <c r="K269">
         <v>89.05351638375626</v>
@@ -10639,7 +10639,7 @@
         <v>0.02531099293550465</v>
       </c>
       <c r="M269">
-        <v>7.519066902214218</v>
+        <v>7.519066902214171</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -10668,7 +10668,7 @@
         <v>55.77014427185058</v>
       </c>
       <c r="J270">
-        <v>68.50328227996826</v>
+        <v>68.50328193664551</v>
       </c>
       <c r="K270">
         <v>80.10900757269198</v>
@@ -10677,7 +10677,7 @@
         <v>-0.0343944490089908</v>
       </c>
       <c r="M270">
-        <v>7.057318535396403</v>
+        <v>7.057318535396375</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -10706,7 +10706,7 @@
         <v>55.89255151748657</v>
       </c>
       <c r="J271">
-        <v>68.3068281173706</v>
+        <v>68.30682777404785</v>
       </c>
       <c r="K271">
         <v>77.56914737587508</v>
@@ -10715,7 +10715,7 @@
         <v>-0.03244555155204631</v>
       </c>
       <c r="M271">
-        <v>6.824258433133584</v>
+        <v>6.824258433133573</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -10744,7 +10744,7 @@
         <v>55.99277095794677</v>
       </c>
       <c r="J272">
-        <v>68.12642345428466</v>
+        <v>68.12642311096191</v>
       </c>
       <c r="K272">
         <v>71.09005383758904</v>
@@ -10753,7 +10753,7 @@
         <v>-0.07179841252011865</v>
       </c>
       <c r="M272">
-        <v>6.555802950920985</v>
+        <v>6.555802950920986</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -10782,7 +10782,7 @@
         <v>56.33182201385498</v>
       </c>
       <c r="J273">
-        <v>68.02589519500732</v>
+        <v>68.02589485168457</v>
       </c>
       <c r="K273">
         <v>75.08794049992022</v>
@@ -10791,7 +10791,7 @@
         <v>-0.009771045649474286</v>
       </c>
       <c r="M273">
-        <v>6.389194901952378</v>
+        <v>6.3891949019524</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -10820,7 +10820,7 @@
         <v>56.64918365478515</v>
       </c>
       <c r="J274">
-        <v>67.93747043609619</v>
+        <v>67.93747001647949</v>
       </c>
       <c r="K274">
         <v>72.30724684800467</v>
@@ -10829,7 +10829,7 @@
         <v>-0.01213144137802868</v>
       </c>
       <c r="M274">
-        <v>6.143488022356331</v>
+        <v>6.143488022356371</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -10858,7 +10858,7 @@
         <v>56.94211368560791</v>
       </c>
       <c r="J275">
-        <v>67.85740756988525</v>
+        <v>67.85740715026856</v>
       </c>
       <c r="K275">
         <v>72.57360086662447</v>
@@ -10867,7 +10867,7 @@
         <v>0.03576674606449237</v>
       </c>
       <c r="M275">
-        <v>5.799773487979732</v>
+        <v>5.799773487979793</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -10896,7 +10896,7 @@
         <v>57.19316101074219</v>
       </c>
       <c r="J276">
-        <v>67.73617076873779</v>
+        <v>67.73617042541504</v>
       </c>
       <c r="K276">
         <v>70.17384522682477</v>
@@ -10905,7 +10905,7 @@
         <v>0.02504032636628462</v>
       </c>
       <c r="M276">
-        <v>5.494487873438716</v>
+        <v>5.494487873438797</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -10934,7 +10934,7 @@
         <v>57.72442398071289</v>
       </c>
       <c r="J277">
-        <v>67.60304996490478</v>
+        <v>67.60304962158203</v>
       </c>
       <c r="K277">
         <v>69.18715685804236</v>
@@ -10943,7 +10943,7 @@
         <v>0.07976483864265638</v>
       </c>
       <c r="M277">
-        <v>5.37840030649827</v>
+        <v>5.378400306498367</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -10972,7 +10972,7 @@
         <v>58.52692766189575</v>
       </c>
       <c r="J278">
-        <v>67.5322197341919</v>
+        <v>67.53221939086914</v>
       </c>
       <c r="K278">
         <v>72.97715193975421</v>
@@ -10981,7 +10981,7 @@
         <v>0.03298558048310385</v>
       </c>
       <c r="M278">
-        <v>5.179759213637047</v>
+        <v>5.179759213637168</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11010,7 +11010,7 @@
         <v>59.34015140533447</v>
       </c>
       <c r="J279">
-        <v>67.46667652130127</v>
+        <v>67.46667617797851</v>
       </c>
       <c r="K279">
         <v>77.3554930685666</v>
@@ -11019,7 +11019,7 @@
         <v>0.05483368877692985</v>
       </c>
       <c r="M279">
-        <v>4.69268009585499</v>
+        <v>4.692680095855146</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11048,7 +11048,7 @@
         <v>60.16908111572265</v>
       </c>
       <c r="J280">
-        <v>67.42226085662841</v>
+        <v>67.42226051330566</v>
       </c>
       <c r="K280">
         <v>72.78344743085871</v>
@@ -11057,7 +11057,7 @@
         <v>0.02529487786795759</v>
       </c>
       <c r="M280">
-        <v>3.978923520794076</v>
+        <v>3.978923520794283</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11086,7 +11086,7 @@
         <v>60.70757389068604</v>
       </c>
       <c r="J281">
-        <v>67.40634189605713</v>
+        <v>67.40634155273438</v>
       </c>
       <c r="K281">
         <v>73.07458033102127</v>
@@ -11095,7 +11095,7 @@
         <v>0.06014287228821913</v>
       </c>
       <c r="M281">
-        <v>3.360874103739566</v>
+        <v>3.36087410373984</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -11124,7 +11124,7 @@
         <v>61.41559219360352</v>
       </c>
       <c r="J282">
-        <v>67.39639827728271</v>
+        <v>67.3963980102539</v>
       </c>
       <c r="K282">
         <v>73.65542584356737</v>
@@ -11133,7 +11133,7 @@
         <v>0.04091607284590681</v>
       </c>
       <c r="M282">
-        <v>2.350127003803072</v>
+        <v>2.350127003803509</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -11162,7 +11162,7 @@
         <v>62.09868021011353</v>
       </c>
       <c r="J283">
-        <v>67.3499076461792</v>
+        <v>67.34990737915039</v>
       </c>
       <c r="K283">
         <v>68.13672039530844</v>
@@ -11171,7 +11171,7 @@
         <v>0.03684502199068596</v>
       </c>
       <c r="M283">
-        <v>2.374672638119752</v>
+        <v>2.374672638120215</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -11200,7 +11200,7 @@
         <v>62.73689365386963</v>
       </c>
       <c r="J284">
-        <v>67.31204418182374</v>
+        <v>67.31204391479493</v>
       </c>
       <c r="K284">
         <v>62.13941338764055</v>
@@ -11209,7 +11209,7 @@
         <v>0.01800448107938646</v>
       </c>
       <c r="M284">
-        <v>2.484205419199954</v>
+        <v>2.484205419200414</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -11238,7 +11238,7 @@
         <v>63.38258628845215</v>
       </c>
       <c r="J285">
-        <v>67.24019100189209</v>
+        <v>67.24019073486328</v>
       </c>
       <c r="K285">
         <v>60.99875845118363</v>
@@ -11247,7 +11247,7 @@
         <v>0.04906447710649586</v>
       </c>
       <c r="M285">
-        <v>2.637713518879035</v>
+        <v>2.637713518879482</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -11276,7 +11276,7 @@
         <v>64.06916446685791</v>
       </c>
       <c r="J286">
-        <v>67.12609661102294</v>
+        <v>67.12609634399413</v>
       </c>
       <c r="K286">
         <v>54.18681144713269</v>
@@ -11285,7 +11285,7 @@
         <v>-0.01859593020528572</v>
       </c>
       <c r="M286">
-        <v>2.633234108441154</v>
+        <v>2.633234108441607</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -11314,7 +11314,7 @@
         <v>64.83302640914917</v>
       </c>
       <c r="J287">
-        <v>67.00900707244872</v>
+        <v>67.00900680541992</v>
       </c>
       <c r="K287">
         <v>57.50777552507407</v>
@@ -11323,7 +11323,7 @@
         <v>0.01690370237167094</v>
       </c>
       <c r="M287">
-        <v>2.772616149661462</v>
+        <v>2.772616149661903</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -11352,7 +11352,7 @@
         <v>65.62331418991089</v>
       </c>
       <c r="J288">
-        <v>66.86421100616455</v>
+        <v>66.86421073913574</v>
       </c>
       <c r="K288">
         <v>53.09476437220882</v>
@@ -11361,7 +11361,7 @@
         <v>-0.03185060033412368</v>
       </c>
       <c r="M288">
-        <v>2.789706488961789</v>
+        <v>2.789706488962231</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -11390,7 +11390,7 @@
         <v>66.3313323020935</v>
       </c>
       <c r="J289">
-        <v>66.73422672271728</v>
+        <v>66.73422637939453</v>
       </c>
       <c r="K289">
         <v>54.23114817325595</v>
@@ -11399,7 +11399,7 @@
         <v>-0.02313823003751814</v>
       </c>
       <c r="M289">
-        <v>2.786606778634175</v>
+        <v>2.786606778634625</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -11428,7 +11428,7 @@
         <v>66.93962945938111</v>
       </c>
       <c r="J290">
-        <v>66.66983486175538</v>
+        <v>66.66983451843262</v>
       </c>
       <c r="K290">
         <v>57.93172785329096</v>
@@ -11437,7 +11437,7 @@
         <v>-0.04280629381062528</v>
       </c>
       <c r="M290">
-        <v>2.591630679983694</v>
+        <v>2.59163067998419</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -11466,7 +11466,7 @@
         <v>67.50205507278443</v>
       </c>
       <c r="J291">
-        <v>66.59298114776611</v>
+        <v>66.59298080444336</v>
       </c>
       <c r="K291">
         <v>60.56707272160399</v>
@@ -11475,7 +11475,7 @@
         <v>0.02567618218428858</v>
       </c>
       <c r="M291">
-        <v>2.432125636654632</v>
+        <v>2.432125636655179</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -11504,7 +11504,7 @@
         <v>68.10636339187622</v>
       </c>
       <c r="J292">
-        <v>66.55510334014893</v>
+        <v>66.55510307312012</v>
       </c>
       <c r="K292">
         <v>68.54530484188557</v>
@@ -11513,7 +11513,7 @@
         <v>0.03034289286750291</v>
       </c>
       <c r="M292">
-        <v>2.182550895388045</v>
+        <v>2.182550895388693</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -11536,13 +11536,13 @@
         <v>78.87999725341797</v>
       </c>
       <c r="G293">
-        <v>50472600</v>
+        <v>50719100</v>
       </c>
       <c r="I293">
         <v>68.7266191482544</v>
       </c>
       <c r="J293">
-        <v>66.51296459197998</v>
+        <v>66.51296440124511</v>
       </c>
       <c r="K293">
         <v>63.98657051376638</v>
@@ -11551,45 +11551,311 @@
         <v>0.06987061432635278</v>
       </c>
       <c r="M293">
-        <v>2.393315098963444</v>
+        <v>2.393315098964058</v>
       </c>
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="2">
         <v>45834</v>
       </c>
+      <c r="B294" s="3">
+        <v>45834</v>
+      </c>
       <c r="C294">
-        <v>80.33</v>
+        <v>80.62999725341797</v>
       </c>
       <c r="D294">
-        <v>80.33</v>
+        <v>80.84999847412109</v>
       </c>
       <c r="E294">
-        <v>80.33</v>
+        <v>78.62000274658203</v>
       </c>
       <c r="F294">
-        <v>80.33</v>
+        <v>79.41999816894531</v>
       </c>
       <c r="G294">
+        <v>50072100</v>
+      </c>
+      <c r="I294">
+        <v>69.37444801330567</v>
+      </c>
+      <c r="J294">
+        <v>66.49679985046387</v>
+      </c>
+      <c r="K294">
+        <v>68.67416421942167</v>
+      </c>
+      <c r="L294">
+        <v>0.1006764133708782</v>
+      </c>
+      <c r="M294">
+        <v>2.693123989791961</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B295" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C295">
+        <v>81.41999816894531</v>
+      </c>
+      <c r="D295">
+        <v>82.25</v>
+      </c>
+      <c r="E295">
+        <v>79.84999847412109</v>
+      </c>
+      <c r="F295">
+        <v>81.02999877929688</v>
+      </c>
+      <c r="G295">
+        <v>73011800</v>
+      </c>
+      <c r="I295">
+        <v>70.04177761077881</v>
+      </c>
+      <c r="J295">
+        <v>66.50842079162598</v>
+      </c>
+      <c r="K295">
+        <v>69.15537794970061</v>
+      </c>
+      <c r="L295">
+        <v>0.1269552578398019</v>
+      </c>
+      <c r="M295">
+        <v>2.976160858386569</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B296" s="3">
+        <v>45838</v>
+      </c>
+      <c r="C296">
+        <v>83</v>
+      </c>
+      <c r="D296">
+        <v>83.48999786376953</v>
+      </c>
+      <c r="E296">
+        <v>81.83000183105469</v>
+      </c>
+      <c r="F296">
+        <v>82.80000305175781</v>
+      </c>
+      <c r="G296">
+        <v>56860700</v>
+      </c>
+      <c r="I296">
+        <v>70.70148916244507</v>
+      </c>
+      <c r="J296">
+        <v>66.50670944213867</v>
+      </c>
+      <c r="K296">
+        <v>71.58449841181255</v>
+      </c>
+      <c r="L296">
+        <v>0.1142213010823303</v>
+      </c>
+      <c r="M296">
+        <v>3.27605676146616</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B297" s="3">
+        <v>45839</v>
+      </c>
+      <c r="C297">
+        <v>80.88999938964844</v>
+      </c>
+      <c r="D297">
+        <v>82.54000091552734</v>
+      </c>
+      <c r="E297">
+        <v>79.80999755859375</v>
+      </c>
+      <c r="F297">
+        <v>82.12000274658203</v>
+      </c>
+      <c r="G297">
+        <v>70195000</v>
+      </c>
+      <c r="I297">
+        <v>71.24213628768921</v>
+      </c>
+      <c r="J297">
+        <v>66.47306053161621</v>
+      </c>
+      <c r="K297">
+        <v>65.25503863767898</v>
+      </c>
+      <c r="L297">
+        <v>0.03862257496437405</v>
+      </c>
+      <c r="M297">
+        <v>3.35592148421791</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B298" s="3">
+        <v>45840</v>
+      </c>
+      <c r="C298">
+        <v>82.5</v>
+      </c>
+      <c r="D298">
+        <v>82.58999633789062</v>
+      </c>
+      <c r="E298">
+        <v>80.43000030517578</v>
+      </c>
+      <c r="F298">
+        <v>80.45999908447266</v>
+      </c>
+      <c r="G298">
+        <v>50142500</v>
+      </c>
+      <c r="I298">
+        <v>71.8487114906311</v>
+      </c>
+      <c r="J298">
+        <v>66.44288436889649</v>
+      </c>
+      <c r="K298">
+        <v>65.19304970868265</v>
+      </c>
+      <c r="L298">
+        <v>0.05122319662479025</v>
+      </c>
+      <c r="M298">
+        <v>3.59785807486878</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="2">
+        <v>45841</v>
+      </c>
+      <c r="B299" s="3">
+        <v>45841</v>
+      </c>
+      <c r="C299">
+        <v>84.80999755859375</v>
+      </c>
+      <c r="D299">
+        <v>85.29000091552734</v>
+      </c>
+      <c r="E299">
+        <v>83.48999786376953</v>
+      </c>
+      <c r="F299">
+        <v>83.48999786376953</v>
+      </c>
+      <c r="G299">
+        <v>41742300</v>
+      </c>
+      <c r="I299">
+        <v>72.55442085266114</v>
+      </c>
+      <c r="J299">
+        <v>66.46842041015626</v>
+      </c>
+      <c r="K299">
+        <v>67.02351557975616</v>
+      </c>
+      <c r="L299">
+        <v>0.05184175179912454</v>
+      </c>
+      <c r="M299">
+        <v>4.003897901428019</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B300" s="3">
+        <v>45845</v>
+      </c>
+      <c r="C300">
+        <v>82.91999816894531</v>
+      </c>
+      <c r="D300">
+        <v>83.97000122070312</v>
+      </c>
+      <c r="E300">
+        <v>81.80000305175781</v>
+      </c>
+      <c r="F300">
+        <v>83.59999847412109</v>
+      </c>
+      <c r="G300">
+        <v>69837400</v>
+      </c>
+      <c r="I300">
+        <v>73.19642629623414</v>
+      </c>
+      <c r="J300">
+        <v>66.44612297058106</v>
+      </c>
+      <c r="K300">
+        <v>66.66755526790632</v>
+      </c>
+      <c r="L300">
+        <v>0.01842299230819822</v>
+      </c>
+      <c r="M300">
+        <v>4.043394036347892</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="2">
+        <v>45846</v>
+      </c>
+      <c r="C301">
+        <v>83.02</v>
+      </c>
+      <c r="D301">
+        <v>83.02</v>
+      </c>
+      <c r="E301">
+        <v>83.02</v>
+      </c>
+      <c r="F301">
+        <v>83.02</v>
+      </c>
+      <c r="G301">
         <v>10000</v>
       </c>
-      <c r="H294">
-        <v>80.33</v>
-      </c>
-      <c r="I294">
-        <v>69.36694808197021</v>
-      </c>
-      <c r="J294">
-        <v>66.49380006866456</v>
-      </c>
-      <c r="K294">
-        <v>68.3456300702429</v>
-      </c>
-      <c r="L294">
-        <v>0.09658116455330235</v>
-      </c>
-      <c r="M294">
-        <v>2.655768962766962</v>
+      <c r="H301">
+        <v>83.02</v>
+      </c>
+      <c r="I301">
+        <v>73.79830111312866</v>
+      </c>
+      <c r="J301">
+        <v>66.43089068908692</v>
+      </c>
+      <c r="K301">
+        <v>64.56342670665902</v>
+      </c>
+      <c r="L301">
+        <v>0.0002409638554217164</v>
+      </c>
+      <c r="M301">
+        <v>4.142260721180714</v>
       </c>
     </row>
   </sheetData>
